--- a/SQL Backup report/report.xlsx
+++ b/SQL Backup report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>Monday</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>mow03-sql18c</t>
+  </si>
+  <si>
+    <t>mow03-csbs01</t>
   </si>
   <si>
     <t>mow03-sql38</t>
@@ -250,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -278,6 +281,7 @@
     <xf borderId="3" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="3" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -555,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:LZ75"/>
+  <dimension ref="A2:LZ78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="87" zoomScaleNormal="87">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C4" xSplit="2" ySplit="3"/>
@@ -1132,28 +1136,34 @@
       <c r="C4" s="12" t="n"/>
       <c r="AU4" s="15" t="s"/>
       <c r="AV4" s="15" t="s"/>
+      <c r="AW4" s="15" t="s"/>
       <c r="AX4" s="13" t="n"/>
       <c r="AY4" s="12" t="n"/>
       <c r="CQ4" s="15" t="s"/>
       <c r="CR4" s="15" t="s"/>
+      <c r="CS4" s="15" t="s"/>
       <c r="CT4" s="13" t="n"/>
       <c r="CU4" s="12" t="n"/>
       <c r="EM4" s="15" t="s"/>
       <c r="EN4" s="15" t="s"/>
+      <c r="EO4" s="15" t="s"/>
       <c r="EP4" s="13" t="n"/>
       <c r="EQ4" s="12" t="n"/>
       <c r="GI4" s="15" t="s"/>
       <c r="GJ4" s="15" t="s"/>
+      <c r="GK4" s="15" t="s"/>
       <c r="GL4" s="13" t="n"/>
       <c r="GM4" s="12" t="n"/>
       <c r="IE4" s="15" t="s"/>
       <c r="IF4" s="15" t="s"/>
+      <c r="IG4" s="15" t="s"/>
       <c r="IH4" s="13" t="n"/>
       <c r="II4" s="12" t="n"/>
       <c r="KD4" s="13" t="n"/>
       <c r="KE4" s="12" t="n"/>
       <c r="LW4" s="15" t="s"/>
       <c r="LX4" s="15" t="s"/>
+      <c r="LY4" s="15" t="s"/>
       <c r="LZ4" s="13" t="n"/>
     </row>
     <row r="5" s="11" spans="1:338">
@@ -1176,6 +1186,7 @@
       <c r="II5" s="12" t="n"/>
       <c r="JZ5" s="16" t="s"/>
       <c r="KA5" s="16" t="s"/>
+      <c r="KB5" s="16" t="s"/>
       <c r="KD5" s="13" t="n"/>
       <c r="KE5" s="12" t="n"/>
       <c r="LZ5" s="13" t="n"/>
@@ -1190,30 +1201,44 @@
       <c r="C6" s="12" t="n"/>
       <c r="G6" s="17" t="s"/>
       <c r="H6" s="17" t="s"/>
+      <c r="I6" s="17" t="s"/>
+      <c r="J6" s="17" t="s"/>
       <c r="AX6" s="13" t="n"/>
       <c r="AY6" s="12" t="n"/>
       <c r="BC6" s="17" t="s"/>
       <c r="BD6" s="17" t="s"/>
+      <c r="BE6" s="17" t="s"/>
+      <c r="BF6" s="17" t="s"/>
       <c r="CT6" s="13" t="n"/>
       <c r="CU6" s="12" t="n"/>
       <c r="CY6" s="17" t="s"/>
       <c r="CZ6" s="17" t="s"/>
+      <c r="DA6" s="17" t="s"/>
+      <c r="DB6" s="17" t="s"/>
       <c r="EP6" s="13" t="n"/>
       <c r="EQ6" s="12" t="n"/>
       <c r="EU6" s="17" t="s"/>
       <c r="EV6" s="17" t="s"/>
+      <c r="EW6" s="17" t="s"/>
+      <c r="EX6" s="17" t="s"/>
       <c r="GL6" s="13" t="n"/>
       <c r="GM6" s="12" t="n"/>
       <c r="GQ6" s="17" t="s"/>
       <c r="GR6" s="17" t="s"/>
+      <c r="GS6" s="17" t="s"/>
+      <c r="GT6" s="17" t="s"/>
       <c r="IH6" s="13" t="n"/>
       <c r="II6" s="12" t="n"/>
       <c r="IM6" s="17" t="s"/>
       <c r="IN6" s="17" t="s"/>
+      <c r="IO6" s="17" t="s"/>
+      <c r="IP6" s="17" t="s"/>
       <c r="KD6" s="13" t="n"/>
       <c r="KE6" s="12" t="n"/>
       <c r="KI6" s="17" t="s"/>
       <c r="KJ6" s="17" t="s"/>
+      <c r="KK6" s="17" t="s"/>
+      <c r="KL6" s="17" t="s"/>
       <c r="LZ6" s="13" t="n"/>
     </row>
     <row r="7" s="11" spans="1:338">
@@ -1224,16 +1249,22 @@
         <v>10</v>
       </c>
       <c r="C7" s="18" t="s"/>
+      <c r="D7" s="15" t="s"/>
       <c r="AX7" s="19" t="s"/>
       <c r="AY7" s="18" t="s"/>
+      <c r="AZ7" s="15" t="s"/>
       <c r="CT7" s="19" t="s"/>
       <c r="CU7" s="18" t="s"/>
+      <c r="CV7" s="15" t="s"/>
       <c r="EP7" s="19" t="s"/>
       <c r="EQ7" s="18" t="s"/>
+      <c r="ER7" s="15" t="s"/>
       <c r="GL7" s="19" t="s"/>
       <c r="GM7" s="18" t="s"/>
+      <c r="GN7" s="15" t="s"/>
       <c r="IH7" s="19" t="s"/>
       <c r="II7" s="18" t="s"/>
+      <c r="IJ7" s="15" t="s"/>
       <c r="KD7" s="13" t="n"/>
       <c r="KE7" s="12" t="n"/>
       <c r="LZ7" s="19" t="s"/>
@@ -1279,8 +1310,9 @@
       <c r="O9" s="22" t="s"/>
       <c r="P9" s="22" t="s"/>
       <c r="Q9" s="22" t="s"/>
-      <c r="R9" s="14" t="n"/>
-      <c r="S9" s="14" t="n"/>
+      <c r="R9" s="22" t="s"/>
+      <c r="S9" s="22" t="s"/>
+      <c r="T9" s="17" t="s"/>
       <c r="AX9" s="13" t="n"/>
       <c r="AY9" s="12" t="n"/>
       <c r="BG9" s="17" t="s"/>
@@ -1290,6 +1322,9 @@
       <c r="BK9" s="17" t="s"/>
       <c r="BL9" s="17" t="s"/>
       <c r="BM9" s="17" t="s"/>
+      <c r="BN9" s="17" t="s"/>
+      <c r="BO9" s="17" t="s"/>
+      <c r="BP9" s="17" t="s"/>
       <c r="CT9" s="13" t="n"/>
       <c r="CU9" s="12" t="n"/>
       <c r="DC9" s="17" t="s"/>
@@ -1299,6 +1334,9 @@
       <c r="DG9" s="17" t="s"/>
       <c r="DH9" s="17" t="s"/>
       <c r="DI9" s="17" t="s"/>
+      <c r="DJ9" s="17" t="s"/>
+      <c r="DK9" s="17" t="s"/>
+      <c r="DL9" s="17" t="s"/>
       <c r="EP9" s="13" t="n"/>
       <c r="EQ9" s="12" t="n"/>
       <c r="EY9" s="17" t="s"/>
@@ -1308,6 +1346,9 @@
       <c r="FC9" s="17" t="s"/>
       <c r="FD9" s="17" t="s"/>
       <c r="FE9" s="17" t="s"/>
+      <c r="FF9" s="17" t="s"/>
+      <c r="FG9" s="17" t="s"/>
+      <c r="FH9" s="17" t="s"/>
       <c r="GL9" s="13" t="n"/>
       <c r="GM9" s="12" t="n"/>
       <c r="GU9" s="17" t="s"/>
@@ -1317,6 +1358,9 @@
       <c r="GY9" s="17" t="s"/>
       <c r="GZ9" s="17" t="s"/>
       <c r="HA9" s="17" t="s"/>
+      <c r="HB9" s="17" t="s"/>
+      <c r="HC9" s="17" t="s"/>
+      <c r="HD9" s="17" t="s"/>
       <c r="IH9" s="13" t="n"/>
       <c r="II9" s="12" t="n"/>
       <c r="IQ9" s="17" t="s"/>
@@ -1326,6 +1370,9 @@
       <c r="IU9" s="17" t="s"/>
       <c r="IV9" s="17" t="s"/>
       <c r="IW9" s="17" t="s"/>
+      <c r="IX9" s="17" t="s"/>
+      <c r="IY9" s="17" t="s"/>
+      <c r="IZ9" s="17" t="s"/>
       <c r="KD9" s="13" t="n"/>
       <c r="KE9" s="12" t="n"/>
       <c r="LZ9" s="13" t="n"/>
@@ -1409,6 +1456,8 @@
       <c r="C12" s="12" t="n"/>
       <c r="E12" s="17" t="s"/>
       <c r="F12" s="17" t="s"/>
+      <c r="G12" s="17" t="s"/>
+      <c r="H12" s="17" t="s"/>
       <c r="L12" s="14" t="n"/>
       <c r="M12" s="14" t="n"/>
       <c r="N12" s="14" t="n"/>
@@ -1421,26 +1470,38 @@
       <c r="AY12" s="12" t="n"/>
       <c r="BA12" s="17" t="s"/>
       <c r="BB12" s="17" t="s"/>
+      <c r="BC12" s="17" t="s"/>
+      <c r="BD12" s="17" t="s"/>
       <c r="CT12" s="13" t="n"/>
       <c r="CU12" s="12" t="n"/>
       <c r="CW12" s="17" t="s"/>
       <c r="CX12" s="17" t="s"/>
+      <c r="CY12" s="17" t="s"/>
+      <c r="CZ12" s="17" t="s"/>
       <c r="EP12" s="13" t="n"/>
       <c r="EQ12" s="12" t="n"/>
       <c r="ES12" s="17" t="s"/>
       <c r="ET12" s="17" t="s"/>
+      <c r="EU12" s="17" t="s"/>
+      <c r="EV12" s="17" t="s"/>
       <c r="GL12" s="13" t="n"/>
       <c r="GM12" s="12" t="n"/>
       <c r="GO12" s="17" t="s"/>
       <c r="GP12" s="17" t="s"/>
+      <c r="GQ12" s="17" t="s"/>
+      <c r="GR12" s="17" t="s"/>
       <c r="IH12" s="13" t="n"/>
       <c r="II12" s="12" t="n"/>
       <c r="IK12" s="17" t="s"/>
       <c r="IL12" s="17" t="s"/>
+      <c r="IM12" s="17" t="s"/>
+      <c r="IN12" s="17" t="s"/>
       <c r="KD12" s="13" t="n"/>
       <c r="KE12" s="12" t="n"/>
       <c r="KG12" s="17" t="s"/>
       <c r="KH12" s="17" t="s"/>
+      <c r="KI12" s="17" t="s"/>
+      <c r="KJ12" s="17" t="s"/>
       <c r="LZ12" s="13" t="n"/>
     </row>
     <row r="13" s="11" spans="1:338">
@@ -1529,6 +1590,7 @@
       <c r="E15" s="17" t="s"/>
       <c r="F15" s="17" t="s"/>
       <c r="G15" s="17" t="s"/>
+      <c r="H15" s="17" t="s"/>
       <c r="L15" s="14" t="n"/>
       <c r="M15" s="14" t="n"/>
       <c r="N15" s="14" t="n"/>
@@ -1542,31 +1604,37 @@
       <c r="BA15" s="17" t="s"/>
       <c r="BB15" s="17" t="s"/>
       <c r="BC15" s="17" t="s"/>
+      <c r="BD15" s="17" t="s"/>
       <c r="CT15" s="13" t="n"/>
       <c r="CU15" s="12" t="n"/>
       <c r="CW15" s="17" t="s"/>
       <c r="CX15" s="17" t="s"/>
       <c r="CY15" s="17" t="s"/>
+      <c r="CZ15" s="17" t="s"/>
       <c r="EP15" s="13" t="n"/>
       <c r="EQ15" s="12" t="n"/>
       <c r="ES15" s="17" t="s"/>
       <c r="ET15" s="17" t="s"/>
       <c r="EU15" s="17" t="s"/>
+      <c r="EV15" s="17" t="s"/>
       <c r="GL15" s="13" t="n"/>
       <c r="GM15" s="12" t="n"/>
       <c r="GO15" s="17" t="s"/>
       <c r="GP15" s="17" t="s"/>
       <c r="GQ15" s="17" t="s"/>
+      <c r="GR15" s="17" t="s"/>
       <c r="IH15" s="13" t="n"/>
       <c r="II15" s="12" t="n"/>
       <c r="IK15" s="17" t="s"/>
       <c r="IL15" s="17" t="s"/>
       <c r="IM15" s="17" t="s"/>
+      <c r="IN15" s="17" t="s"/>
       <c r="KD15" s="13" t="n"/>
       <c r="KE15" s="12" t="n"/>
       <c r="KG15" s="17" t="s"/>
       <c r="KH15" s="17" t="s"/>
       <c r="KI15" s="17" t="s"/>
+      <c r="KJ15" s="17" t="s"/>
       <c r="LZ15" s="13" t="n"/>
     </row>
     <row r="16" s="11" spans="1:338">
@@ -1578,24 +1646,48 @@
       </c>
       <c r="C16" s="18" t="s"/>
       <c r="D16" s="15" t="s"/>
-      <c r="AX16" s="19" t="s"/>
+      <c r="E16" s="15" t="s"/>
+      <c r="F16" s="15" t="s"/>
+      <c r="G16" s="15" t="s"/>
+      <c r="H16" s="15" t="s"/>
+      <c r="AX16" s="13" t="n"/>
       <c r="AY16" s="18" t="s"/>
       <c r="AZ16" s="15" t="s"/>
-      <c r="CT16" s="19" t="s"/>
+      <c r="BA16" s="15" t="s"/>
+      <c r="BB16" s="15" t="s"/>
+      <c r="BC16" s="15" t="s"/>
+      <c r="BD16" s="15" t="s"/>
+      <c r="CT16" s="13" t="n"/>
       <c r="CU16" s="18" t="s"/>
       <c r="CV16" s="15" t="s"/>
-      <c r="EP16" s="19" t="s"/>
+      <c r="CW16" s="15" t="s"/>
+      <c r="CX16" s="15" t="s"/>
+      <c r="CY16" s="15" t="s"/>
+      <c r="CZ16" s="15" t="s"/>
+      <c r="EP16" s="13" t="n"/>
       <c r="EQ16" s="18" t="s"/>
       <c r="ER16" s="15" t="s"/>
-      <c r="GL16" s="19" t="s"/>
+      <c r="ES16" s="15" t="s"/>
+      <c r="ET16" s="15" t="s"/>
+      <c r="EU16" s="15" t="s"/>
+      <c r="EV16" s="15" t="s"/>
+      <c r="GL16" s="13" t="n"/>
       <c r="GM16" s="18" t="s"/>
       <c r="GN16" s="15" t="s"/>
-      <c r="IH16" s="19" t="s"/>
-      <c r="II16" s="18" t="s"/>
-      <c r="IJ16" s="15" t="s"/>
+      <c r="GO16" s="15" t="s"/>
+      <c r="GP16" s="15" t="s"/>
+      <c r="GQ16" s="15" t="s"/>
+      <c r="GR16" s="15" t="s"/>
+      <c r="IH16" s="13" t="n"/>
+      <c r="II16" s="12" t="n"/>
       <c r="KD16" s="13" t="n"/>
-      <c r="KE16" s="12" t="n"/>
-      <c r="LZ16" s="19" t="s"/>
+      <c r="KE16" s="18" t="s"/>
+      <c r="KF16" s="15" t="s"/>
+      <c r="KG16" s="15" t="s"/>
+      <c r="KH16" s="15" t="s"/>
+      <c r="KI16" s="15" t="s"/>
+      <c r="KJ16" s="15" t="s"/>
+      <c r="LZ16" s="13" t="n"/>
     </row>
     <row r="17" s="11" spans="1:338">
       <c r="A17" t="s">
@@ -1627,6 +1719,7 @@
       <c r="KF17" s="16" t="s"/>
       <c r="KG17" s="16" t="s"/>
       <c r="KH17" s="16" t="s"/>
+      <c r="KI17" s="16" t="s"/>
       <c r="LZ17" s="13" t="n"/>
     </row>
     <row r="18" s="11" spans="1:338">
@@ -1647,6 +1740,10 @@
       <c r="Q18" s="17" t="s"/>
       <c r="R18" s="17" t="s"/>
       <c r="S18" s="17" t="s"/>
+      <c r="T18" s="17" t="s"/>
+      <c r="U18" s="17" t="s"/>
+      <c r="V18" s="17" t="s"/>
+      <c r="W18" s="17" t="s"/>
       <c r="AX18" s="13" t="n"/>
       <c r="AY18" s="12" t="n"/>
       <c r="BF18" s="17" t="s"/>
@@ -1659,6 +1756,10 @@
       <c r="BM18" s="17" t="s"/>
       <c r="BN18" s="17" t="s"/>
       <c r="BO18" s="17" t="s"/>
+      <c r="BP18" s="17" t="s"/>
+      <c r="BQ18" s="17" t="s"/>
+      <c r="BR18" s="17" t="s"/>
+      <c r="BS18" s="17" t="s"/>
       <c r="CT18" s="13" t="n"/>
       <c r="CU18" s="12" t="n"/>
       <c r="DB18" s="17" t="s"/>
@@ -1671,6 +1772,10 @@
       <c r="DI18" s="17" t="s"/>
       <c r="DJ18" s="17" t="s"/>
       <c r="DK18" s="17" t="s"/>
+      <c r="DL18" s="17" t="s"/>
+      <c r="DM18" s="17" t="s"/>
+      <c r="DN18" s="17" t="s"/>
+      <c r="DO18" s="17" t="s"/>
       <c r="EP18" s="13" t="n"/>
       <c r="EQ18" s="12" t="n"/>
       <c r="EX18" s="17" t="s"/>
@@ -1683,6 +1788,10 @@
       <c r="FE18" s="17" t="s"/>
       <c r="FF18" s="17" t="s"/>
       <c r="FG18" s="17" t="s"/>
+      <c r="FH18" s="17" t="s"/>
+      <c r="FI18" s="17" t="s"/>
+      <c r="FJ18" s="17" t="s"/>
+      <c r="FK18" s="17" t="s"/>
       <c r="GL18" s="13" t="n"/>
       <c r="GM18" s="12" t="n"/>
       <c r="GT18" s="17" t="s"/>
@@ -1695,6 +1804,10 @@
       <c r="HA18" s="17" t="s"/>
       <c r="HB18" s="17" t="s"/>
       <c r="HC18" s="17" t="s"/>
+      <c r="HD18" s="17" t="s"/>
+      <c r="HE18" s="17" t="s"/>
+      <c r="HF18" s="17" t="s"/>
+      <c r="HG18" s="17" t="s"/>
       <c r="IH18" s="13" t="n"/>
       <c r="II18" s="12" t="n"/>
       <c r="IP18" s="17" t="s"/>
@@ -1707,6 +1820,10 @@
       <c r="IW18" s="17" t="s"/>
       <c r="IX18" s="17" t="s"/>
       <c r="IY18" s="17" t="s"/>
+      <c r="IZ18" s="17" t="s"/>
+      <c r="JA18" s="17" t="s"/>
+      <c r="JB18" s="17" t="s"/>
+      <c r="JC18" s="17" t="s"/>
       <c r="KD18" s="13" t="n"/>
       <c r="KE18" s="12" t="n"/>
       <c r="LZ18" s="13" t="n"/>
@@ -1783,16 +1900,40 @@
       <c r="G21" s="17" t="s"/>
       <c r="H21" s="17" t="s"/>
       <c r="I21" s="17" t="s"/>
+      <c r="J21" s="17" t="s"/>
+      <c r="K21" s="17" t="s"/>
+      <c r="L21" s="17" t="s"/>
+      <c r="M21" s="17" t="s"/>
+      <c r="N21" s="17" t="s"/>
+      <c r="O21" s="17" t="s"/>
+      <c r="P21" s="17" t="s"/>
+      <c r="Q21" s="17" t="s"/>
       <c r="AX21" s="13" t="n"/>
       <c r="AY21" s="12" t="n"/>
       <c r="BC21" s="17" t="s"/>
       <c r="BD21" s="17" t="s"/>
       <c r="BE21" s="17" t="s"/>
+      <c r="BF21" s="17" t="s"/>
+      <c r="BG21" s="17" t="s"/>
+      <c r="BH21" s="17" t="s"/>
+      <c r="BI21" s="17" t="s"/>
+      <c r="BJ21" s="17" t="s"/>
+      <c r="BK21" s="17" t="s"/>
+      <c r="BL21" s="17" t="s"/>
+      <c r="BM21" s="17" t="s"/>
       <c r="CT21" s="13" t="n"/>
       <c r="CU21" s="12" t="n"/>
       <c r="CY21" s="17" t="s"/>
       <c r="CZ21" s="17" t="s"/>
       <c r="DA21" s="17" t="s"/>
+      <c r="DB21" s="17" t="s"/>
+      <c r="DC21" s="17" t="s"/>
+      <c r="DD21" s="17" t="s"/>
+      <c r="DE21" s="17" t="s"/>
+      <c r="DF21" s="17" t="s"/>
+      <c r="DG21" s="17" t="s"/>
+      <c r="DH21" s="17" t="s"/>
+      <c r="DI21" s="17" t="s"/>
       <c r="EP21" s="13" t="n"/>
       <c r="EQ21" s="12" t="n"/>
       <c r="GL21" s="13" t="n"/>
@@ -1800,16 +1941,40 @@
       <c r="GQ21" s="17" t="s"/>
       <c r="GR21" s="17" t="s"/>
       <c r="GS21" s="17" t="s"/>
+      <c r="GT21" s="17" t="s"/>
+      <c r="GU21" s="17" t="s"/>
+      <c r="GV21" s="17" t="s"/>
+      <c r="GW21" s="17" t="s"/>
+      <c r="GX21" s="17" t="s"/>
+      <c r="GY21" s="17" t="s"/>
+      <c r="GZ21" s="17" t="s"/>
+      <c r="HA21" s="17" t="s"/>
       <c r="IH21" s="13" t="n"/>
       <c r="II21" s="12" t="n"/>
       <c r="IM21" s="17" t="s"/>
       <c r="IN21" s="17" t="s"/>
       <c r="IO21" s="17" t="s"/>
+      <c r="IP21" s="17" t="s"/>
+      <c r="IQ21" s="17" t="s"/>
+      <c r="IR21" s="17" t="s"/>
+      <c r="IS21" s="17" t="s"/>
+      <c r="IT21" s="17" t="s"/>
+      <c r="IU21" s="17" t="s"/>
+      <c r="IV21" s="17" t="s"/>
+      <c r="IW21" s="17" t="s"/>
       <c r="KD21" s="13" t="n"/>
       <c r="KE21" s="12" t="n"/>
       <c r="KI21" s="17" t="s"/>
       <c r="KJ21" s="17" t="s"/>
       <c r="KK21" s="17" t="s"/>
+      <c r="KL21" s="17" t="s"/>
+      <c r="KM21" s="17" t="s"/>
+      <c r="KN21" s="17" t="s"/>
+      <c r="KO21" s="17" t="s"/>
+      <c r="KP21" s="17" t="s"/>
+      <c r="KQ21" s="17" t="s"/>
+      <c r="KR21" s="17" t="s"/>
+      <c r="KS21" s="17" t="s"/>
       <c r="LZ21" s="13" t="n"/>
     </row>
     <row r="22" s="11" spans="1:338">
@@ -1821,7 +1986,6 @@
       </c>
       <c r="C22" s="21" t="s"/>
       <c r="D22" s="16" t="s"/>
-      <c r="E22" s="16" t="s"/>
       <c r="AX22" s="13" t="n"/>
       <c r="AY22" s="12" t="n"/>
       <c r="CT22" s="13" t="n"/>
@@ -1866,6 +2030,7 @@
       <c r="L23" s="17" t="s"/>
       <c r="M23" s="17" t="s"/>
       <c r="N23" s="17" t="s"/>
+      <c r="O23" s="17" t="s"/>
       <c r="AX23" s="13" t="n"/>
       <c r="AY23" s="12" t="n"/>
       <c r="AZ23" s="17" t="s"/>
@@ -1879,6 +2044,7 @@
       <c r="BH23" s="17" t="s"/>
       <c r="BI23" s="17" t="s"/>
       <c r="BJ23" s="17" t="s"/>
+      <c r="BK23" s="17" t="s"/>
       <c r="CT23" s="13" t="n"/>
       <c r="CU23" s="12" t="n"/>
       <c r="CV23" s="17" t="s"/>
@@ -1892,6 +2058,7 @@
       <c r="DD23" s="17" t="s"/>
       <c r="DE23" s="17" t="s"/>
       <c r="DF23" s="17" t="s"/>
+      <c r="DG23" s="17" t="s"/>
       <c r="EP23" s="13" t="n"/>
       <c r="EQ23" s="12" t="n"/>
       <c r="ER23" s="17" t="s"/>
@@ -1905,6 +2072,7 @@
       <c r="EZ23" s="17" t="s"/>
       <c r="FA23" s="17" t="s"/>
       <c r="FB23" s="17" t="s"/>
+      <c r="FC23" s="17" t="s"/>
       <c r="GL23" s="13" t="n"/>
       <c r="GM23" s="12" t="n"/>
       <c r="GN23" s="17" t="s"/>
@@ -1918,6 +2086,7 @@
       <c r="GV23" s="17" t="s"/>
       <c r="GW23" s="17" t="s"/>
       <c r="GX23" s="17" t="s"/>
+      <c r="GY23" s="17" t="s"/>
       <c r="IH23" s="13" t="n"/>
       <c r="II23" s="12" t="n"/>
       <c r="IJ23" s="17" t="s"/>
@@ -1931,6 +2100,7 @@
       <c r="IR23" s="17" t="s"/>
       <c r="IS23" s="17" t="s"/>
       <c r="IT23" s="17" t="s"/>
+      <c r="IU23" s="17" t="s"/>
       <c r="KD23" s="13" t="n"/>
       <c r="KE23" s="12" t="n"/>
       <c r="LZ23" s="13" t="n"/>
@@ -1945,28 +2115,34 @@
       <c r="C24" s="12" t="n"/>
       <c r="O24" s="15" t="s"/>
       <c r="P24" s="15" t="s"/>
+      <c r="Q24" s="15" t="s"/>
       <c r="AX24" s="13" t="n"/>
       <c r="AY24" s="12" t="n"/>
       <c r="BK24" s="15" t="s"/>
       <c r="BL24" s="15" t="s"/>
+      <c r="BM24" s="15" t="s"/>
       <c r="CT24" s="13" t="n"/>
       <c r="CU24" s="12" t="n"/>
       <c r="DG24" s="15" t="s"/>
       <c r="DH24" s="15" t="s"/>
+      <c r="DI24" s="15" t="s"/>
       <c r="EP24" s="13" t="n"/>
       <c r="EQ24" s="12" t="n"/>
       <c r="FC24" s="15" t="s"/>
       <c r="FD24" s="15" t="s"/>
+      <c r="FE24" s="15" t="s"/>
       <c r="GL24" s="13" t="n"/>
       <c r="GM24" s="12" t="n"/>
       <c r="GY24" s="15" t="s"/>
       <c r="GZ24" s="15" t="s"/>
+      <c r="HA24" s="15" t="s"/>
       <c r="IH24" s="13" t="n"/>
       <c r="II24" s="12" t="n"/>
       <c r="KD24" s="13" t="n"/>
       <c r="KE24" s="12" t="n"/>
       <c r="KQ24" s="15" t="s"/>
       <c r="KR24" s="15" t="s"/>
+      <c r="KS24" s="15" t="s"/>
       <c r="LZ24" s="13" t="n"/>
     </row>
     <row r="25" s="11" spans="1:338">
@@ -1990,6 +2166,7 @@
       <c r="IR25" s="16" t="s"/>
       <c r="IS25" s="16" t="s"/>
       <c r="IT25" s="16" t="s"/>
+      <c r="IU25" s="16" t="s"/>
       <c r="KD25" s="13" t="n"/>
       <c r="KE25" s="12" t="n"/>
       <c r="LZ25" s="13" t="n"/>
@@ -2001,41 +2178,41 @@
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="12" t="n"/>
+      <c r="C26" s="23" t="s"/>
       <c r="AU26" s="17" t="s"/>
       <c r="AV26" s="17" t="s"/>
       <c r="AW26" s="17" t="s"/>
-      <c r="AX26" s="23" t="s"/>
-      <c r="AY26" s="12" t="n"/>
+      <c r="AX26" s="24" t="s"/>
+      <c r="AY26" s="23" t="s"/>
       <c r="CQ26" s="17" t="s"/>
       <c r="CR26" s="17" t="s"/>
       <c r="CS26" s="17" t="s"/>
-      <c r="CT26" s="23" t="s"/>
-      <c r="CU26" s="12" t="n"/>
+      <c r="CT26" s="24" t="s"/>
+      <c r="CU26" s="23" t="s"/>
       <c r="EM26" s="17" t="s"/>
       <c r="EN26" s="17" t="s"/>
       <c r="EO26" s="17" t="s"/>
-      <c r="EP26" s="23" t="s"/>
-      <c r="EQ26" s="12" t="n"/>
+      <c r="EP26" s="24" t="s"/>
+      <c r="EQ26" s="23" t="s"/>
       <c r="GI26" s="17" t="s"/>
       <c r="GJ26" s="17" t="s"/>
       <c r="GK26" s="17" t="s"/>
-      <c r="GL26" s="23" t="s"/>
-      <c r="GM26" s="12" t="n"/>
+      <c r="GL26" s="24" t="s"/>
+      <c r="GM26" s="23" t="s"/>
       <c r="IE26" s="17" t="s"/>
       <c r="IF26" s="17" t="s"/>
       <c r="IG26" s="17" t="s"/>
-      <c r="IH26" s="23" t="s"/>
-      <c r="II26" s="12" t="n"/>
+      <c r="IH26" s="24" t="s"/>
+      <c r="II26" s="23" t="s"/>
       <c r="KA26" s="17" t="s"/>
       <c r="KB26" s="17" t="s"/>
       <c r="KC26" s="17" t="s"/>
-      <c r="KD26" s="23" t="s"/>
-      <c r="KE26" s="12" t="n"/>
+      <c r="KD26" s="24" t="s"/>
+      <c r="KE26" s="23" t="s"/>
       <c r="LW26" s="17" t="s"/>
       <c r="LX26" s="17" t="s"/>
       <c r="LY26" s="17" t="s"/>
-      <c r="LZ26" s="23" t="s"/>
+      <c r="LZ26" s="24" t="s"/>
     </row>
     <row r="27" s="11" spans="1:338">
       <c r="A27" t="s">
@@ -2099,30 +2276,37 @@
       <c r="C29" s="12" t="n"/>
       <c r="I29" s="17" t="s"/>
       <c r="J29" s="17" t="s"/>
+      <c r="K29" s="17" t="s"/>
       <c r="AX29" s="13" t="n"/>
       <c r="AY29" s="12" t="n"/>
       <c r="BE29" s="17" t="s"/>
       <c r="BF29" s="17" t="s"/>
+      <c r="BG29" s="17" t="s"/>
       <c r="CT29" s="13" t="n"/>
       <c r="CU29" s="12" t="n"/>
       <c r="DA29" s="17" t="s"/>
       <c r="DB29" s="17" t="s"/>
+      <c r="DC29" s="17" t="s"/>
       <c r="EP29" s="13" t="n"/>
       <c r="EQ29" s="12" t="n"/>
       <c r="EW29" s="17" t="s"/>
       <c r="EX29" s="17" t="s"/>
+      <c r="EY29" s="17" t="s"/>
       <c r="GL29" s="13" t="n"/>
       <c r="GM29" s="12" t="n"/>
       <c r="GS29" s="17" t="s"/>
       <c r="GT29" s="17" t="s"/>
+      <c r="GU29" s="17" t="s"/>
       <c r="IH29" s="13" t="n"/>
       <c r="II29" s="12" t="n"/>
       <c r="IO29" s="17" t="s"/>
       <c r="IP29" s="17" t="s"/>
+      <c r="IQ29" s="17" t="s"/>
       <c r="KD29" s="13" t="n"/>
       <c r="KE29" s="12" t="n"/>
       <c r="KK29" s="17" t="s"/>
       <c r="KL29" s="17" t="s"/>
+      <c r="KM29" s="17" t="s"/>
       <c r="LZ29" s="13" t="n"/>
     </row>
     <row r="30" s="11" spans="1:338">
@@ -2239,7 +2423,6 @@
       <c r="CY33" s="16" t="s"/>
       <c r="CZ33" s="16" t="s"/>
       <c r="DA33" s="16" t="s"/>
-      <c r="DB33" s="16" t="s"/>
       <c r="EP33" s="13" t="n"/>
       <c r="EQ33" s="12" t="n"/>
       <c r="GL33" s="13" t="n"/>
@@ -2264,6 +2447,7 @@
       <c r="M34" s="17" t="s"/>
       <c r="N34" s="17" t="s"/>
       <c r="O34" s="17" t="s"/>
+      <c r="P34" s="17" t="s"/>
       <c r="AX34" s="13" t="n"/>
       <c r="AY34" s="12" t="n"/>
       <c r="BF34" s="17" t="s"/>
@@ -2272,6 +2456,7 @@
       <c r="BI34" s="17" t="s"/>
       <c r="BJ34" s="17" t="s"/>
       <c r="BK34" s="17" t="s"/>
+      <c r="BL34" s="17" t="s"/>
       <c r="CT34" s="13" t="n"/>
       <c r="CU34" s="12" t="n"/>
       <c r="EP34" s="13" t="n"/>
@@ -2282,6 +2467,7 @@
       <c r="FA34" s="17" t="s"/>
       <c r="FB34" s="17" t="s"/>
       <c r="FC34" s="17" t="s"/>
+      <c r="FD34" s="17" t="s"/>
       <c r="GL34" s="13" t="n"/>
       <c r="GM34" s="12" t="n"/>
       <c r="GT34" s="17" t="s"/>
@@ -2290,6 +2476,7 @@
       <c r="GW34" s="17" t="s"/>
       <c r="GX34" s="17" t="s"/>
       <c r="GY34" s="17" t="s"/>
+      <c r="GZ34" s="17" t="s"/>
       <c r="IH34" s="13" t="n"/>
       <c r="II34" s="12" t="n"/>
       <c r="IP34" s="17" t="s"/>
@@ -2298,6 +2485,7 @@
       <c r="IS34" s="17" t="s"/>
       <c r="IT34" s="17" t="s"/>
       <c r="IU34" s="17" t="s"/>
+      <c r="IV34" s="17" t="s"/>
       <c r="KD34" s="13" t="n"/>
       <c r="KE34" s="12" t="n"/>
       <c r="KL34" s="17" t="s"/>
@@ -2306,6 +2494,7 @@
       <c r="KO34" s="17" t="s"/>
       <c r="KP34" s="17" t="s"/>
       <c r="KQ34" s="17" t="s"/>
+      <c r="KR34" s="17" t="s"/>
       <c r="LZ34" s="13" t="n"/>
     </row>
     <row r="35" spans="1:338">
@@ -2628,8 +2817,8 @@
       <c r="KE36" s="6" t="n"/>
       <c r="KF36" s="7" t="n"/>
       <c r="KG36" s="7" t="n"/>
-      <c r="KH36" s="24" t="s"/>
-      <c r="KI36" s="24" t="s"/>
+      <c r="KH36" s="25" t="s"/>
+      <c r="KI36" s="25" t="s"/>
       <c r="KJ36" s="7" t="n"/>
       <c r="KK36" s="7" t="n"/>
       <c r="KL36" s="7" t="n"/>
@@ -2702,16 +2891,34 @@
         <v>10</v>
       </c>
       <c r="C38" s="15" t="s"/>
+      <c r="D38" s="15" t="s"/>
+      <c r="E38" s="15" t="s"/>
+      <c r="F38" s="15" t="s"/>
       <c r="AX38" s="15" t="s"/>
       <c r="AY38" s="15" t="s"/>
+      <c r="AZ38" s="15" t="s"/>
+      <c r="BA38" s="15" t="s"/>
+      <c r="BB38" s="15" t="s"/>
       <c r="CT38" s="15" t="s"/>
       <c r="CU38" s="15" t="s"/>
+      <c r="CV38" s="15" t="s"/>
+      <c r="CW38" s="15" t="s"/>
+      <c r="CX38" s="15" t="s"/>
       <c r="EP38" s="15" t="s"/>
       <c r="EQ38" s="15" t="s"/>
+      <c r="ER38" s="15" t="s"/>
+      <c r="ES38" s="15" t="s"/>
+      <c r="ET38" s="15" t="s"/>
       <c r="GL38" s="15" t="s"/>
       <c r="GM38" s="15" t="s"/>
+      <c r="GN38" s="15" t="s"/>
+      <c r="GO38" s="15" t="s"/>
+      <c r="GP38" s="15" t="s"/>
       <c r="KD38" s="15" t="s"/>
       <c r="KE38" s="15" t="s"/>
+      <c r="KF38" s="15" t="s"/>
+      <c r="KG38" s="15" t="s"/>
+      <c r="KH38" s="15" t="s"/>
       <c r="LZ38" s="15" t="s"/>
     </row>
     <row r="39" spans="1:338">
@@ -2830,18 +3037,18 @@
       <c r="B41" t="s">
         <v>10</v>
       </c>
+      <c r="F41" s="15" t="s"/>
       <c r="G41" s="15" t="s"/>
-      <c r="H41" s="15" t="s"/>
+      <c r="BB41" s="15" t="s"/>
       <c r="BC41" s="15" t="s"/>
-      <c r="BD41" s="15" t="s"/>
+      <c r="CX41" s="15" t="s"/>
       <c r="CY41" s="15" t="s"/>
-      <c r="CZ41" s="15" t="s"/>
+      <c r="ET41" s="15" t="s"/>
       <c r="EU41" s="15" t="s"/>
-      <c r="EV41" s="15" t="s"/>
+      <c r="GP41" s="15" t="s"/>
       <c r="GQ41" s="15" t="s"/>
-      <c r="GR41" s="15" t="s"/>
+      <c r="IL41" s="15" t="s"/>
       <c r="IM41" s="15" t="s"/>
-      <c r="IN41" s="15" t="s"/>
     </row>
     <row r="42" spans="1:338">
       <c r="A42" t="s">
@@ -2900,11 +3107,7 @@
       <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="KE45" s="16" t="s"/>
-      <c r="KF45" s="16" t="s"/>
-      <c r="KG45" s="16" t="s"/>
-      <c r="KH45" s="16" t="s"/>
-      <c r="KI45" s="16" t="s"/>
+      <c r="II45" s="16" t="s"/>
     </row>
     <row r="46" spans="1:338">
       <c r="A46" t="s">
@@ -2913,41 +3116,27 @@
       <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="17" t="s"/>
       <c r="AU46" s="17" t="s"/>
       <c r="AV46" s="17" t="s"/>
       <c r="AW46" s="17" t="s"/>
-      <c r="AX46" s="17" t="s"/>
-      <c r="AY46" s="17" t="s"/>
       <c r="CQ46" s="17" t="s"/>
       <c r="CR46" s="17" t="s"/>
       <c r="CS46" s="17" t="s"/>
-      <c r="CT46" s="17" t="s"/>
-      <c r="CU46" s="17" t="s"/>
       <c r="EM46" s="17" t="s"/>
       <c r="EN46" s="17" t="s"/>
       <c r="EO46" s="17" t="s"/>
-      <c r="EP46" s="17" t="s"/>
-      <c r="EQ46" s="17" t="s"/>
       <c r="GI46" s="17" t="s"/>
       <c r="GJ46" s="17" t="s"/>
       <c r="GK46" s="17" t="s"/>
-      <c r="GL46" s="17" t="s"/>
-      <c r="GM46" s="17" t="s"/>
       <c r="IE46" s="17" t="s"/>
       <c r="IF46" s="17" t="s"/>
       <c r="IG46" s="17" t="s"/>
-      <c r="IH46" s="17" t="s"/>
-      <c r="II46" s="17" t="s"/>
       <c r="KA46" s="17" t="s"/>
       <c r="KB46" s="17" t="s"/>
       <c r="KC46" s="17" t="s"/>
-      <c r="KD46" s="17" t="s"/>
-      <c r="KE46" s="17" t="s"/>
       <c r="LW46" s="17" t="s"/>
       <c r="LX46" s="17" t="s"/>
       <c r="LY46" s="17" t="s"/>
-      <c r="LZ46" s="17" t="s"/>
     </row>
     <row r="47" spans="1:338">
       <c r="A47" t="s">
@@ -2986,18 +3175,18 @@
       <c r="B49" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="15" t="s"/>
-      <c r="AX49" s="15" t="s"/>
-      <c r="AY49" s="15" t="s"/>
-      <c r="CT49" s="15" t="s"/>
-      <c r="CU49" s="15" t="s"/>
-      <c r="EP49" s="15" t="s"/>
-      <c r="EQ49" s="15" t="s"/>
-      <c r="GL49" s="15" t="s"/>
-      <c r="GM49" s="15" t="s"/>
-      <c r="IH49" s="15" t="s"/>
-      <c r="II49" s="15" t="s"/>
-      <c r="LZ49" s="15" t="s"/>
+      <c r="J49" s="15" t="s"/>
+      <c r="K49" s="15" t="s"/>
+      <c r="BF49" s="15" t="s"/>
+      <c r="BG49" s="15" t="s"/>
+      <c r="DB49" s="15" t="s"/>
+      <c r="DC49" s="15" t="s"/>
+      <c r="EX49" s="15" t="s"/>
+      <c r="EY49" s="15" t="s"/>
+      <c r="GT49" s="15" t="s"/>
+      <c r="GU49" s="15" t="s"/>
+      <c r="IP49" s="15" t="s"/>
+      <c r="IQ49" s="15" t="s"/>
     </row>
     <row r="50" spans="1:338">
       <c r="A50" t="s">
@@ -3006,8 +3195,7 @@
       <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="KD50" s="16" t="s"/>
-      <c r="KE50" s="16" t="s"/>
+      <c r="II50" s="16" t="s"/>
     </row>
     <row r="51" spans="1:338">
       <c r="A51" t="s">
@@ -3018,18 +3206,25 @@
       </c>
       <c r="AU51" s="17" t="s"/>
       <c r="AV51" s="17" t="s"/>
+      <c r="AW51" s="17" t="s"/>
       <c r="CQ51" s="17" t="s"/>
       <c r="CR51" s="17" t="s"/>
+      <c r="CS51" s="17" t="s"/>
       <c r="EM51" s="17" t="s"/>
       <c r="EN51" s="17" t="s"/>
+      <c r="EO51" s="17" t="s"/>
       <c r="GI51" s="17" t="s"/>
       <c r="GJ51" s="17" t="s"/>
+      <c r="GK51" s="17" t="s"/>
       <c r="IE51" s="17" t="s"/>
       <c r="IF51" s="17" t="s"/>
+      <c r="IG51" s="17" t="s"/>
       <c r="KA51" s="17" t="s"/>
       <c r="KB51" s="17" t="s"/>
+      <c r="KC51" s="17" t="s"/>
       <c r="LW51" s="17" t="s"/>
       <c r="LX51" s="17" t="s"/>
+      <c r="LY51" s="17" t="s"/>
     </row>
     <row r="52" spans="1:338">
       <c r="A52" t="s">
@@ -3038,18 +3233,18 @@
       <c r="B52" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="15" t="s"/>
-      <c r="E52" s="15" t="s"/>
-      <c r="AZ52" s="15" t="s"/>
-      <c r="BA52" s="15" t="s"/>
-      <c r="CV52" s="15" t="s"/>
-      <c r="CW52" s="15" t="s"/>
-      <c r="ER52" s="15" t="s"/>
-      <c r="ES52" s="15" t="s"/>
-      <c r="GN52" s="15" t="s"/>
-      <c r="GO52" s="15" t="s"/>
-      <c r="IJ52" s="15" t="s"/>
-      <c r="IK52" s="15" t="s"/>
+      <c r="AS52" s="15" t="s"/>
+      <c r="AT52" s="15" t="s"/>
+      <c r="CO52" s="15" t="s"/>
+      <c r="CP52" s="15" t="s"/>
+      <c r="EK52" s="15" t="s"/>
+      <c r="EL52" s="15" t="s"/>
+      <c r="GG52" s="15" t="s"/>
+      <c r="GH52" s="15" t="s"/>
+      <c r="IC52" s="15" t="s"/>
+      <c r="ID52" s="15" t="s"/>
+      <c r="LU52" s="15" t="s"/>
+      <c r="LV52" s="15" t="s"/>
     </row>
     <row r="53" spans="1:338">
       <c r="A53" t="s">
@@ -3058,12 +3253,8 @@
       <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="KC53" s="16" t="s"/>
       <c r="KD53" s="16" t="s"/>
       <c r="KE53" s="16" t="s"/>
-      <c r="KF53" s="16" t="s"/>
-      <c r="KG53" s="16" t="s"/>
-      <c r="KH53" s="16" t="s"/>
     </row>
     <row r="54" spans="1:338">
       <c r="A54" t="s">
@@ -3072,34 +3263,20 @@
       <c r="B54" t="s">
         <v>12</v>
       </c>
-      <c r="AT54" s="17" t="s"/>
       <c r="AU54" s="17" t="s"/>
       <c r="AV54" s="17" t="s"/>
-      <c r="AW54" s="17" t="s"/>
-      <c r="CP54" s="17" t="s"/>
       <c r="CQ54" s="17" t="s"/>
       <c r="CR54" s="17" t="s"/>
-      <c r="CS54" s="17" t="s"/>
-      <c r="EL54" s="17" t="s"/>
       <c r="EM54" s="17" t="s"/>
       <c r="EN54" s="17" t="s"/>
-      <c r="EO54" s="17" t="s"/>
-      <c r="GH54" s="17" t="s"/>
       <c r="GI54" s="17" t="s"/>
       <c r="GJ54" s="17" t="s"/>
-      <c r="GK54" s="17" t="s"/>
-      <c r="ID54" s="17" t="s"/>
       <c r="IE54" s="17" t="s"/>
       <c r="IF54" s="17" t="s"/>
-      <c r="IG54" s="17" t="s"/>
-      <c r="JZ54" s="17" t="s"/>
       <c r="KA54" s="17" t="s"/>
       <c r="KB54" s="17" t="s"/>
-      <c r="KC54" s="17" t="s"/>
-      <c r="LV54" s="17" t="s"/>
       <c r="LW54" s="17" t="s"/>
       <c r="LX54" s="17" t="s"/>
-      <c r="LY54" s="17" t="s"/>
     </row>
     <row r="55" spans="1:338">
       <c r="A55" t="s">
@@ -3108,18 +3285,30 @@
       <c r="B55" t="s">
         <v>10</v>
       </c>
+      <c r="D55" s="15" t="s"/>
+      <c r="E55" s="15" t="s"/>
       <c r="F55" s="15" t="s"/>
       <c r="G55" s="15" t="s"/>
+      <c r="AZ55" s="15" t="s"/>
+      <c r="BA55" s="15" t="s"/>
       <c r="BB55" s="15" t="s"/>
       <c r="BC55" s="15" t="s"/>
+      <c r="CV55" s="15" t="s"/>
+      <c r="CW55" s="15" t="s"/>
       <c r="CX55" s="15" t="s"/>
       <c r="CY55" s="15" t="s"/>
+      <c r="ER55" s="15" t="s"/>
+      <c r="ES55" s="15" t="s"/>
       <c r="ET55" s="15" t="s"/>
       <c r="EU55" s="15" t="s"/>
+      <c r="GN55" s="15" t="s"/>
+      <c r="GO55" s="15" t="s"/>
       <c r="GP55" s="15" t="s"/>
       <c r="GQ55" s="15" t="s"/>
-      <c r="KH55" s="15" t="s"/>
-      <c r="KI55" s="15" t="s"/>
+      <c r="IJ55" s="15" t="s"/>
+      <c r="IK55" s="15" t="s"/>
+      <c r="IL55" s="15" t="s"/>
+      <c r="IM55" s="15" t="s"/>
     </row>
     <row r="56" spans="1:338">
       <c r="A56" t="s">
@@ -3128,8 +3317,12 @@
       <c r="B56" t="s">
         <v>11</v>
       </c>
-      <c r="IL56" s="16" t="s"/>
-      <c r="IM56" s="16" t="s"/>
+      <c r="KC56" s="16" t="s"/>
+      <c r="KD56" s="16" t="s"/>
+      <c r="KE56" s="16" t="s"/>
+      <c r="KF56" s="16" t="s"/>
+      <c r="KG56" s="16" t="s"/>
+      <c r="KH56" s="16" t="s"/>
     </row>
     <row r="57" spans="1:338">
       <c r="A57" t="s">
@@ -3138,18 +3331,46 @@
       <c r="B57" t="s">
         <v>12</v>
       </c>
+      <c r="C57" s="17" t="s"/>
+      <c r="AT57" s="17" t="s"/>
+      <c r="AU57" s="17" t="s"/>
+      <c r="AV57" s="17" t="s"/>
       <c r="AW57" s="17" t="s"/>
       <c r="AX57" s="17" t="s"/>
+      <c r="AY57" s="17" t="s"/>
+      <c r="CP57" s="17" t="s"/>
+      <c r="CQ57" s="17" t="s"/>
+      <c r="CR57" s="17" t="s"/>
       <c r="CS57" s="17" t="s"/>
       <c r="CT57" s="17" t="s"/>
+      <c r="CU57" s="17" t="s"/>
+      <c r="EL57" s="17" t="s"/>
+      <c r="EM57" s="17" t="s"/>
+      <c r="EN57" s="17" t="s"/>
       <c r="EO57" s="17" t="s"/>
       <c r="EP57" s="17" t="s"/>
+      <c r="EQ57" s="17" t="s"/>
+      <c r="GH57" s="17" t="s"/>
+      <c r="GI57" s="17" t="s"/>
+      <c r="GJ57" s="17" t="s"/>
       <c r="GK57" s="17" t="s"/>
       <c r="GL57" s="17" t="s"/>
+      <c r="GM57" s="17" t="s"/>
+      <c r="ID57" s="17" t="s"/>
+      <c r="IE57" s="17" t="s"/>
+      <c r="IF57" s="17" t="s"/>
       <c r="IG57" s="17" t="s"/>
       <c r="IH57" s="17" t="s"/>
+      <c r="II57" s="17" t="s"/>
+      <c r="JZ57" s="17" t="s"/>
+      <c r="KA57" s="17" t="s"/>
+      <c r="KB57" s="17" t="s"/>
       <c r="KC57" s="17" t="s"/>
       <c r="KD57" s="17" t="s"/>
+      <c r="KE57" s="17" t="s"/>
+      <c r="LV57" s="17" t="s"/>
+      <c r="LW57" s="17" t="s"/>
+      <c r="LX57" s="17" t="s"/>
       <c r="LY57" s="17" t="s"/>
       <c r="LZ57" s="17" t="s"/>
     </row>
@@ -3160,30 +3381,18 @@
       <c r="B58" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="15" t="s"/>
-      <c r="M58" s="15" t="s"/>
-      <c r="N58" s="15" t="s"/>
-      <c r="O58" s="15" t="s"/>
-      <c r="BH58" s="15" t="s"/>
-      <c r="BI58" s="15" t="s"/>
-      <c r="BJ58" s="15" t="s"/>
-      <c r="BK58" s="15" t="s"/>
-      <c r="DD58" s="15" t="s"/>
-      <c r="DE58" s="15" t="s"/>
-      <c r="DF58" s="15" t="s"/>
-      <c r="DG58" s="15" t="s"/>
-      <c r="EZ58" s="15" t="s"/>
-      <c r="FA58" s="15" t="s"/>
-      <c r="FB58" s="15" t="s"/>
-      <c r="FC58" s="15" t="s"/>
-      <c r="IR58" s="15" t="s"/>
-      <c r="IS58" s="15" t="s"/>
-      <c r="IT58" s="15" t="s"/>
-      <c r="IU58" s="15" t="s"/>
-      <c r="KN58" s="15" t="s"/>
-      <c r="KO58" s="15" t="s"/>
-      <c r="KP58" s="15" t="s"/>
-      <c r="KQ58" s="15" t="s"/>
+      <c r="F58" s="15" t="s"/>
+      <c r="G58" s="15" t="s"/>
+      <c r="BB58" s="15" t="s"/>
+      <c r="BC58" s="15" t="s"/>
+      <c r="CX58" s="15" t="s"/>
+      <c r="CY58" s="15" t="s"/>
+      <c r="ET58" s="15" t="s"/>
+      <c r="EU58" s="15" t="s"/>
+      <c r="GP58" s="15" t="s"/>
+      <c r="GQ58" s="15" t="s"/>
+      <c r="KH58" s="15" t="s"/>
+      <c r="KI58" s="15" t="s"/>
     </row>
     <row r="59" spans="1:338">
       <c r="A59" t="s">
@@ -3192,11 +3401,8 @@
       <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="IJ59" s="16" t="s"/>
-      <c r="IK59" s="16" t="s"/>
       <c r="IL59" s="16" t="s"/>
       <c r="IM59" s="16" t="s"/>
-      <c r="IN59" s="16" t="s"/>
     </row>
     <row r="60" spans="1:338">
       <c r="A60" t="s">
@@ -3205,18 +3411,20 @@
       <c r="B60" t="s">
         <v>12</v>
       </c>
-      <c r="AU60" s="17" t="s"/>
-      <c r="AV60" s="17" t="s"/>
-      <c r="CQ60" s="17" t="s"/>
-      <c r="CR60" s="17" t="s"/>
-      <c r="EM60" s="17" t="s"/>
-      <c r="EN60" s="17" t="s"/>
-      <c r="GI60" s="17" t="s"/>
-      <c r="GJ60" s="17" t="s"/>
-      <c r="KA60" s="17" t="s"/>
-      <c r="KB60" s="17" t="s"/>
-      <c r="LW60" s="17" t="s"/>
-      <c r="LX60" s="17" t="s"/>
+      <c r="AW60" s="17" t="s"/>
+      <c r="AX60" s="17" t="s"/>
+      <c r="CS60" s="17" t="s"/>
+      <c r="CT60" s="17" t="s"/>
+      <c r="EO60" s="17" t="s"/>
+      <c r="EP60" s="17" t="s"/>
+      <c r="GK60" s="17" t="s"/>
+      <c r="GL60" s="17" t="s"/>
+      <c r="IG60" s="17" t="s"/>
+      <c r="IH60" s="17" t="s"/>
+      <c r="KC60" s="17" t="s"/>
+      <c r="KD60" s="17" t="s"/>
+      <c r="LY60" s="17" t="s"/>
+      <c r="LZ60" s="17" t="s"/>
     </row>
     <row r="61" spans="1:338">
       <c r="A61" t="s">
@@ -3225,18 +3433,30 @@
       <c r="B61" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="15" t="s"/>
-      <c r="D61" s="15" t="s"/>
-      <c r="AY61" s="15" t="s"/>
-      <c r="AZ61" s="15" t="s"/>
-      <c r="CU61" s="15" t="s"/>
-      <c r="CV61" s="15" t="s"/>
-      <c r="EQ61" s="15" t="s"/>
-      <c r="ER61" s="15" t="s"/>
-      <c r="GM61" s="15" t="s"/>
-      <c r="GN61" s="15" t="s"/>
-      <c r="II61" s="15" t="s"/>
-      <c r="IJ61" s="15" t="s"/>
+      <c r="L61" s="15" t="s"/>
+      <c r="M61" s="15" t="s"/>
+      <c r="N61" s="15" t="s"/>
+      <c r="O61" s="15" t="s"/>
+      <c r="BH61" s="15" t="s"/>
+      <c r="BI61" s="15" t="s"/>
+      <c r="BJ61" s="15" t="s"/>
+      <c r="BK61" s="15" t="s"/>
+      <c r="DD61" s="15" t="s"/>
+      <c r="DE61" s="15" t="s"/>
+      <c r="DF61" s="15" t="s"/>
+      <c r="DG61" s="15" t="s"/>
+      <c r="EZ61" s="15" t="s"/>
+      <c r="FA61" s="15" t="s"/>
+      <c r="FB61" s="15" t="s"/>
+      <c r="FC61" s="15" t="s"/>
+      <c r="GV61" s="15" t="s"/>
+      <c r="GW61" s="15" t="s"/>
+      <c r="GX61" s="15" t="s"/>
+      <c r="GY61" s="15" t="s"/>
+      <c r="KN61" s="15" t="s"/>
+      <c r="KO61" s="15" t="s"/>
+      <c r="KP61" s="15" t="s"/>
+      <c r="KQ61" s="15" t="s"/>
     </row>
     <row r="62" spans="1:338">
       <c r="A62" t="s">
@@ -3245,8 +3465,11 @@
       <c r="B62" t="s">
         <v>11</v>
       </c>
-      <c r="KD62" s="16" t="s"/>
-      <c r="KE62" s="16" t="s"/>
+      <c r="IJ62" s="16" t="s"/>
+      <c r="IK62" s="16" t="s"/>
+      <c r="IL62" s="16" t="s"/>
+      <c r="IM62" s="16" t="s"/>
+      <c r="IN62" s="16" t="s"/>
     </row>
     <row r="63" spans="1:338">
       <c r="A63" t="s">
@@ -3263,8 +3486,6 @@
       <c r="EN63" s="17" t="s"/>
       <c r="GI63" s="17" t="s"/>
       <c r="GJ63" s="17" t="s"/>
-      <c r="IE63" s="17" t="s"/>
-      <c r="IF63" s="17" t="s"/>
       <c r="KA63" s="17" t="s"/>
       <c r="KB63" s="17" t="s"/>
       <c r="LW63" s="17" t="s"/>
@@ -3278,17 +3499,17 @@
         <v>10</v>
       </c>
       <c r="C64" s="15" t="s"/>
-      <c r="AX64" s="15" t="s"/>
+      <c r="D64" s="15" t="s"/>
       <c r="AY64" s="15" t="s"/>
-      <c r="CT64" s="15" t="s"/>
+      <c r="AZ64" s="15" t="s"/>
       <c r="CU64" s="15" t="s"/>
-      <c r="EP64" s="15" t="s"/>
+      <c r="CV64" s="15" t="s"/>
       <c r="EQ64" s="15" t="s"/>
-      <c r="GL64" s="15" t="s"/>
+      <c r="ER64" s="15" t="s"/>
       <c r="GM64" s="15" t="s"/>
-      <c r="IH64" s="15" t="s"/>
+      <c r="GN64" s="15" t="s"/>
       <c r="II64" s="15" t="s"/>
-      <c r="LZ64" s="15" t="s"/>
+      <c r="IJ64" s="15" t="s"/>
     </row>
     <row r="65" spans="1:338">
       <c r="A65" t="s">
@@ -3307,20 +3528,20 @@
       <c r="B66" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="17" t="s"/>
-      <c r="H66" s="17" t="s"/>
-      <c r="BC66" s="17" t="s"/>
-      <c r="BD66" s="17" t="s"/>
-      <c r="CY66" s="17" t="s"/>
-      <c r="CZ66" s="17" t="s"/>
-      <c r="EU66" s="17" t="s"/>
-      <c r="EV66" s="17" t="s"/>
-      <c r="GQ66" s="17" t="s"/>
-      <c r="GR66" s="17" t="s"/>
-      <c r="IM66" s="17" t="s"/>
-      <c r="IN66" s="17" t="s"/>
-      <c r="KI66" s="17" t="s"/>
-      <c r="KJ66" s="17" t="s"/>
+      <c r="AU66" s="17" t="s"/>
+      <c r="AV66" s="17" t="s"/>
+      <c r="CQ66" s="17" t="s"/>
+      <c r="CR66" s="17" t="s"/>
+      <c r="EM66" s="17" t="s"/>
+      <c r="EN66" s="17" t="s"/>
+      <c r="GI66" s="17" t="s"/>
+      <c r="GJ66" s="17" t="s"/>
+      <c r="IE66" s="17" t="s"/>
+      <c r="IF66" s="17" t="s"/>
+      <c r="KA66" s="17" t="s"/>
+      <c r="KB66" s="17" t="s"/>
+      <c r="LW66" s="17" t="s"/>
+      <c r="LX66" s="17" t="s"/>
     </row>
     <row r="67" spans="1:338">
       <c r="A67" t="s">
@@ -3330,6 +3551,8 @@
         <v>10</v>
       </c>
       <c r="C67" s="15" t="s"/>
+      <c r="AX67" s="15" t="s"/>
+      <c r="AY67" s="15" t="s"/>
       <c r="CT67" s="15" t="s"/>
       <c r="CU67" s="15" t="s"/>
       <c r="EP67" s="15" t="s"/>
@@ -3338,8 +3561,6 @@
       <c r="GM67" s="15" t="s"/>
       <c r="IH67" s="15" t="s"/>
       <c r="II67" s="15" t="s"/>
-      <c r="KD67" s="15" t="s"/>
-      <c r="KE67" s="15" t="s"/>
       <c r="LZ67" s="15" t="s"/>
     </row>
     <row r="68" spans="1:338">
@@ -3349,9 +3570,8 @@
       <c r="B68" t="s">
         <v>11</v>
       </c>
-      <c r="AW68" s="16" t="s"/>
-      <c r="AX68" s="16" t="s"/>
-      <c r="AY68" s="16" t="s"/>
+      <c r="KD68" s="16" t="s"/>
+      <c r="KE68" s="16" t="s"/>
     </row>
     <row r="69" spans="1:338">
       <c r="A69" t="s">
@@ -3377,77 +3597,80 @@
     </row>
     <row r="70" spans="1:338">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
       </c>
-      <c r="G70" s="15" t="s"/>
-      <c r="H70" s="15" t="s"/>
-      <c r="BC70" s="15" t="s"/>
-      <c r="BD70" s="15" t="s"/>
-      <c r="CY70" s="15" t="s"/>
-      <c r="CZ70" s="15" t="s"/>
-      <c r="EU70" s="15" t="s"/>
-      <c r="EV70" s="15" t="s"/>
-      <c r="GQ70" s="15" t="s"/>
-      <c r="GR70" s="15" t="s"/>
-      <c r="IM70" s="15" t="s"/>
-      <c r="IN70" s="15" t="s"/>
+      <c r="C70" s="15" t="s"/>
+      <c r="CT70" s="15" t="s"/>
+      <c r="CU70" s="15" t="s"/>
+      <c r="EP70" s="15" t="s"/>
+      <c r="EQ70" s="15" t="s"/>
+      <c r="GL70" s="15" t="s"/>
+      <c r="GM70" s="15" t="s"/>
+      <c r="IH70" s="15" t="s"/>
+      <c r="II70" s="15" t="s"/>
+      <c r="KD70" s="15" t="s"/>
+      <c r="KE70" s="15" t="s"/>
+      <c r="LZ70" s="15" t="s"/>
     </row>
     <row r="71" spans="1:338">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
-      <c r="KC71" s="16" t="s"/>
-      <c r="KD71" s="16" t="s"/>
+      <c r="AW71" s="16" t="s"/>
+      <c r="AX71" s="16" t="s"/>
+      <c r="AY71" s="16" t="s"/>
     </row>
     <row r="72" spans="1:338">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B72" t="s">
         <v>12</v>
       </c>
-      <c r="I72" s="17" t="s"/>
-      <c r="J72" s="17" t="s"/>
-      <c r="BE72" s="17" t="s"/>
-      <c r="BF72" s="17" t="s"/>
-      <c r="DA72" s="17" t="s"/>
-      <c r="DB72" s="17" t="s"/>
-      <c r="EW72" s="17" t="s"/>
-      <c r="EX72" s="17" t="s"/>
-      <c r="GS72" s="17" t="s"/>
-      <c r="GT72" s="17" t="s"/>
-      <c r="IO72" s="17" t="s"/>
-      <c r="IP72" s="17" t="s"/>
+      <c r="G72" s="17" t="s"/>
+      <c r="H72" s="17" t="s"/>
+      <c r="BC72" s="17" t="s"/>
+      <c r="BD72" s="17" t="s"/>
+      <c r="CY72" s="17" t="s"/>
+      <c r="CZ72" s="17" t="s"/>
+      <c r="EU72" s="17" t="s"/>
+      <c r="EV72" s="17" t="s"/>
+      <c r="GQ72" s="17" t="s"/>
+      <c r="GR72" s="17" t="s"/>
+      <c r="IM72" s="17" t="s"/>
+      <c r="IN72" s="17" t="s"/>
+      <c r="KI72" s="17" t="s"/>
+      <c r="KJ72" s="17" t="s"/>
     </row>
     <row r="73" spans="1:338">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
       </c>
+      <c r="F73" s="15" t="s"/>
       <c r="G73" s="15" t="s"/>
-      <c r="H73" s="15" t="s"/>
+      <c r="BB73" s="15" t="s"/>
       <c r="BC73" s="15" t="s"/>
-      <c r="BD73" s="15" t="s"/>
+      <c r="CX73" s="15" t="s"/>
       <c r="CY73" s="15" t="s"/>
-      <c r="CZ73" s="15" t="s"/>
+      <c r="ET73" s="15" t="s"/>
       <c r="EU73" s="15" t="s"/>
-      <c r="EV73" s="15" t="s"/>
+      <c r="GP73" s="15" t="s"/>
       <c r="GQ73" s="15" t="s"/>
-      <c r="GR73" s="15" t="s"/>
+      <c r="IL73" s="15" t="s"/>
       <c r="IM73" s="15" t="s"/>
-      <c r="IN73" s="15" t="s"/>
     </row>
     <row r="74" spans="1:338">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
@@ -3457,7 +3680,7 @@
     </row>
     <row r="75" spans="1:338">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B75" t="s">
         <v>12</v>
@@ -3472,8 +3695,52 @@
       <c r="EX75" s="17" t="s"/>
       <c r="GS75" s="17" t="s"/>
       <c r="GT75" s="17" t="s"/>
-      <c r="KK75" s="17" t="s"/>
-      <c r="KL75" s="17" t="s"/>
+      <c r="IO75" s="17" t="s"/>
+      <c r="IP75" s="17" t="s"/>
+    </row>
+    <row r="76" spans="1:338">
+      <c r="A76" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="15" t="s"/>
+      <c r="BB76" s="15" t="s"/>
+      <c r="CX76" s="15" t="s"/>
+      <c r="ET76" s="15" t="s"/>
+      <c r="GP76" s="15" t="s"/>
+      <c r="IL76" s="15" t="s"/>
+    </row>
+    <row r="77" spans="1:338">
+      <c r="A77" t="s">
+        <v>36</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="KC77" s="16" t="s"/>
+      <c r="KD77" s="16" t="s"/>
+    </row>
+    <row r="78" spans="1:338">
+      <c r="A78" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="17" t="s"/>
+      <c r="J78" s="17" t="s"/>
+      <c r="BE78" s="17" t="s"/>
+      <c r="BF78" s="17" t="s"/>
+      <c r="DA78" s="17" t="s"/>
+      <c r="DB78" s="17" t="s"/>
+      <c r="EW78" s="17" t="s"/>
+      <c r="EX78" s="17" t="s"/>
+      <c r="GS78" s="17" t="s"/>
+      <c r="GT78" s="17" t="s"/>
+      <c r="KK78" s="17" t="s"/>
+      <c r="KL78" s="17" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="175">

--- a/SQL Backup report/report.xlsx
+++ b/SQL Backup report/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Monday</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>MOW03-SQL47</t>
+  </si>
+  <si>
+    <t>MOW03-SQL49</t>
   </si>
 </sst>
 </file>
@@ -253,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -275,13 +278,12 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="3" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="3" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -559,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:LZ78"/>
+  <dimension ref="A2:LZ82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="87" zoomScaleNormal="87">
       <pane activePane="bottomRight" state="frozen" topLeftCell="C4" xSplit="2" ySplit="3"/>
@@ -1136,34 +1138,28 @@
       <c r="C4" s="12" t="n"/>
       <c r="AU4" s="15" t="s"/>
       <c r="AV4" s="15" t="s"/>
-      <c r="AW4" s="15" t="s"/>
       <c r="AX4" s="13" t="n"/>
       <c r="AY4" s="12" t="n"/>
       <c r="CQ4" s="15" t="s"/>
       <c r="CR4" s="15" t="s"/>
-      <c r="CS4" s="15" t="s"/>
       <c r="CT4" s="13" t="n"/>
       <c r="CU4" s="12" t="n"/>
       <c r="EM4" s="15" t="s"/>
       <c r="EN4" s="15" t="s"/>
-      <c r="EO4" s="15" t="s"/>
       <c r="EP4" s="13" t="n"/>
       <c r="EQ4" s="12" t="n"/>
       <c r="GI4" s="15" t="s"/>
       <c r="GJ4" s="15" t="s"/>
-      <c r="GK4" s="15" t="s"/>
       <c r="GL4" s="13" t="n"/>
       <c r="GM4" s="12" t="n"/>
       <c r="IE4" s="15" t="s"/>
       <c r="IF4" s="15" t="s"/>
-      <c r="IG4" s="15" t="s"/>
       <c r="IH4" s="13" t="n"/>
       <c r="II4" s="12" t="n"/>
       <c r="KD4" s="13" t="n"/>
       <c r="KE4" s="12" t="n"/>
       <c r="LW4" s="15" t="s"/>
       <c r="LX4" s="15" t="s"/>
-      <c r="LY4" s="15" t="s"/>
       <c r="LZ4" s="13" t="n"/>
     </row>
     <row r="5" s="11" spans="1:338">
@@ -1187,8 +1183,10 @@
       <c r="JZ5" s="16" t="s"/>
       <c r="KA5" s="16" t="s"/>
       <c r="KB5" s="16" t="s"/>
-      <c r="KD5" s="13" t="n"/>
-      <c r="KE5" s="12" t="n"/>
+      <c r="KC5" s="16" t="s"/>
+      <c r="KD5" s="17" t="s"/>
+      <c r="KE5" s="18" t="s"/>
+      <c r="KF5" s="16" t="s"/>
       <c r="LZ5" s="13" t="n"/>
     </row>
     <row r="6" s="11" spans="1:338">
@@ -1199,46 +1197,39 @@
         <v>12</v>
       </c>
       <c r="C6" s="12" t="n"/>
-      <c r="G6" s="17" t="s"/>
-      <c r="H6" s="17" t="s"/>
-      <c r="I6" s="17" t="s"/>
-      <c r="J6" s="17" t="s"/>
+      <c r="G6" s="19" t="s"/>
+      <c r="H6" s="19" t="s"/>
+      <c r="I6" s="19" t="s"/>
       <c r="AX6" s="13" t="n"/>
       <c r="AY6" s="12" t="n"/>
-      <c r="BC6" s="17" t="s"/>
-      <c r="BD6" s="17" t="s"/>
-      <c r="BE6" s="17" t="s"/>
-      <c r="BF6" s="17" t="s"/>
+      <c r="BC6" s="19" t="s"/>
+      <c r="BD6" s="19" t="s"/>
+      <c r="BE6" s="19" t="s"/>
       <c r="CT6" s="13" t="n"/>
       <c r="CU6" s="12" t="n"/>
-      <c r="CY6" s="17" t="s"/>
-      <c r="CZ6" s="17" t="s"/>
-      <c r="DA6" s="17" t="s"/>
-      <c r="DB6" s="17" t="s"/>
+      <c r="CY6" s="19" t="s"/>
+      <c r="CZ6" s="19" t="s"/>
+      <c r="DA6" s="19" t="s"/>
       <c r="EP6" s="13" t="n"/>
       <c r="EQ6" s="12" t="n"/>
-      <c r="EU6" s="17" t="s"/>
-      <c r="EV6" s="17" t="s"/>
-      <c r="EW6" s="17" t="s"/>
-      <c r="EX6" s="17" t="s"/>
+      <c r="EU6" s="19" t="s"/>
+      <c r="EV6" s="19" t="s"/>
+      <c r="EW6" s="19" t="s"/>
       <c r="GL6" s="13" t="n"/>
       <c r="GM6" s="12" t="n"/>
-      <c r="GQ6" s="17" t="s"/>
-      <c r="GR6" s="17" t="s"/>
-      <c r="GS6" s="17" t="s"/>
-      <c r="GT6" s="17" t="s"/>
+      <c r="GQ6" s="19" t="s"/>
+      <c r="GR6" s="19" t="s"/>
+      <c r="GS6" s="19" t="s"/>
       <c r="IH6" s="13" t="n"/>
       <c r="II6" s="12" t="n"/>
-      <c r="IM6" s="17" t="s"/>
-      <c r="IN6" s="17" t="s"/>
-      <c r="IO6" s="17" t="s"/>
-      <c r="IP6" s="17" t="s"/>
+      <c r="IM6" s="19" t="s"/>
+      <c r="IN6" s="19" t="s"/>
+      <c r="IO6" s="19" t="s"/>
       <c r="KD6" s="13" t="n"/>
       <c r="KE6" s="12" t="n"/>
-      <c r="KI6" s="17" t="s"/>
-      <c r="KJ6" s="17" t="s"/>
-      <c r="KK6" s="17" t="s"/>
-      <c r="KL6" s="17" t="s"/>
+      <c r="KI6" s="19" t="s"/>
+      <c r="KJ6" s="19" t="s"/>
+      <c r="KK6" s="19" t="s"/>
       <c r="LZ6" s="13" t="n"/>
     </row>
     <row r="7" s="11" spans="1:338">
@@ -1248,26 +1239,32 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="18" t="s"/>
+      <c r="C7" s="20" t="s"/>
       <c r="D7" s="15" t="s"/>
-      <c r="AX7" s="19" t="s"/>
-      <c r="AY7" s="18" t="s"/>
+      <c r="E7" s="15" t="s"/>
+      <c r="AX7" s="21" t="s"/>
+      <c r="AY7" s="20" t="s"/>
       <c r="AZ7" s="15" t="s"/>
-      <c r="CT7" s="19" t="s"/>
-      <c r="CU7" s="18" t="s"/>
+      <c r="BA7" s="15" t="s"/>
+      <c r="CT7" s="21" t="s"/>
+      <c r="CU7" s="20" t="s"/>
       <c r="CV7" s="15" t="s"/>
-      <c r="EP7" s="19" t="s"/>
-      <c r="EQ7" s="18" t="s"/>
+      <c r="CW7" s="15" t="s"/>
+      <c r="EP7" s="21" t="s"/>
+      <c r="EQ7" s="20" t="s"/>
       <c r="ER7" s="15" t="s"/>
-      <c r="GL7" s="19" t="s"/>
-      <c r="GM7" s="18" t="s"/>
+      <c r="ES7" s="15" t="s"/>
+      <c r="GL7" s="21" t="s"/>
+      <c r="GM7" s="20" t="s"/>
       <c r="GN7" s="15" t="s"/>
-      <c r="IH7" s="19" t="s"/>
-      <c r="II7" s="18" t="s"/>
+      <c r="GO7" s="15" t="s"/>
+      <c r="IH7" s="21" t="s"/>
+      <c r="II7" s="20" t="s"/>
       <c r="IJ7" s="15" t="s"/>
+      <c r="IK7" s="15" t="s"/>
       <c r="KD7" s="13" t="n"/>
       <c r="KE7" s="12" t="n"/>
-      <c r="LZ7" s="19" t="s"/>
+      <c r="LZ7" s="21" t="s"/>
     </row>
     <row r="8" s="11" spans="1:338">
       <c r="A8" t="s">
@@ -1287,12 +1284,20 @@
       <c r="GM8" s="12" t="n"/>
       <c r="IH8" s="13" t="n"/>
       <c r="II8" s="12" t="n"/>
+      <c r="KA8" s="16" t="s"/>
+      <c r="KB8" s="16" t="s"/>
       <c r="KC8" s="16" t="s"/>
-      <c r="KD8" s="20" t="s"/>
-      <c r="KE8" s="21" t="s"/>
+      <c r="KD8" s="17" t="s"/>
+      <c r="KE8" s="18" t="s"/>
       <c r="KF8" s="16" t="s"/>
       <c r="KG8" s="16" t="s"/>
       <c r="KH8" s="16" t="s"/>
+      <c r="KI8" s="16" t="s"/>
+      <c r="KJ8" s="16" t="s"/>
+      <c r="KK8" s="16" t="s"/>
+      <c r="KL8" s="16" t="s"/>
+      <c r="KM8" s="16" t="s"/>
+      <c r="KN8" s="16" t="s"/>
       <c r="LZ8" s="13" t="n"/>
     </row>
     <row r="9" s="11" spans="1:338">
@@ -1303,76 +1308,60 @@
         <v>12</v>
       </c>
       <c r="C9" s="12" t="n"/>
-      <c r="K9" s="17" t="s"/>
+      <c r="K9" s="19" t="s"/>
       <c r="L9" s="22" t="s"/>
       <c r="M9" s="22" t="s"/>
       <c r="N9" s="22" t="s"/>
       <c r="O9" s="22" t="s"/>
       <c r="P9" s="22" t="s"/>
       <c r="Q9" s="22" t="s"/>
-      <c r="R9" s="22" t="s"/>
-      <c r="S9" s="22" t="s"/>
-      <c r="T9" s="17" t="s"/>
+      <c r="R9" s="14" t="n"/>
+      <c r="S9" s="14" t="n"/>
       <c r="AX9" s="13" t="n"/>
       <c r="AY9" s="12" t="n"/>
-      <c r="BG9" s="17" t="s"/>
-      <c r="BH9" s="17" t="s"/>
-      <c r="BI9" s="17" t="s"/>
-      <c r="BJ9" s="17" t="s"/>
-      <c r="BK9" s="17" t="s"/>
-      <c r="BL9" s="17" t="s"/>
-      <c r="BM9" s="17" t="s"/>
-      <c r="BN9" s="17" t="s"/>
-      <c r="BO9" s="17" t="s"/>
-      <c r="BP9" s="17" t="s"/>
+      <c r="BG9" s="19" t="s"/>
+      <c r="BH9" s="19" t="s"/>
+      <c r="BI9" s="19" t="s"/>
+      <c r="BJ9" s="19" t="s"/>
+      <c r="BK9" s="19" t="s"/>
+      <c r="BL9" s="19" t="s"/>
+      <c r="BM9" s="19" t="s"/>
       <c r="CT9" s="13" t="n"/>
       <c r="CU9" s="12" t="n"/>
-      <c r="DC9" s="17" t="s"/>
-      <c r="DD9" s="17" t="s"/>
-      <c r="DE9" s="17" t="s"/>
-      <c r="DF9" s="17" t="s"/>
-      <c r="DG9" s="17" t="s"/>
-      <c r="DH9" s="17" t="s"/>
-      <c r="DI9" s="17" t="s"/>
-      <c r="DJ9" s="17" t="s"/>
-      <c r="DK9" s="17" t="s"/>
-      <c r="DL9" s="17" t="s"/>
+      <c r="DC9" s="19" t="s"/>
+      <c r="DD9" s="19" t="s"/>
+      <c r="DE9" s="19" t="s"/>
+      <c r="DF9" s="19" t="s"/>
+      <c r="DG9" s="19" t="s"/>
+      <c r="DH9" s="19" t="s"/>
+      <c r="DI9" s="19" t="s"/>
       <c r="EP9" s="13" t="n"/>
       <c r="EQ9" s="12" t="n"/>
-      <c r="EY9" s="17" t="s"/>
-      <c r="EZ9" s="17" t="s"/>
-      <c r="FA9" s="17" t="s"/>
-      <c r="FB9" s="17" t="s"/>
-      <c r="FC9" s="17" t="s"/>
-      <c r="FD9" s="17" t="s"/>
-      <c r="FE9" s="17" t="s"/>
-      <c r="FF9" s="17" t="s"/>
-      <c r="FG9" s="17" t="s"/>
-      <c r="FH9" s="17" t="s"/>
+      <c r="EY9" s="19" t="s"/>
+      <c r="EZ9" s="19" t="s"/>
+      <c r="FA9" s="19" t="s"/>
+      <c r="FB9" s="19" t="s"/>
+      <c r="FC9" s="19" t="s"/>
+      <c r="FD9" s="19" t="s"/>
+      <c r="FE9" s="19" t="s"/>
       <c r="GL9" s="13" t="n"/>
       <c r="GM9" s="12" t="n"/>
-      <c r="GU9" s="17" t="s"/>
-      <c r="GV9" s="17" t="s"/>
-      <c r="GW9" s="17" t="s"/>
-      <c r="GX9" s="17" t="s"/>
-      <c r="GY9" s="17" t="s"/>
-      <c r="GZ9" s="17" t="s"/>
-      <c r="HA9" s="17" t="s"/>
-      <c r="HB9" s="17" t="s"/>
-      <c r="HC9" s="17" t="s"/>
-      <c r="HD9" s="17" t="s"/>
+      <c r="GU9" s="19" t="s"/>
+      <c r="GV9" s="19" t="s"/>
+      <c r="GW9" s="19" t="s"/>
+      <c r="GX9" s="19" t="s"/>
+      <c r="GY9" s="19" t="s"/>
+      <c r="GZ9" s="19" t="s"/>
+      <c r="HA9" s="19" t="s"/>
       <c r="IH9" s="13" t="n"/>
       <c r="II9" s="12" t="n"/>
-      <c r="IQ9" s="17" t="s"/>
-      <c r="IR9" s="17" t="s"/>
-      <c r="IS9" s="17" t="s"/>
-      <c r="IT9" s="17" t="s"/>
-      <c r="IU9" s="17" t="s"/>
-      <c r="IV9" s="17" t="s"/>
-      <c r="IW9" s="17" t="s"/>
-      <c r="IX9" s="17" t="s"/>
-      <c r="IY9" s="17" t="s"/>
-      <c r="IZ9" s="17" t="s"/>
+      <c r="IQ9" s="19" t="s"/>
+      <c r="IR9" s="19" t="s"/>
+      <c r="IS9" s="19" t="s"/>
+      <c r="IT9" s="19" t="s"/>
+      <c r="IU9" s="19" t="s"/>
+      <c r="IV9" s="19" t="s"/>
+      <c r="IW9" s="19" t="s"/>
       <c r="KD9" s="13" t="n"/>
       <c r="KE9" s="12" t="n"/>
       <c r="LZ9" s="13" t="n"/>
@@ -1384,7 +1373,7 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12" t="n"/>
+      <c r="C10" s="20" t="s"/>
       <c r="L10" s="14" t="n"/>
       <c r="M10" s="14" t="n"/>
       <c r="N10" s="14" t="n"/>
@@ -1394,24 +1383,24 @@
       <c r="R10" s="14" t="n"/>
       <c r="S10" s="14" t="n"/>
       <c r="AW10" s="15" t="s"/>
-      <c r="AX10" s="19" t="s"/>
-      <c r="AY10" s="12" t="n"/>
+      <c r="AX10" s="21" t="s"/>
+      <c r="AY10" s="20" t="s"/>
       <c r="CS10" s="15" t="s"/>
-      <c r="CT10" s="19" t="s"/>
-      <c r="CU10" s="12" t="n"/>
+      <c r="CT10" s="21" t="s"/>
+      <c r="CU10" s="20" t="s"/>
       <c r="EO10" s="15" t="s"/>
-      <c r="EP10" s="19" t="s"/>
-      <c r="EQ10" s="12" t="n"/>
+      <c r="EP10" s="21" t="s"/>
+      <c r="EQ10" s="20" t="s"/>
       <c r="GK10" s="15" t="s"/>
-      <c r="GL10" s="19" t="s"/>
-      <c r="GM10" s="12" t="n"/>
+      <c r="GL10" s="21" t="s"/>
+      <c r="GM10" s="20" t="s"/>
       <c r="IG10" s="15" t="s"/>
-      <c r="IH10" s="19" t="s"/>
-      <c r="II10" s="12" t="n"/>
+      <c r="IH10" s="21" t="s"/>
+      <c r="II10" s="20" t="s"/>
       <c r="KD10" s="13" t="n"/>
       <c r="KE10" s="12" t="n"/>
       <c r="LY10" s="15" t="s"/>
-      <c r="LZ10" s="19" t="s"/>
+      <c r="LZ10" s="21" t="s"/>
     </row>
     <row r="11" s="11" spans="1:338">
       <c r="A11" t="s">
@@ -1442,8 +1431,25 @@
       <c r="KA11" s="16" t="s"/>
       <c r="KB11" s="16" t="s"/>
       <c r="KC11" s="16" t="s"/>
-      <c r="KD11" s="13" t="n"/>
-      <c r="KE11" s="12" t="n"/>
+      <c r="KD11" s="17" t="s"/>
+      <c r="KE11" s="18" t="s"/>
+      <c r="KF11" s="16" t="s"/>
+      <c r="KG11" s="16" t="s"/>
+      <c r="KH11" s="16" t="s"/>
+      <c r="KI11" s="16" t="s"/>
+      <c r="KJ11" s="16" t="s"/>
+      <c r="KK11" s="16" t="s"/>
+      <c r="KL11" s="16" t="s"/>
+      <c r="KM11" s="16" t="s"/>
+      <c r="KN11" s="16" t="s"/>
+      <c r="KO11" s="16" t="s"/>
+      <c r="KP11" s="16" t="s"/>
+      <c r="KQ11" s="16" t="s"/>
+      <c r="KR11" s="16" t="s"/>
+      <c r="KS11" s="16" t="s"/>
+      <c r="KT11" s="16" t="s"/>
+      <c r="KU11" s="16" t="s"/>
+      <c r="KV11" s="16" t="s"/>
       <c r="LZ11" s="13" t="n"/>
     </row>
     <row r="12" s="11" spans="1:338">
@@ -1454,10 +1460,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="12" t="n"/>
-      <c r="E12" s="17" t="s"/>
-      <c r="F12" s="17" t="s"/>
-      <c r="G12" s="17" t="s"/>
-      <c r="H12" s="17" t="s"/>
+      <c r="E12" s="19" t="s"/>
+      <c r="F12" s="19" t="s"/>
+      <c r="G12" s="19" t="s"/>
+      <c r="H12" s="19" t="s"/>
+      <c r="I12" s="19" t="s"/>
+      <c r="J12" s="19" t="s"/>
+      <c r="K12" s="19" t="s"/>
       <c r="L12" s="14" t="n"/>
       <c r="M12" s="14" t="n"/>
       <c r="N12" s="14" t="n"/>
@@ -1468,40 +1477,58 @@
       <c r="S12" s="14" t="n"/>
       <c r="AX12" s="13" t="n"/>
       <c r="AY12" s="12" t="n"/>
-      <c r="BA12" s="17" t="s"/>
-      <c r="BB12" s="17" t="s"/>
-      <c r="BC12" s="17" t="s"/>
-      <c r="BD12" s="17" t="s"/>
+      <c r="BA12" s="19" t="s"/>
+      <c r="BB12" s="19" t="s"/>
+      <c r="BC12" s="19" t="s"/>
+      <c r="BD12" s="19" t="s"/>
+      <c r="BE12" s="19" t="s"/>
+      <c r="BF12" s="19" t="s"/>
+      <c r="BG12" s="19" t="s"/>
       <c r="CT12" s="13" t="n"/>
       <c r="CU12" s="12" t="n"/>
-      <c r="CW12" s="17" t="s"/>
-      <c r="CX12" s="17" t="s"/>
-      <c r="CY12" s="17" t="s"/>
-      <c r="CZ12" s="17" t="s"/>
+      <c r="CW12" s="19" t="s"/>
+      <c r="CX12" s="19" t="s"/>
+      <c r="CY12" s="19" t="s"/>
+      <c r="CZ12" s="19" t="s"/>
+      <c r="DA12" s="19" t="s"/>
+      <c r="DB12" s="19" t="s"/>
+      <c r="DC12" s="19" t="s"/>
       <c r="EP12" s="13" t="n"/>
       <c r="EQ12" s="12" t="n"/>
-      <c r="ES12" s="17" t="s"/>
-      <c r="ET12" s="17" t="s"/>
-      <c r="EU12" s="17" t="s"/>
-      <c r="EV12" s="17" t="s"/>
+      <c r="ES12" s="19" t="s"/>
+      <c r="ET12" s="19" t="s"/>
+      <c r="EU12" s="19" t="s"/>
+      <c r="EV12" s="19" t="s"/>
+      <c r="EW12" s="19" t="s"/>
+      <c r="EX12" s="19" t="s"/>
+      <c r="EY12" s="19" t="s"/>
       <c r="GL12" s="13" t="n"/>
       <c r="GM12" s="12" t="n"/>
-      <c r="GO12" s="17" t="s"/>
-      <c r="GP12" s="17" t="s"/>
-      <c r="GQ12" s="17" t="s"/>
-      <c r="GR12" s="17" t="s"/>
+      <c r="GO12" s="19" t="s"/>
+      <c r="GP12" s="19" t="s"/>
+      <c r="GQ12" s="19" t="s"/>
+      <c r="GR12" s="19" t="s"/>
+      <c r="GS12" s="19" t="s"/>
+      <c r="GT12" s="19" t="s"/>
+      <c r="GU12" s="19" t="s"/>
       <c r="IH12" s="13" t="n"/>
       <c r="II12" s="12" t="n"/>
-      <c r="IK12" s="17" t="s"/>
-      <c r="IL12" s="17" t="s"/>
-      <c r="IM12" s="17" t="s"/>
-      <c r="IN12" s="17" t="s"/>
+      <c r="IK12" s="19" t="s"/>
+      <c r="IL12" s="19" t="s"/>
+      <c r="IM12" s="19" t="s"/>
+      <c r="IN12" s="19" t="s"/>
+      <c r="IO12" s="19" t="s"/>
+      <c r="IP12" s="19" t="s"/>
+      <c r="IQ12" s="19" t="s"/>
       <c r="KD12" s="13" t="n"/>
       <c r="KE12" s="12" t="n"/>
-      <c r="KG12" s="17" t="s"/>
-      <c r="KH12" s="17" t="s"/>
-      <c r="KI12" s="17" t="s"/>
-      <c r="KJ12" s="17" t="s"/>
+      <c r="KG12" s="19" t="s"/>
+      <c r="KH12" s="19" t="s"/>
+      <c r="KI12" s="19" t="s"/>
+      <c r="KJ12" s="19" t="s"/>
+      <c r="KK12" s="19" t="s"/>
+      <c r="KL12" s="19" t="s"/>
+      <c r="KM12" s="19" t="s"/>
       <c r="LZ12" s="13" t="n"/>
     </row>
     <row r="13" s="11" spans="1:338">
@@ -1522,28 +1549,34 @@
       <c r="S13" s="14" t="n"/>
       <c r="AS13" s="15" t="s"/>
       <c r="AT13" s="15" t="s"/>
+      <c r="AU13" s="15" t="s"/>
       <c r="AX13" s="13" t="n"/>
       <c r="AY13" s="12" t="n"/>
       <c r="CT13" s="13" t="n"/>
       <c r="CU13" s="12" t="n"/>
       <c r="EK13" s="15" t="s"/>
       <c r="EL13" s="15" t="s"/>
+      <c r="EM13" s="15" t="s"/>
       <c r="EP13" s="13" t="n"/>
       <c r="EQ13" s="12" t="n"/>
       <c r="GG13" s="15" t="s"/>
       <c r="GH13" s="15" t="s"/>
+      <c r="GI13" s="15" t="s"/>
       <c r="GL13" s="13" t="n"/>
       <c r="GM13" s="12" t="n"/>
       <c r="IC13" s="15" t="s"/>
       <c r="ID13" s="15" t="s"/>
+      <c r="IE13" s="15" t="s"/>
       <c r="IH13" s="13" t="n"/>
       <c r="II13" s="12" t="n"/>
       <c r="JY13" s="15" t="s"/>
       <c r="JZ13" s="15" t="s"/>
+      <c r="KA13" s="15" t="s"/>
       <c r="KD13" s="13" t="n"/>
       <c r="KE13" s="12" t="n"/>
       <c r="LU13" s="15" t="s"/>
       <c r="LV13" s="15" t="s"/>
+      <c r="LW13" s="15" t="s"/>
       <c r="LZ13" s="13" t="n"/>
     </row>
     <row r="14" s="11" spans="1:338">
@@ -1567,8 +1600,11 @@
       <c r="CQ14" s="16" t="s"/>
       <c r="CR14" s="16" t="s"/>
       <c r="CS14" s="16" t="s"/>
-      <c r="CT14" s="13" t="n"/>
-      <c r="CU14" s="12" t="n"/>
+      <c r="CT14" s="17" t="s"/>
+      <c r="CU14" s="18" t="s"/>
+      <c r="CV14" s="16" t="s"/>
+      <c r="CW14" s="16" t="s"/>
+      <c r="CX14" s="16" t="s"/>
       <c r="EP14" s="13" t="n"/>
       <c r="EQ14" s="12" t="n"/>
       <c r="GL14" s="13" t="n"/>
@@ -1587,54 +1623,99 @@
         <v>12</v>
       </c>
       <c r="C15" s="12" t="n"/>
-      <c r="E15" s="17" t="s"/>
-      <c r="F15" s="17" t="s"/>
-      <c r="G15" s="17" t="s"/>
-      <c r="H15" s="17" t="s"/>
-      <c r="L15" s="14" t="n"/>
-      <c r="M15" s="14" t="n"/>
-      <c r="N15" s="14" t="n"/>
-      <c r="O15" s="14" t="n"/>
+      <c r="E15" s="19" t="s"/>
+      <c r="F15" s="19" t="s"/>
+      <c r="G15" s="19" t="s"/>
+      <c r="H15" s="19" t="s"/>
+      <c r="I15" s="19" t="s"/>
+      <c r="J15" s="19" t="s"/>
+      <c r="K15" s="19" t="s"/>
+      <c r="L15" s="22" t="s"/>
+      <c r="M15" s="22" t="s"/>
+      <c r="N15" s="22" t="s"/>
+      <c r="O15" s="22" t="s"/>
       <c r="P15" s="14" t="n"/>
       <c r="Q15" s="14" t="n"/>
       <c r="R15" s="14" t="n"/>
       <c r="S15" s="14" t="n"/>
       <c r="AX15" s="13" t="n"/>
       <c r="AY15" s="12" t="n"/>
-      <c r="BA15" s="17" t="s"/>
-      <c r="BB15" s="17" t="s"/>
-      <c r="BC15" s="17" t="s"/>
-      <c r="BD15" s="17" t="s"/>
+      <c r="BA15" s="19" t="s"/>
+      <c r="BB15" s="19" t="s"/>
+      <c r="BC15" s="19" t="s"/>
+      <c r="BD15" s="19" t="s"/>
+      <c r="BE15" s="19" t="s"/>
+      <c r="BF15" s="19" t="s"/>
+      <c r="BG15" s="19" t="s"/>
+      <c r="BH15" s="19" t="s"/>
+      <c r="BI15" s="19" t="s"/>
+      <c r="BJ15" s="19" t="s"/>
+      <c r="BK15" s="19" t="s"/>
       <c r="CT15" s="13" t="n"/>
       <c r="CU15" s="12" t="n"/>
-      <c r="CW15" s="17" t="s"/>
-      <c r="CX15" s="17" t="s"/>
-      <c r="CY15" s="17" t="s"/>
-      <c r="CZ15" s="17" t="s"/>
+      <c r="CW15" s="19" t="s"/>
+      <c r="CX15" s="19" t="s"/>
+      <c r="CY15" s="19" t="s"/>
+      <c r="CZ15" s="19" t="s"/>
+      <c r="DA15" s="19" t="s"/>
+      <c r="DB15" s="19" t="s"/>
+      <c r="DC15" s="19" t="s"/>
+      <c r="DD15" s="19" t="s"/>
+      <c r="DE15" s="19" t="s"/>
+      <c r="DF15" s="19" t="s"/>
+      <c r="DG15" s="19" t="s"/>
       <c r="EP15" s="13" t="n"/>
       <c r="EQ15" s="12" t="n"/>
-      <c r="ES15" s="17" t="s"/>
-      <c r="ET15" s="17" t="s"/>
-      <c r="EU15" s="17" t="s"/>
-      <c r="EV15" s="17" t="s"/>
+      <c r="ES15" s="19" t="s"/>
+      <c r="ET15" s="19" t="s"/>
+      <c r="EU15" s="19" t="s"/>
+      <c r="EV15" s="19" t="s"/>
+      <c r="EW15" s="19" t="s"/>
+      <c r="EX15" s="19" t="s"/>
+      <c r="EY15" s="19" t="s"/>
+      <c r="EZ15" s="19" t="s"/>
+      <c r="FA15" s="19" t="s"/>
+      <c r="FB15" s="19" t="s"/>
+      <c r="FC15" s="19" t="s"/>
       <c r="GL15" s="13" t="n"/>
       <c r="GM15" s="12" t="n"/>
-      <c r="GO15" s="17" t="s"/>
-      <c r="GP15" s="17" t="s"/>
-      <c r="GQ15" s="17" t="s"/>
-      <c r="GR15" s="17" t="s"/>
+      <c r="GO15" s="19" t="s"/>
+      <c r="GP15" s="19" t="s"/>
+      <c r="GQ15" s="19" t="s"/>
+      <c r="GR15" s="19" t="s"/>
+      <c r="GS15" s="19" t="s"/>
+      <c r="GT15" s="19" t="s"/>
+      <c r="GU15" s="19" t="s"/>
+      <c r="GV15" s="19" t="s"/>
+      <c r="GW15" s="19" t="s"/>
+      <c r="GX15" s="19" t="s"/>
+      <c r="GY15" s="19" t="s"/>
       <c r="IH15" s="13" t="n"/>
       <c r="II15" s="12" t="n"/>
-      <c r="IK15" s="17" t="s"/>
-      <c r="IL15" s="17" t="s"/>
-      <c r="IM15" s="17" t="s"/>
-      <c r="IN15" s="17" t="s"/>
+      <c r="IK15" s="19" t="s"/>
+      <c r="IL15" s="19" t="s"/>
+      <c r="IM15" s="19" t="s"/>
+      <c r="IN15" s="19" t="s"/>
+      <c r="IO15" s="19" t="s"/>
+      <c r="IP15" s="19" t="s"/>
+      <c r="IQ15" s="19" t="s"/>
+      <c r="IR15" s="19" t="s"/>
+      <c r="IS15" s="19" t="s"/>
+      <c r="IT15" s="19" t="s"/>
+      <c r="IU15" s="19" t="s"/>
       <c r="KD15" s="13" t="n"/>
       <c r="KE15" s="12" t="n"/>
-      <c r="KG15" s="17" t="s"/>
-      <c r="KH15" s="17" t="s"/>
-      <c r="KI15" s="17" t="s"/>
-      <c r="KJ15" s="17" t="s"/>
+      <c r="KG15" s="19" t="s"/>
+      <c r="KH15" s="19" t="s"/>
+      <c r="KI15" s="19" t="s"/>
+      <c r="KJ15" s="19" t="s"/>
+      <c r="KK15" s="19" t="s"/>
+      <c r="KL15" s="19" t="s"/>
+      <c r="KM15" s="19" t="s"/>
+      <c r="KN15" s="19" t="s"/>
+      <c r="KO15" s="19" t="s"/>
+      <c r="KP15" s="19" t="s"/>
+      <c r="KQ15" s="19" t="s"/>
       <c r="LZ15" s="13" t="n"/>
     </row>
     <row r="16" s="11" spans="1:338">
@@ -1644,49 +1725,43 @@
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="18" t="s"/>
+      <c r="C16" s="20" t="s"/>
       <c r="D16" s="15" t="s"/>
       <c r="E16" s="15" t="s"/>
       <c r="F16" s="15" t="s"/>
       <c r="G16" s="15" t="s"/>
-      <c r="H16" s="15" t="s"/>
       <c r="AX16" s="13" t="n"/>
-      <c r="AY16" s="18" t="s"/>
+      <c r="AY16" s="20" t="s"/>
       <c r="AZ16" s="15" t="s"/>
       <c r="BA16" s="15" t="s"/>
       <c r="BB16" s="15" t="s"/>
       <c r="BC16" s="15" t="s"/>
-      <c r="BD16" s="15" t="s"/>
       <c r="CT16" s="13" t="n"/>
-      <c r="CU16" s="18" t="s"/>
+      <c r="CU16" s="20" t="s"/>
       <c r="CV16" s="15" t="s"/>
       <c r="CW16" s="15" t="s"/>
       <c r="CX16" s="15" t="s"/>
       <c r="CY16" s="15" t="s"/>
-      <c r="CZ16" s="15" t="s"/>
       <c r="EP16" s="13" t="n"/>
-      <c r="EQ16" s="18" t="s"/>
+      <c r="EQ16" s="20" t="s"/>
       <c r="ER16" s="15" t="s"/>
       <c r="ES16" s="15" t="s"/>
       <c r="ET16" s="15" t="s"/>
       <c r="EU16" s="15" t="s"/>
-      <c r="EV16" s="15" t="s"/>
       <c r="GL16" s="13" t="n"/>
-      <c r="GM16" s="18" t="s"/>
+      <c r="GM16" s="20" t="s"/>
       <c r="GN16" s="15" t="s"/>
       <c r="GO16" s="15" t="s"/>
       <c r="GP16" s="15" t="s"/>
       <c r="GQ16" s="15" t="s"/>
-      <c r="GR16" s="15" t="s"/>
       <c r="IH16" s="13" t="n"/>
       <c r="II16" s="12" t="n"/>
       <c r="KD16" s="13" t="n"/>
-      <c r="KE16" s="18" t="s"/>
+      <c r="KE16" s="20" t="s"/>
       <c r="KF16" s="15" t="s"/>
       <c r="KG16" s="15" t="s"/>
       <c r="KH16" s="15" t="s"/>
       <c r="KI16" s="15" t="s"/>
-      <c r="KJ16" s="15" t="s"/>
       <c r="LZ16" s="13" t="n"/>
     </row>
     <row r="17" s="11" spans="1:338">
@@ -1714,12 +1789,29 @@
       <c r="KA17" s="16" t="s"/>
       <c r="KB17" s="16" t="s"/>
       <c r="KC17" s="16" t="s"/>
-      <c r="KD17" s="20" t="s"/>
-      <c r="KE17" s="21" t="s"/>
+      <c r="KD17" s="17" t="s"/>
+      <c r="KE17" s="18" t="s"/>
       <c r="KF17" s="16" t="s"/>
       <c r="KG17" s="16" t="s"/>
       <c r="KH17" s="16" t="s"/>
       <c r="KI17" s="16" t="s"/>
+      <c r="KJ17" s="16" t="s"/>
+      <c r="KK17" s="16" t="s"/>
+      <c r="KL17" s="16" t="s"/>
+      <c r="KM17" s="16" t="s"/>
+      <c r="KN17" s="16" t="s"/>
+      <c r="KO17" s="16" t="s"/>
+      <c r="KP17" s="16" t="s"/>
+      <c r="KQ17" s="16" t="s"/>
+      <c r="KR17" s="16" t="s"/>
+      <c r="KS17" s="16" t="s"/>
+      <c r="KT17" s="16" t="s"/>
+      <c r="KU17" s="16" t="s"/>
+      <c r="KV17" s="16" t="s"/>
+      <c r="KW17" s="16" t="s"/>
+      <c r="KX17" s="16" t="s"/>
+      <c r="KY17" s="16" t="s"/>
+      <c r="KZ17" s="16" t="s"/>
       <c r="LZ17" s="13" t="n"/>
     </row>
     <row r="18" s="11" spans="1:338">
@@ -1730,100 +1822,94 @@
         <v>12</v>
       </c>
       <c r="C18" s="12" t="n"/>
-      <c r="J18" s="17" t="s"/>
-      <c r="K18" s="17" t="s"/>
-      <c r="L18" s="17" t="s"/>
-      <c r="M18" s="17" t="s"/>
-      <c r="N18" s="17" t="s"/>
-      <c r="O18" s="17" t="s"/>
-      <c r="P18" s="17" t="s"/>
-      <c r="Q18" s="17" t="s"/>
-      <c r="R18" s="17" t="s"/>
-      <c r="S18" s="17" t="s"/>
-      <c r="T18" s="17" t="s"/>
-      <c r="U18" s="17" t="s"/>
-      <c r="V18" s="17" t="s"/>
-      <c r="W18" s="17" t="s"/>
+      <c r="J18" s="19" t="s"/>
+      <c r="K18" s="19" t="s"/>
+      <c r="L18" s="19" t="s"/>
+      <c r="M18" s="19" t="s"/>
+      <c r="N18" s="19" t="s"/>
+      <c r="O18" s="19" t="s"/>
+      <c r="P18" s="19" t="s"/>
+      <c r="Q18" s="19" t="s"/>
+      <c r="R18" s="19" t="s"/>
+      <c r="S18" s="19" t="s"/>
+      <c r="T18" s="19" t="s"/>
+      <c r="U18" s="19" t="s"/>
+      <c r="V18" s="19" t="s"/>
       <c r="AX18" s="13" t="n"/>
       <c r="AY18" s="12" t="n"/>
-      <c r="BF18" s="17" t="s"/>
-      <c r="BG18" s="17" t="s"/>
-      <c r="BH18" s="17" t="s"/>
-      <c r="BI18" s="17" t="s"/>
-      <c r="BJ18" s="17" t="s"/>
-      <c r="BK18" s="17" t="s"/>
-      <c r="BL18" s="17" t="s"/>
-      <c r="BM18" s="17" t="s"/>
-      <c r="BN18" s="17" t="s"/>
-      <c r="BO18" s="17" t="s"/>
-      <c r="BP18" s="17" t="s"/>
-      <c r="BQ18" s="17" t="s"/>
-      <c r="BR18" s="17" t="s"/>
-      <c r="BS18" s="17" t="s"/>
+      <c r="BF18" s="19" t="s"/>
+      <c r="BG18" s="19" t="s"/>
+      <c r="BH18" s="19" t="s"/>
+      <c r="BI18" s="19" t="s"/>
+      <c r="BJ18" s="19" t="s"/>
+      <c r="BK18" s="19" t="s"/>
+      <c r="BL18" s="19" t="s"/>
+      <c r="BM18" s="19" t="s"/>
+      <c r="BN18" s="19" t="s"/>
+      <c r="BO18" s="19" t="s"/>
+      <c r="BP18" s="19" t="s"/>
+      <c r="BQ18" s="19" t="s"/>
+      <c r="BR18" s="19" t="s"/>
       <c r="CT18" s="13" t="n"/>
       <c r="CU18" s="12" t="n"/>
-      <c r="DB18" s="17" t="s"/>
-      <c r="DC18" s="17" t="s"/>
-      <c r="DD18" s="17" t="s"/>
-      <c r="DE18" s="17" t="s"/>
-      <c r="DF18" s="17" t="s"/>
-      <c r="DG18" s="17" t="s"/>
-      <c r="DH18" s="17" t="s"/>
-      <c r="DI18" s="17" t="s"/>
-      <c r="DJ18" s="17" t="s"/>
-      <c r="DK18" s="17" t="s"/>
-      <c r="DL18" s="17" t="s"/>
-      <c r="DM18" s="17" t="s"/>
-      <c r="DN18" s="17" t="s"/>
-      <c r="DO18" s="17" t="s"/>
+      <c r="DB18" s="19" t="s"/>
+      <c r="DC18" s="19" t="s"/>
+      <c r="DD18" s="19" t="s"/>
+      <c r="DE18" s="19" t="s"/>
+      <c r="DF18" s="19" t="s"/>
+      <c r="DG18" s="19" t="s"/>
+      <c r="DH18" s="19" t="s"/>
+      <c r="DI18" s="19" t="s"/>
+      <c r="DJ18" s="19" t="s"/>
+      <c r="DK18" s="19" t="s"/>
+      <c r="DL18" s="19" t="s"/>
+      <c r="DM18" s="19" t="s"/>
+      <c r="DN18" s="19" t="s"/>
       <c r="EP18" s="13" t="n"/>
       <c r="EQ18" s="12" t="n"/>
-      <c r="EX18" s="17" t="s"/>
-      <c r="EY18" s="17" t="s"/>
-      <c r="EZ18" s="17" t="s"/>
-      <c r="FA18" s="17" t="s"/>
-      <c r="FB18" s="17" t="s"/>
-      <c r="FC18" s="17" t="s"/>
-      <c r="FD18" s="17" t="s"/>
-      <c r="FE18" s="17" t="s"/>
-      <c r="FF18" s="17" t="s"/>
-      <c r="FG18" s="17" t="s"/>
-      <c r="FH18" s="17" t="s"/>
-      <c r="FI18" s="17" t="s"/>
-      <c r="FJ18" s="17" t="s"/>
-      <c r="FK18" s="17" t="s"/>
+      <c r="EX18" s="19" t="s"/>
+      <c r="EY18" s="19" t="s"/>
+      <c r="EZ18" s="19" t="s"/>
+      <c r="FA18" s="19" t="s"/>
+      <c r="FB18" s="19" t="s"/>
+      <c r="FC18" s="19" t="s"/>
+      <c r="FD18" s="19" t="s"/>
+      <c r="FE18" s="19" t="s"/>
+      <c r="FF18" s="19" t="s"/>
+      <c r="FG18" s="19" t="s"/>
+      <c r="FH18" s="19" t="s"/>
+      <c r="FI18" s="19" t="s"/>
+      <c r="FJ18" s="19" t="s"/>
       <c r="GL18" s="13" t="n"/>
       <c r="GM18" s="12" t="n"/>
-      <c r="GT18" s="17" t="s"/>
-      <c r="GU18" s="17" t="s"/>
-      <c r="GV18" s="17" t="s"/>
-      <c r="GW18" s="17" t="s"/>
-      <c r="GX18" s="17" t="s"/>
-      <c r="GY18" s="17" t="s"/>
-      <c r="GZ18" s="17" t="s"/>
-      <c r="HA18" s="17" t="s"/>
-      <c r="HB18" s="17" t="s"/>
-      <c r="HC18" s="17" t="s"/>
-      <c r="HD18" s="17" t="s"/>
-      <c r="HE18" s="17" t="s"/>
-      <c r="HF18" s="17" t="s"/>
-      <c r="HG18" s="17" t="s"/>
+      <c r="GT18" s="19" t="s"/>
+      <c r="GU18" s="19" t="s"/>
+      <c r="GV18" s="19" t="s"/>
+      <c r="GW18" s="19" t="s"/>
+      <c r="GX18" s="19" t="s"/>
+      <c r="GY18" s="19" t="s"/>
+      <c r="GZ18" s="19" t="s"/>
+      <c r="HA18" s="19" t="s"/>
+      <c r="HB18" s="19" t="s"/>
+      <c r="HC18" s="19" t="s"/>
+      <c r="HD18" s="19" t="s"/>
+      <c r="HE18" s="19" t="s"/>
+      <c r="HF18" s="19" t="s"/>
       <c r="IH18" s="13" t="n"/>
       <c r="II18" s="12" t="n"/>
-      <c r="IP18" s="17" t="s"/>
-      <c r="IQ18" s="17" t="s"/>
-      <c r="IR18" s="17" t="s"/>
-      <c r="IS18" s="17" t="s"/>
-      <c r="IT18" s="17" t="s"/>
-      <c r="IU18" s="17" t="s"/>
-      <c r="IV18" s="17" t="s"/>
-      <c r="IW18" s="17" t="s"/>
-      <c r="IX18" s="17" t="s"/>
-      <c r="IY18" s="17" t="s"/>
-      <c r="IZ18" s="17" t="s"/>
-      <c r="JA18" s="17" t="s"/>
-      <c r="JB18" s="17" t="s"/>
-      <c r="JC18" s="17" t="s"/>
+      <c r="IP18" s="19" t="s"/>
+      <c r="IQ18" s="19" t="s"/>
+      <c r="IR18" s="19" t="s"/>
+      <c r="IS18" s="19" t="s"/>
+      <c r="IT18" s="19" t="s"/>
+      <c r="IU18" s="19" t="s"/>
+      <c r="IV18" s="19" t="s"/>
+      <c r="IW18" s="19" t="s"/>
+      <c r="IX18" s="19" t="s"/>
+      <c r="IY18" s="19" t="s"/>
+      <c r="IZ18" s="19" t="s"/>
+      <c r="JA18" s="19" t="s"/>
+      <c r="JB18" s="19" t="s"/>
       <c r="KD18" s="13" t="n"/>
       <c r="KE18" s="12" t="n"/>
       <c r="LZ18" s="13" t="n"/>
@@ -1835,25 +1921,49 @@
       <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="18" t="s"/>
+      <c r="C19" s="20" t="s"/>
       <c r="D19" s="15" t="s"/>
+      <c r="E19" s="15" t="s"/>
+      <c r="F19" s="15" t="s"/>
+      <c r="G19" s="15" t="s"/>
+      <c r="H19" s="15" t="s"/>
       <c r="AX19" s="13" t="n"/>
-      <c r="AY19" s="18" t="s"/>
+      <c r="AY19" s="20" t="s"/>
       <c r="AZ19" s="15" t="s"/>
+      <c r="BA19" s="15" t="s"/>
+      <c r="BB19" s="15" t="s"/>
+      <c r="BC19" s="15" t="s"/>
+      <c r="BD19" s="15" t="s"/>
       <c r="CT19" s="13" t="n"/>
-      <c r="CU19" s="18" t="s"/>
+      <c r="CU19" s="20" t="s"/>
       <c r="CV19" s="15" t="s"/>
+      <c r="CW19" s="15" t="s"/>
+      <c r="CX19" s="15" t="s"/>
+      <c r="CY19" s="15" t="s"/>
+      <c r="CZ19" s="15" t="s"/>
       <c r="EP19" s="13" t="n"/>
       <c r="EQ19" s="12" t="n"/>
       <c r="GL19" s="13" t="n"/>
-      <c r="GM19" s="18" t="s"/>
+      <c r="GM19" s="20" t="s"/>
       <c r="GN19" s="15" t="s"/>
+      <c r="GO19" s="15" t="s"/>
+      <c r="GP19" s="15" t="s"/>
+      <c r="GQ19" s="15" t="s"/>
+      <c r="GR19" s="15" t="s"/>
       <c r="IH19" s="13" t="n"/>
-      <c r="II19" s="18" t="s"/>
+      <c r="II19" s="20" t="s"/>
       <c r="IJ19" s="15" t="s"/>
+      <c r="IK19" s="15" t="s"/>
+      <c r="IL19" s="15" t="s"/>
+      <c r="IM19" s="15" t="s"/>
+      <c r="IN19" s="15" t="s"/>
       <c r="KD19" s="13" t="n"/>
-      <c r="KE19" s="18" t="s"/>
+      <c r="KE19" s="20" t="s"/>
       <c r="KF19" s="15" t="s"/>
+      <c r="KG19" s="15" t="s"/>
+      <c r="KH19" s="15" t="s"/>
+      <c r="KI19" s="15" t="s"/>
+      <c r="KJ19" s="15" t="s"/>
       <c r="LZ19" s="13" t="n"/>
     </row>
     <row r="20" s="11" spans="1:338">
@@ -1869,7 +1979,7 @@
       <c r="CT20" s="13" t="n"/>
       <c r="CU20" s="12" t="n"/>
       <c r="EP20" s="13" t="n"/>
-      <c r="EQ20" s="21" t="s"/>
+      <c r="EQ20" s="18" t="s"/>
       <c r="ER20" s="16" t="s"/>
       <c r="ES20" s="16" t="s"/>
       <c r="ET20" s="16" t="s"/>
@@ -1880,7 +1990,6 @@
       <c r="EY20" s="16" t="s"/>
       <c r="EZ20" s="16" t="s"/>
       <c r="FA20" s="16" t="s"/>
-      <c r="FB20" s="16" t="s"/>
       <c r="GL20" s="13" t="n"/>
       <c r="GM20" s="12" t="n"/>
       <c r="IH20" s="13" t="n"/>
@@ -1897,84 +2006,120 @@
         <v>12</v>
       </c>
       <c r="C21" s="12" t="n"/>
-      <c r="G21" s="17" t="s"/>
-      <c r="H21" s="17" t="s"/>
-      <c r="I21" s="17" t="s"/>
-      <c r="J21" s="17" t="s"/>
-      <c r="K21" s="17" t="s"/>
-      <c r="L21" s="17" t="s"/>
-      <c r="M21" s="17" t="s"/>
-      <c r="N21" s="17" t="s"/>
-      <c r="O21" s="17" t="s"/>
-      <c r="P21" s="17" t="s"/>
-      <c r="Q21" s="17" t="s"/>
+      <c r="G21" s="19" t="s"/>
+      <c r="H21" s="19" t="s"/>
+      <c r="I21" s="19" t="s"/>
+      <c r="J21" s="19" t="s"/>
+      <c r="K21" s="19" t="s"/>
+      <c r="L21" s="19" t="s"/>
+      <c r="M21" s="19" t="s"/>
+      <c r="N21" s="19" t="s"/>
+      <c r="O21" s="19" t="s"/>
+      <c r="P21" s="19" t="s"/>
+      <c r="Q21" s="19" t="s"/>
+      <c r="R21" s="19" t="s"/>
+      <c r="S21" s="19" t="s"/>
+      <c r="T21" s="19" t="s"/>
+      <c r="U21" s="19" t="s"/>
+      <c r="V21" s="19" t="s"/>
+      <c r="W21" s="19" t="s"/>
       <c r="AX21" s="13" t="n"/>
       <c r="AY21" s="12" t="n"/>
-      <c r="BC21" s="17" t="s"/>
-      <c r="BD21" s="17" t="s"/>
-      <c r="BE21" s="17" t="s"/>
-      <c r="BF21" s="17" t="s"/>
-      <c r="BG21" s="17" t="s"/>
-      <c r="BH21" s="17" t="s"/>
-      <c r="BI21" s="17" t="s"/>
-      <c r="BJ21" s="17" t="s"/>
-      <c r="BK21" s="17" t="s"/>
-      <c r="BL21" s="17" t="s"/>
-      <c r="BM21" s="17" t="s"/>
+      <c r="BC21" s="19" t="s"/>
+      <c r="BD21" s="19" t="s"/>
+      <c r="BE21" s="19" t="s"/>
+      <c r="BF21" s="19" t="s"/>
+      <c r="BG21" s="19" t="s"/>
+      <c r="BH21" s="19" t="s"/>
+      <c r="BI21" s="19" t="s"/>
+      <c r="BJ21" s="19" t="s"/>
+      <c r="BK21" s="19" t="s"/>
+      <c r="BL21" s="19" t="s"/>
+      <c r="BM21" s="19" t="s"/>
+      <c r="BN21" s="19" t="s"/>
+      <c r="BO21" s="19" t="s"/>
+      <c r="BP21" s="19" t="s"/>
+      <c r="BQ21" s="19" t="s"/>
+      <c r="BR21" s="19" t="s"/>
+      <c r="BS21" s="19" t="s"/>
       <c r="CT21" s="13" t="n"/>
       <c r="CU21" s="12" t="n"/>
-      <c r="CY21" s="17" t="s"/>
-      <c r="CZ21" s="17" t="s"/>
-      <c r="DA21" s="17" t="s"/>
-      <c r="DB21" s="17" t="s"/>
-      <c r="DC21" s="17" t="s"/>
-      <c r="DD21" s="17" t="s"/>
-      <c r="DE21" s="17" t="s"/>
-      <c r="DF21" s="17" t="s"/>
-      <c r="DG21" s="17" t="s"/>
-      <c r="DH21" s="17" t="s"/>
-      <c r="DI21" s="17" t="s"/>
+      <c r="CY21" s="19" t="s"/>
+      <c r="CZ21" s="19" t="s"/>
+      <c r="DA21" s="19" t="s"/>
+      <c r="DB21" s="19" t="s"/>
+      <c r="DC21" s="19" t="s"/>
+      <c r="DD21" s="19" t="s"/>
+      <c r="DE21" s="19" t="s"/>
+      <c r="DF21" s="19" t="s"/>
+      <c r="DG21" s="19" t="s"/>
+      <c r="DH21" s="19" t="s"/>
+      <c r="DI21" s="19" t="s"/>
+      <c r="DJ21" s="19" t="s"/>
+      <c r="DK21" s="19" t="s"/>
+      <c r="DL21" s="19" t="s"/>
+      <c r="DM21" s="19" t="s"/>
+      <c r="DN21" s="19" t="s"/>
+      <c r="DO21" s="19" t="s"/>
       <c r="EP21" s="13" t="n"/>
       <c r="EQ21" s="12" t="n"/>
       <c r="GL21" s="13" t="n"/>
       <c r="GM21" s="12" t="n"/>
-      <c r="GQ21" s="17" t="s"/>
-      <c r="GR21" s="17" t="s"/>
-      <c r="GS21" s="17" t="s"/>
-      <c r="GT21" s="17" t="s"/>
-      <c r="GU21" s="17" t="s"/>
-      <c r="GV21" s="17" t="s"/>
-      <c r="GW21" s="17" t="s"/>
-      <c r="GX21" s="17" t="s"/>
-      <c r="GY21" s="17" t="s"/>
-      <c r="GZ21" s="17" t="s"/>
-      <c r="HA21" s="17" t="s"/>
+      <c r="GQ21" s="19" t="s"/>
+      <c r="GR21" s="19" t="s"/>
+      <c r="GS21" s="19" t="s"/>
+      <c r="GT21" s="19" t="s"/>
+      <c r="GU21" s="19" t="s"/>
+      <c r="GV21" s="19" t="s"/>
+      <c r="GW21" s="19" t="s"/>
+      <c r="GX21" s="19" t="s"/>
+      <c r="GY21" s="19" t="s"/>
+      <c r="GZ21" s="19" t="s"/>
+      <c r="HA21" s="19" t="s"/>
+      <c r="HB21" s="19" t="s"/>
+      <c r="HC21" s="19" t="s"/>
+      <c r="HD21" s="19" t="s"/>
+      <c r="HE21" s="19" t="s"/>
+      <c r="HF21" s="19" t="s"/>
+      <c r="HG21" s="19" t="s"/>
       <c r="IH21" s="13" t="n"/>
       <c r="II21" s="12" t="n"/>
-      <c r="IM21" s="17" t="s"/>
-      <c r="IN21" s="17" t="s"/>
-      <c r="IO21" s="17" t="s"/>
-      <c r="IP21" s="17" t="s"/>
-      <c r="IQ21" s="17" t="s"/>
-      <c r="IR21" s="17" t="s"/>
-      <c r="IS21" s="17" t="s"/>
-      <c r="IT21" s="17" t="s"/>
-      <c r="IU21" s="17" t="s"/>
-      <c r="IV21" s="17" t="s"/>
-      <c r="IW21" s="17" t="s"/>
+      <c r="IM21" s="19" t="s"/>
+      <c r="IN21" s="19" t="s"/>
+      <c r="IO21" s="19" t="s"/>
+      <c r="IP21" s="19" t="s"/>
+      <c r="IQ21" s="19" t="s"/>
+      <c r="IR21" s="19" t="s"/>
+      <c r="IS21" s="19" t="s"/>
+      <c r="IT21" s="19" t="s"/>
+      <c r="IU21" s="19" t="s"/>
+      <c r="IV21" s="19" t="s"/>
+      <c r="IW21" s="19" t="s"/>
+      <c r="IX21" s="19" t="s"/>
+      <c r="IY21" s="19" t="s"/>
+      <c r="IZ21" s="19" t="s"/>
+      <c r="JA21" s="19" t="s"/>
+      <c r="JB21" s="19" t="s"/>
+      <c r="JC21" s="19" t="s"/>
       <c r="KD21" s="13" t="n"/>
       <c r="KE21" s="12" t="n"/>
-      <c r="KI21" s="17" t="s"/>
-      <c r="KJ21" s="17" t="s"/>
-      <c r="KK21" s="17" t="s"/>
-      <c r="KL21" s="17" t="s"/>
-      <c r="KM21" s="17" t="s"/>
-      <c r="KN21" s="17" t="s"/>
-      <c r="KO21" s="17" t="s"/>
-      <c r="KP21" s="17" t="s"/>
-      <c r="KQ21" s="17" t="s"/>
-      <c r="KR21" s="17" t="s"/>
-      <c r="KS21" s="17" t="s"/>
+      <c r="KI21" s="19" t="s"/>
+      <c r="KJ21" s="19" t="s"/>
+      <c r="KK21" s="19" t="s"/>
+      <c r="KL21" s="19" t="s"/>
+      <c r="KM21" s="19" t="s"/>
+      <c r="KN21" s="19" t="s"/>
+      <c r="KO21" s="19" t="s"/>
+      <c r="KP21" s="19" t="s"/>
+      <c r="KQ21" s="19" t="s"/>
+      <c r="KR21" s="19" t="s"/>
+      <c r="KS21" s="19" t="s"/>
+      <c r="KT21" s="19" t="s"/>
+      <c r="KU21" s="19" t="s"/>
+      <c r="KV21" s="19" t="s"/>
+      <c r="KW21" s="19" t="s"/>
+      <c r="KX21" s="19" t="s"/>
+      <c r="KY21" s="19" t="s"/>
       <c r="LZ21" s="13" t="n"/>
     </row>
     <row r="22" s="11" spans="1:338">
@@ -1984,8 +2129,7 @@
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="21" t="s"/>
-      <c r="D22" s="16" t="s"/>
+      <c r="C22" s="18" t="s"/>
       <c r="AX22" s="13" t="n"/>
       <c r="AY22" s="12" t="n"/>
       <c r="CT22" s="13" t="n"/>
@@ -2009,7 +2153,7 @@
       <c r="LW22" s="16" t="s"/>
       <c r="LX22" s="16" t="s"/>
       <c r="LY22" s="16" t="s"/>
-      <c r="LZ22" s="20" t="s"/>
+      <c r="LZ22" s="17" t="s"/>
     </row>
     <row r="23" s="11" spans="1:338">
       <c r="A23" t="s">
@@ -2019,88 +2163,86 @@
         <v>12</v>
       </c>
       <c r="C23" s="12" t="n"/>
-      <c r="D23" s="17" t="s"/>
-      <c r="E23" s="17" t="s"/>
-      <c r="F23" s="17" t="s"/>
-      <c r="G23" s="17" t="s"/>
-      <c r="H23" s="17" t="s"/>
-      <c r="I23" s="17" t="s"/>
-      <c r="J23" s="17" t="s"/>
-      <c r="K23" s="17" t="s"/>
-      <c r="L23" s="17" t="s"/>
-      <c r="M23" s="17" t="s"/>
-      <c r="N23" s="17" t="s"/>
-      <c r="O23" s="17" t="s"/>
+      <c r="D23" s="19" t="s"/>
+      <c r="E23" s="19" t="s"/>
+      <c r="F23" s="19" t="s"/>
+      <c r="G23" s="19" t="s"/>
+      <c r="H23" s="19" t="s"/>
+      <c r="I23" s="19" t="s"/>
+      <c r="J23" s="19" t="s"/>
+      <c r="K23" s="19" t="s"/>
+      <c r="L23" s="19" t="s"/>
+      <c r="M23" s="19" t="s"/>
+      <c r="N23" s="19" t="s"/>
+      <c r="O23" s="19" t="s"/>
+      <c r="P23" s="19" t="s"/>
+      <c r="Q23" s="19" t="s"/>
       <c r="AX23" s="13" t="n"/>
       <c r="AY23" s="12" t="n"/>
-      <c r="AZ23" s="17" t="s"/>
-      <c r="BA23" s="17" t="s"/>
-      <c r="BB23" s="17" t="s"/>
-      <c r="BC23" s="17" t="s"/>
-      <c r="BD23" s="17" t="s"/>
-      <c r="BE23" s="17" t="s"/>
-      <c r="BF23" s="17" t="s"/>
-      <c r="BG23" s="17" t="s"/>
-      <c r="BH23" s="17" t="s"/>
-      <c r="BI23" s="17" t="s"/>
-      <c r="BJ23" s="17" t="s"/>
-      <c r="BK23" s="17" t="s"/>
+      <c r="AZ23" s="19" t="s"/>
+      <c r="BA23" s="19" t="s"/>
+      <c r="BB23" s="19" t="s"/>
+      <c r="BC23" s="19" t="s"/>
+      <c r="BD23" s="19" t="s"/>
+      <c r="BE23" s="19" t="s"/>
+      <c r="BF23" s="19" t="s"/>
+      <c r="BG23" s="19" t="s"/>
+      <c r="BH23" s="19" t="s"/>
+      <c r="BI23" s="19" t="s"/>
+      <c r="BJ23" s="19" t="s"/>
+      <c r="BK23" s="19" t="s"/>
+      <c r="BL23" s="19" t="s"/>
+      <c r="BM23" s="19" t="s"/>
       <c r="CT23" s="13" t="n"/>
       <c r="CU23" s="12" t="n"/>
-      <c r="CV23" s="17" t="s"/>
-      <c r="CW23" s="17" t="s"/>
-      <c r="CX23" s="17" t="s"/>
-      <c r="CY23" s="17" t="s"/>
-      <c r="CZ23" s="17" t="s"/>
-      <c r="DA23" s="17" t="s"/>
-      <c r="DB23" s="17" t="s"/>
-      <c r="DC23" s="17" t="s"/>
-      <c r="DD23" s="17" t="s"/>
-      <c r="DE23" s="17" t="s"/>
-      <c r="DF23" s="17" t="s"/>
-      <c r="DG23" s="17" t="s"/>
+      <c r="CV23" s="19" t="s"/>
+      <c r="CW23" s="19" t="s"/>
+      <c r="CX23" s="19" t="s"/>
+      <c r="CY23" s="19" t="s"/>
+      <c r="CZ23" s="19" t="s"/>
+      <c r="DA23" s="19" t="s"/>
+      <c r="DB23" s="19" t="s"/>
+      <c r="DC23" s="19" t="s"/>
+      <c r="DD23" s="19" t="s"/>
+      <c r="DE23" s="19" t="s"/>
+      <c r="DF23" s="19" t="s"/>
+      <c r="DG23" s="19" t="s"/>
+      <c r="DH23" s="19" t="s"/>
+      <c r="DI23" s="19" t="s"/>
       <c r="EP23" s="13" t="n"/>
       <c r="EQ23" s="12" t="n"/>
-      <c r="ER23" s="17" t="s"/>
-      <c r="ES23" s="17" t="s"/>
-      <c r="ET23" s="17" t="s"/>
-      <c r="EU23" s="17" t="s"/>
-      <c r="EV23" s="17" t="s"/>
-      <c r="EW23" s="17" t="s"/>
-      <c r="EX23" s="17" t="s"/>
-      <c r="EY23" s="17" t="s"/>
-      <c r="EZ23" s="17" t="s"/>
-      <c r="FA23" s="17" t="s"/>
-      <c r="FB23" s="17" t="s"/>
-      <c r="FC23" s="17" t="s"/>
+      <c r="ER23" s="19" t="s"/>
+      <c r="ES23" s="19" t="s"/>
+      <c r="ET23" s="19" t="s"/>
+      <c r="EU23" s="19" t="s"/>
+      <c r="EV23" s="19" t="s"/>
+      <c r="EW23" s="19" t="s"/>
+      <c r="EX23" s="19" t="s"/>
+      <c r="EY23" s="19" t="s"/>
+      <c r="EZ23" s="19" t="s"/>
+      <c r="FA23" s="19" t="s"/>
+      <c r="FB23" s="19" t="s"/>
+      <c r="FC23" s="19" t="s"/>
+      <c r="FD23" s="19" t="s"/>
+      <c r="FE23" s="19" t="s"/>
       <c r="GL23" s="13" t="n"/>
       <c r="GM23" s="12" t="n"/>
-      <c r="GN23" s="17" t="s"/>
-      <c r="GO23" s="17" t="s"/>
-      <c r="GP23" s="17" t="s"/>
-      <c r="GQ23" s="17" t="s"/>
-      <c r="GR23" s="17" t="s"/>
-      <c r="GS23" s="17" t="s"/>
-      <c r="GT23" s="17" t="s"/>
-      <c r="GU23" s="17" t="s"/>
-      <c r="GV23" s="17" t="s"/>
-      <c r="GW23" s="17" t="s"/>
-      <c r="GX23" s="17" t="s"/>
-      <c r="GY23" s="17" t="s"/>
+      <c r="GN23" s="19" t="s"/>
+      <c r="GO23" s="19" t="s"/>
+      <c r="GP23" s="19" t="s"/>
+      <c r="GQ23" s="19" t="s"/>
+      <c r="GR23" s="19" t="s"/>
+      <c r="GS23" s="19" t="s"/>
+      <c r="GT23" s="19" t="s"/>
+      <c r="GU23" s="19" t="s"/>
+      <c r="GV23" s="19" t="s"/>
+      <c r="GW23" s="19" t="s"/>
+      <c r="GX23" s="19" t="s"/>
+      <c r="GY23" s="19" t="s"/>
+      <c r="GZ23" s="19" t="s"/>
+      <c r="HA23" s="19" t="s"/>
       <c r="IH23" s="13" t="n"/>
       <c r="II23" s="12" t="n"/>
-      <c r="IJ23" s="17" t="s"/>
-      <c r="IK23" s="17" t="s"/>
-      <c r="IL23" s="17" t="s"/>
-      <c r="IM23" s="17" t="s"/>
-      <c r="IN23" s="17" t="s"/>
-      <c r="IO23" s="17" t="s"/>
-      <c r="IP23" s="17" t="s"/>
-      <c r="IQ23" s="17" t="s"/>
-      <c r="IR23" s="17" t="s"/>
-      <c r="IS23" s="17" t="s"/>
-      <c r="IT23" s="17" t="s"/>
-      <c r="IU23" s="17" t="s"/>
       <c r="KD23" s="13" t="n"/>
       <c r="KE23" s="12" t="n"/>
       <c r="LZ23" s="13" t="n"/>
@@ -2115,34 +2257,28 @@
       <c r="C24" s="12" t="n"/>
       <c r="O24" s="15" t="s"/>
       <c r="P24" s="15" t="s"/>
-      <c r="Q24" s="15" t="s"/>
       <c r="AX24" s="13" t="n"/>
       <c r="AY24" s="12" t="n"/>
       <c r="BK24" s="15" t="s"/>
       <c r="BL24" s="15" t="s"/>
-      <c r="BM24" s="15" t="s"/>
       <c r="CT24" s="13" t="n"/>
       <c r="CU24" s="12" t="n"/>
       <c r="DG24" s="15" t="s"/>
       <c r="DH24" s="15" t="s"/>
-      <c r="DI24" s="15" t="s"/>
       <c r="EP24" s="13" t="n"/>
       <c r="EQ24" s="12" t="n"/>
       <c r="FC24" s="15" t="s"/>
       <c r="FD24" s="15" t="s"/>
-      <c r="FE24" s="15" t="s"/>
       <c r="GL24" s="13" t="n"/>
       <c r="GM24" s="12" t="n"/>
       <c r="GY24" s="15" t="s"/>
       <c r="GZ24" s="15" t="s"/>
-      <c r="HA24" s="15" t="s"/>
       <c r="IH24" s="13" t="n"/>
       <c r="II24" s="12" t="n"/>
       <c r="KD24" s="13" t="n"/>
       <c r="KE24" s="12" t="n"/>
       <c r="KQ24" s="15" t="s"/>
       <c r="KR24" s="15" t="s"/>
-      <c r="KS24" s="15" t="s"/>
       <c r="LZ24" s="13" t="n"/>
     </row>
     <row r="25" s="11" spans="1:338">
@@ -2178,41 +2314,41 @@
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="23" t="s"/>
-      <c r="AU26" s="17" t="s"/>
-      <c r="AV26" s="17" t="s"/>
-      <c r="AW26" s="17" t="s"/>
-      <c r="AX26" s="24" t="s"/>
-      <c r="AY26" s="23" t="s"/>
-      <c r="CQ26" s="17" t="s"/>
-      <c r="CR26" s="17" t="s"/>
-      <c r="CS26" s="17" t="s"/>
-      <c r="CT26" s="24" t="s"/>
-      <c r="CU26" s="23" t="s"/>
-      <c r="EM26" s="17" t="s"/>
-      <c r="EN26" s="17" t="s"/>
-      <c r="EO26" s="17" t="s"/>
-      <c r="EP26" s="24" t="s"/>
-      <c r="EQ26" s="23" t="s"/>
-      <c r="GI26" s="17" t="s"/>
-      <c r="GJ26" s="17" t="s"/>
-      <c r="GK26" s="17" t="s"/>
-      <c r="GL26" s="24" t="s"/>
-      <c r="GM26" s="23" t="s"/>
-      <c r="IE26" s="17" t="s"/>
-      <c r="IF26" s="17" t="s"/>
-      <c r="IG26" s="17" t="s"/>
-      <c r="IH26" s="24" t="s"/>
-      <c r="II26" s="23" t="s"/>
-      <c r="KA26" s="17" t="s"/>
-      <c r="KB26" s="17" t="s"/>
-      <c r="KC26" s="17" t="s"/>
-      <c r="KD26" s="24" t="s"/>
-      <c r="KE26" s="23" t="s"/>
-      <c r="LW26" s="17" t="s"/>
-      <c r="LX26" s="17" t="s"/>
-      <c r="LY26" s="17" t="s"/>
-      <c r="LZ26" s="24" t="s"/>
+      <c r="C26" s="12" t="n"/>
+      <c r="AU26" s="19" t="s"/>
+      <c r="AV26" s="19" t="s"/>
+      <c r="AW26" s="19" t="s"/>
+      <c r="AX26" s="23" t="s"/>
+      <c r="AY26" s="12" t="n"/>
+      <c r="CQ26" s="19" t="s"/>
+      <c r="CR26" s="19" t="s"/>
+      <c r="CS26" s="19" t="s"/>
+      <c r="CT26" s="23" t="s"/>
+      <c r="CU26" s="12" t="n"/>
+      <c r="EM26" s="19" t="s"/>
+      <c r="EN26" s="19" t="s"/>
+      <c r="EO26" s="19" t="s"/>
+      <c r="EP26" s="23" t="s"/>
+      <c r="EQ26" s="12" t="n"/>
+      <c r="GI26" s="19" t="s"/>
+      <c r="GJ26" s="19" t="s"/>
+      <c r="GK26" s="19" t="s"/>
+      <c r="GL26" s="23" t="s"/>
+      <c r="GM26" s="12" t="n"/>
+      <c r="IE26" s="19" t="s"/>
+      <c r="IF26" s="19" t="s"/>
+      <c r="IG26" s="19" t="s"/>
+      <c r="IH26" s="23" t="s"/>
+      <c r="II26" s="12" t="n"/>
+      <c r="KA26" s="19" t="s"/>
+      <c r="KB26" s="19" t="s"/>
+      <c r="KC26" s="19" t="s"/>
+      <c r="KD26" s="23" t="s"/>
+      <c r="KE26" s="12" t="n"/>
+      <c r="LW26" s="19" t="s"/>
+      <c r="LX26" s="19" t="s"/>
+      <c r="LY26" s="19" t="s"/>
+      <c r="LZ26" s="23" t="s"/>
     </row>
     <row r="27" s="11" spans="1:338">
       <c r="A27" t="s">
@@ -2223,22 +2359,22 @@
       </c>
       <c r="C27" s="12" t="n"/>
       <c r="AX27" s="13" t="n"/>
-      <c r="AY27" s="18" t="s"/>
+      <c r="AY27" s="20" t="s"/>
       <c r="AZ27" s="15" t="s"/>
       <c r="CT27" s="13" t="n"/>
-      <c r="CU27" s="18" t="s"/>
+      <c r="CU27" s="20" t="s"/>
       <c r="CV27" s="15" t="s"/>
       <c r="EP27" s="13" t="n"/>
-      <c r="EQ27" s="18" t="s"/>
+      <c r="EQ27" s="20" t="s"/>
       <c r="ER27" s="15" t="s"/>
       <c r="GL27" s="13" t="n"/>
-      <c r="GM27" s="18" t="s"/>
+      <c r="GM27" s="20" t="s"/>
       <c r="GN27" s="15" t="s"/>
       <c r="IH27" s="13" t="n"/>
-      <c r="II27" s="18" t="s"/>
+      <c r="II27" s="20" t="s"/>
       <c r="IJ27" s="15" t="s"/>
       <c r="KD27" s="13" t="n"/>
-      <c r="KE27" s="18" t="s"/>
+      <c r="KE27" s="20" t="s"/>
       <c r="KF27" s="15" t="s"/>
       <c r="LZ27" s="13" t="n"/>
     </row>
@@ -2274,39 +2410,32 @@
         <v>12</v>
       </c>
       <c r="C29" s="12" t="n"/>
-      <c r="I29" s="17" t="s"/>
-      <c r="J29" s="17" t="s"/>
-      <c r="K29" s="17" t="s"/>
+      <c r="I29" s="19" t="s"/>
+      <c r="J29" s="19" t="s"/>
       <c r="AX29" s="13" t="n"/>
       <c r="AY29" s="12" t="n"/>
-      <c r="BE29" s="17" t="s"/>
-      <c r="BF29" s="17" t="s"/>
-      <c r="BG29" s="17" t="s"/>
+      <c r="BE29" s="19" t="s"/>
+      <c r="BF29" s="19" t="s"/>
       <c r="CT29" s="13" t="n"/>
       <c r="CU29" s="12" t="n"/>
-      <c r="DA29" s="17" t="s"/>
-      <c r="DB29" s="17" t="s"/>
-      <c r="DC29" s="17" t="s"/>
+      <c r="DA29" s="19" t="s"/>
+      <c r="DB29" s="19" t="s"/>
       <c r="EP29" s="13" t="n"/>
       <c r="EQ29" s="12" t="n"/>
-      <c r="EW29" s="17" t="s"/>
-      <c r="EX29" s="17" t="s"/>
-      <c r="EY29" s="17" t="s"/>
+      <c r="EW29" s="19" t="s"/>
+      <c r="EX29" s="19" t="s"/>
       <c r="GL29" s="13" t="n"/>
       <c r="GM29" s="12" t="n"/>
-      <c r="GS29" s="17" t="s"/>
-      <c r="GT29" s="17" t="s"/>
-      <c r="GU29" s="17" t="s"/>
+      <c r="GS29" s="19" t="s"/>
+      <c r="GT29" s="19" t="s"/>
       <c r="IH29" s="13" t="n"/>
       <c r="II29" s="12" t="n"/>
-      <c r="IO29" s="17" t="s"/>
-      <c r="IP29" s="17" t="s"/>
-      <c r="IQ29" s="17" t="s"/>
+      <c r="IO29" s="19" t="s"/>
+      <c r="IP29" s="19" t="s"/>
       <c r="KD29" s="13" t="n"/>
       <c r="KE29" s="12" t="n"/>
-      <c r="KK29" s="17" t="s"/>
-      <c r="KL29" s="17" t="s"/>
-      <c r="KM29" s="17" t="s"/>
+      <c r="KK29" s="19" t="s"/>
+      <c r="KL29" s="19" t="s"/>
       <c r="LZ29" s="13" t="n"/>
     </row>
     <row r="30" s="11" spans="1:338">
@@ -2327,11 +2456,10 @@
       <c r="GM30" s="12" t="n"/>
       <c r="IH30" s="13" t="n"/>
       <c r="II30" s="12" t="n"/>
+      <c r="KA30" s="16" t="s"/>
+      <c r="KB30" s="16" t="s"/>
       <c r="KD30" s="13" t="n"/>
       <c r="KE30" s="12" t="n"/>
-      <c r="KG30" s="16" t="s"/>
-      <c r="KH30" s="16" t="s"/>
-      <c r="KI30" s="16" t="s"/>
       <c r="LZ30" s="13" t="n"/>
     </row>
     <row r="31" s="11" spans="1:338">
@@ -2342,34 +2470,34 @@
         <v>12</v>
       </c>
       <c r="C31" s="12" t="n"/>
-      <c r="G31" s="17" t="s"/>
-      <c r="H31" s="17" t="s"/>
-      <c r="I31" s="17" t="s"/>
+      <c r="G31" s="19" t="s"/>
+      <c r="H31" s="19" t="s"/>
+      <c r="I31" s="19" t="s"/>
       <c r="AX31" s="13" t="n"/>
       <c r="AY31" s="12" t="n"/>
-      <c r="BC31" s="17" t="s"/>
-      <c r="BD31" s="17" t="s"/>
-      <c r="BE31" s="17" t="s"/>
+      <c r="BC31" s="19" t="s"/>
+      <c r="BD31" s="19" t="s"/>
+      <c r="BE31" s="19" t="s"/>
       <c r="CT31" s="13" t="n"/>
       <c r="CU31" s="12" t="n"/>
-      <c r="CY31" s="17" t="s"/>
-      <c r="CZ31" s="17" t="s"/>
-      <c r="DA31" s="17" t="s"/>
+      <c r="CY31" s="19" t="s"/>
+      <c r="CZ31" s="19" t="s"/>
+      <c r="DA31" s="19" t="s"/>
       <c r="EP31" s="13" t="n"/>
       <c r="EQ31" s="12" t="n"/>
-      <c r="EU31" s="17" t="s"/>
-      <c r="EV31" s="17" t="s"/>
-      <c r="EW31" s="17" t="s"/>
+      <c r="EU31" s="19" t="s"/>
+      <c r="EV31" s="19" t="s"/>
+      <c r="EW31" s="19" t="s"/>
       <c r="GL31" s="13" t="n"/>
       <c r="GM31" s="12" t="n"/>
-      <c r="GQ31" s="17" t="s"/>
-      <c r="GR31" s="17" t="s"/>
-      <c r="GS31" s="17" t="s"/>
+      <c r="GQ31" s="19" t="s"/>
+      <c r="GR31" s="19" t="s"/>
+      <c r="GS31" s="19" t="s"/>
       <c r="IH31" s="13" t="n"/>
       <c r="II31" s="12" t="n"/>
-      <c r="IM31" s="17" t="s"/>
-      <c r="IN31" s="17" t="s"/>
-      <c r="IO31" s="17" t="s"/>
+      <c r="IM31" s="19" t="s"/>
+      <c r="IN31" s="19" t="s"/>
+      <c r="IO31" s="19" t="s"/>
       <c r="KD31" s="13" t="n"/>
       <c r="KE31" s="12" t="n"/>
       <c r="LZ31" s="13" t="n"/>
@@ -2384,28 +2512,34 @@
       <c r="C32" s="12" t="n"/>
       <c r="G32" s="15" t="s"/>
       <c r="H32" s="15" t="s"/>
+      <c r="I32" s="15" t="s"/>
       <c r="AX32" s="13" t="n"/>
       <c r="AY32" s="12" t="n"/>
       <c r="BC32" s="15" t="s"/>
       <c r="BD32" s="15" t="s"/>
+      <c r="BE32" s="15" t="s"/>
       <c r="CT32" s="13" t="n"/>
       <c r="CU32" s="12" t="n"/>
       <c r="EP32" s="13" t="n"/>
       <c r="EQ32" s="12" t="n"/>
       <c r="EU32" s="15" t="s"/>
       <c r="EV32" s="15" t="s"/>
+      <c r="EW32" s="15" t="s"/>
       <c r="GL32" s="13" t="n"/>
       <c r="GM32" s="12" t="n"/>
       <c r="GQ32" s="15" t="s"/>
       <c r="GR32" s="15" t="s"/>
+      <c r="GS32" s="15" t="s"/>
       <c r="IH32" s="13" t="n"/>
       <c r="II32" s="12" t="n"/>
       <c r="IM32" s="15" t="s"/>
       <c r="IN32" s="15" t="s"/>
+      <c r="IO32" s="15" t="s"/>
       <c r="KD32" s="13" t="n"/>
       <c r="KE32" s="12" t="n"/>
       <c r="KI32" s="15" t="s"/>
       <c r="KJ32" s="15" t="s"/>
+      <c r="KK32" s="15" t="s"/>
       <c r="LZ32" s="13" t="n"/>
     </row>
     <row r="33" s="11" spans="1:338">
@@ -2423,6 +2557,10 @@
       <c r="CY33" s="16" t="s"/>
       <c r="CZ33" s="16" t="s"/>
       <c r="DA33" s="16" t="s"/>
+      <c r="DB33" s="16" t="s"/>
+      <c r="DC33" s="16" t="s"/>
+      <c r="DD33" s="16" t="s"/>
+      <c r="DE33" s="16" t="s"/>
       <c r="EP33" s="13" t="n"/>
       <c r="EQ33" s="12" t="n"/>
       <c r="GL33" s="13" t="n"/>
@@ -2441,60 +2579,90 @@
         <v>12</v>
       </c>
       <c r="C34" s="12" t="n"/>
-      <c r="J34" s="17" t="s"/>
-      <c r="K34" s="17" t="s"/>
-      <c r="L34" s="17" t="s"/>
-      <c r="M34" s="17" t="s"/>
-      <c r="N34" s="17" t="s"/>
-      <c r="O34" s="17" t="s"/>
-      <c r="P34" s="17" t="s"/>
+      <c r="J34" s="19" t="s"/>
+      <c r="K34" s="19" t="s"/>
+      <c r="L34" s="19" t="s"/>
+      <c r="M34" s="19" t="s"/>
+      <c r="N34" s="19" t="s"/>
+      <c r="O34" s="19" t="s"/>
+      <c r="P34" s="19" t="s"/>
+      <c r="Q34" s="19" t="s"/>
+      <c r="R34" s="19" t="s"/>
+      <c r="S34" s="19" t="s"/>
+      <c r="T34" s="19" t="s"/>
+      <c r="U34" s="19" t="s"/>
       <c r="AX34" s="13" t="n"/>
       <c r="AY34" s="12" t="n"/>
-      <c r="BF34" s="17" t="s"/>
-      <c r="BG34" s="17" t="s"/>
-      <c r="BH34" s="17" t="s"/>
-      <c r="BI34" s="17" t="s"/>
-      <c r="BJ34" s="17" t="s"/>
-      <c r="BK34" s="17" t="s"/>
-      <c r="BL34" s="17" t="s"/>
+      <c r="BF34" s="19" t="s"/>
+      <c r="BG34" s="19" t="s"/>
+      <c r="BH34" s="19" t="s"/>
+      <c r="BI34" s="19" t="s"/>
+      <c r="BJ34" s="19" t="s"/>
+      <c r="BK34" s="19" t="s"/>
+      <c r="BL34" s="19" t="s"/>
+      <c r="BM34" s="19" t="s"/>
+      <c r="BN34" s="19" t="s"/>
+      <c r="BO34" s="19" t="s"/>
+      <c r="BP34" s="19" t="s"/>
+      <c r="BQ34" s="19" t="s"/>
       <c r="CT34" s="13" t="n"/>
       <c r="CU34" s="12" t="n"/>
       <c r="EP34" s="13" t="n"/>
       <c r="EQ34" s="12" t="n"/>
-      <c r="EX34" s="17" t="s"/>
-      <c r="EY34" s="17" t="s"/>
-      <c r="EZ34" s="17" t="s"/>
-      <c r="FA34" s="17" t="s"/>
-      <c r="FB34" s="17" t="s"/>
-      <c r="FC34" s="17" t="s"/>
-      <c r="FD34" s="17" t="s"/>
+      <c r="EX34" s="19" t="s"/>
+      <c r="EY34" s="19" t="s"/>
+      <c r="EZ34" s="19" t="s"/>
+      <c r="FA34" s="19" t="s"/>
+      <c r="FB34" s="19" t="s"/>
+      <c r="FC34" s="19" t="s"/>
+      <c r="FD34" s="19" t="s"/>
+      <c r="FE34" s="19" t="s"/>
+      <c r="FF34" s="19" t="s"/>
+      <c r="FG34" s="19" t="s"/>
+      <c r="FH34" s="19" t="s"/>
+      <c r="FI34" s="19" t="s"/>
       <c r="GL34" s="13" t="n"/>
       <c r="GM34" s="12" t="n"/>
-      <c r="GT34" s="17" t="s"/>
-      <c r="GU34" s="17" t="s"/>
-      <c r="GV34" s="17" t="s"/>
-      <c r="GW34" s="17" t="s"/>
-      <c r="GX34" s="17" t="s"/>
-      <c r="GY34" s="17" t="s"/>
-      <c r="GZ34" s="17" t="s"/>
+      <c r="GT34" s="19" t="s"/>
+      <c r="GU34" s="19" t="s"/>
+      <c r="GV34" s="19" t="s"/>
+      <c r="GW34" s="19" t="s"/>
+      <c r="GX34" s="19" t="s"/>
+      <c r="GY34" s="19" t="s"/>
+      <c r="GZ34" s="19" t="s"/>
+      <c r="HA34" s="19" t="s"/>
+      <c r="HB34" s="19" t="s"/>
+      <c r="HC34" s="19" t="s"/>
+      <c r="HD34" s="19" t="s"/>
+      <c r="HE34" s="19" t="s"/>
       <c r="IH34" s="13" t="n"/>
       <c r="II34" s="12" t="n"/>
-      <c r="IP34" s="17" t="s"/>
-      <c r="IQ34" s="17" t="s"/>
-      <c r="IR34" s="17" t="s"/>
-      <c r="IS34" s="17" t="s"/>
-      <c r="IT34" s="17" t="s"/>
-      <c r="IU34" s="17" t="s"/>
-      <c r="IV34" s="17" t="s"/>
+      <c r="IP34" s="19" t="s"/>
+      <c r="IQ34" s="19" t="s"/>
+      <c r="IR34" s="19" t="s"/>
+      <c r="IS34" s="19" t="s"/>
+      <c r="IT34" s="19" t="s"/>
+      <c r="IU34" s="19" t="s"/>
+      <c r="IV34" s="19" t="s"/>
+      <c r="IW34" s="19" t="s"/>
+      <c r="IX34" s="19" t="s"/>
+      <c r="IY34" s="19" t="s"/>
+      <c r="IZ34" s="19" t="s"/>
+      <c r="JA34" s="19" t="s"/>
       <c r="KD34" s="13" t="n"/>
       <c r="KE34" s="12" t="n"/>
-      <c r="KL34" s="17" t="s"/>
-      <c r="KM34" s="17" t="s"/>
-      <c r="KN34" s="17" t="s"/>
-      <c r="KO34" s="17" t="s"/>
-      <c r="KP34" s="17" t="s"/>
-      <c r="KQ34" s="17" t="s"/>
-      <c r="KR34" s="17" t="s"/>
+      <c r="KL34" s="19" t="s"/>
+      <c r="KM34" s="19" t="s"/>
+      <c r="KN34" s="19" t="s"/>
+      <c r="KO34" s="19" t="s"/>
+      <c r="KP34" s="19" t="s"/>
+      <c r="KQ34" s="19" t="s"/>
+      <c r="KR34" s="19" t="s"/>
+      <c r="KS34" s="19" t="s"/>
+      <c r="KT34" s="19" t="s"/>
+      <c r="KU34" s="19" t="s"/>
+      <c r="KV34" s="19" t="s"/>
+      <c r="KW34" s="19" t="s"/>
       <c r="LZ34" s="13" t="n"/>
     </row>
     <row r="35" spans="1:338">
@@ -2504,20 +2672,20 @@
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="18" t="s"/>
-      <c r="AX35" s="19" t="s"/>
-      <c r="AY35" s="18" t="s"/>
-      <c r="CT35" s="19" t="s"/>
-      <c r="CU35" s="18" t="s"/>
-      <c r="EP35" s="19" t="s"/>
-      <c r="EQ35" s="18" t="s"/>
-      <c r="GL35" s="19" t="s"/>
-      <c r="GM35" s="18" t="s"/>
-      <c r="IH35" s="19" t="s"/>
-      <c r="II35" s="18" t="s"/>
+      <c r="C35" s="20" t="s"/>
+      <c r="AX35" s="21" t="s"/>
+      <c r="AY35" s="20" t="s"/>
+      <c r="CT35" s="21" t="s"/>
+      <c r="CU35" s="20" t="s"/>
+      <c r="EP35" s="21" t="s"/>
+      <c r="EQ35" s="20" t="s"/>
+      <c r="GL35" s="21" t="s"/>
+      <c r="GM35" s="20" t="s"/>
+      <c r="IH35" s="21" t="s"/>
+      <c r="II35" s="20" t="s"/>
       <c r="KD35" s="13" t="n"/>
       <c r="KE35" s="12" t="n"/>
-      <c r="LZ35" s="19" t="s"/>
+      <c r="LZ35" s="21" t="s"/>
     </row>
     <row r="36" spans="1:338">
       <c r="A36" t="s">
@@ -2817,19 +2985,19 @@
       <c r="KE36" s="6" t="n"/>
       <c r="KF36" s="7" t="n"/>
       <c r="KG36" s="7" t="n"/>
-      <c r="KH36" s="25" t="s"/>
-      <c r="KI36" s="25" t="s"/>
-      <c r="KJ36" s="7" t="n"/>
-      <c r="KK36" s="7" t="n"/>
-      <c r="KL36" s="7" t="n"/>
-      <c r="KM36" s="7" t="n"/>
-      <c r="KN36" s="7" t="n"/>
-      <c r="KO36" s="7" t="n"/>
-      <c r="KP36" s="7" t="n"/>
-      <c r="KQ36" s="7" t="n"/>
-      <c r="KR36" s="7" t="n"/>
-      <c r="KS36" s="7" t="n"/>
-      <c r="KT36" s="7" t="n"/>
+      <c r="KH36" s="24" t="s"/>
+      <c r="KI36" s="24" t="s"/>
+      <c r="KJ36" s="24" t="s"/>
+      <c r="KK36" s="24" t="s"/>
+      <c r="KL36" s="24" t="s"/>
+      <c r="KM36" s="24" t="s"/>
+      <c r="KN36" s="24" t="s"/>
+      <c r="KO36" s="24" t="s"/>
+      <c r="KP36" s="24" t="s"/>
+      <c r="KQ36" s="24" t="s"/>
+      <c r="KR36" s="24" t="s"/>
+      <c r="KS36" s="24" t="s"/>
+      <c r="KT36" s="24" t="s"/>
       <c r="KU36" s="7" t="n"/>
       <c r="KV36" s="7" t="n"/>
       <c r="KW36" s="7" t="n"/>
@@ -2870,18 +3038,66 @@
       <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="17" t="s"/>
-      <c r="J37" s="17" t="s"/>
-      <c r="BE37" s="17" t="s"/>
-      <c r="BF37" s="17" t="s"/>
-      <c r="DA37" s="17" t="s"/>
-      <c r="DB37" s="17" t="s"/>
-      <c r="EW37" s="17" t="s"/>
-      <c r="EX37" s="17" t="s"/>
-      <c r="GS37" s="17" t="s"/>
-      <c r="GT37" s="17" t="s"/>
-      <c r="IO37" s="17" t="s"/>
-      <c r="IP37" s="17" t="s"/>
+      <c r="I37" s="19" t="s"/>
+      <c r="J37" s="19" t="s"/>
+      <c r="K37" s="19" t="s"/>
+      <c r="L37" s="19" t="s"/>
+      <c r="M37" s="19" t="s"/>
+      <c r="N37" s="19" t="s"/>
+      <c r="O37" s="19" t="s"/>
+      <c r="P37" s="19" t="s"/>
+      <c r="Q37" s="19" t="s"/>
+      <c r="R37" s="19" t="s"/>
+      <c r="BE37" s="19" t="s"/>
+      <c r="BF37" s="19" t="s"/>
+      <c r="BG37" s="19" t="s"/>
+      <c r="BH37" s="19" t="s"/>
+      <c r="BI37" s="19" t="s"/>
+      <c r="BJ37" s="19" t="s"/>
+      <c r="BK37" s="19" t="s"/>
+      <c r="BL37" s="19" t="s"/>
+      <c r="BM37" s="19" t="s"/>
+      <c r="BN37" s="19" t="s"/>
+      <c r="DA37" s="19" t="s"/>
+      <c r="DB37" s="19" t="s"/>
+      <c r="DC37" s="19" t="s"/>
+      <c r="DD37" s="19" t="s"/>
+      <c r="DE37" s="19" t="s"/>
+      <c r="DF37" s="19" t="s"/>
+      <c r="DG37" s="19" t="s"/>
+      <c r="DH37" s="19" t="s"/>
+      <c r="DI37" s="19" t="s"/>
+      <c r="DJ37" s="19" t="s"/>
+      <c r="EW37" s="19" t="s"/>
+      <c r="EX37" s="19" t="s"/>
+      <c r="EY37" s="19" t="s"/>
+      <c r="EZ37" s="19" t="s"/>
+      <c r="FA37" s="19" t="s"/>
+      <c r="FB37" s="19" t="s"/>
+      <c r="FC37" s="19" t="s"/>
+      <c r="FD37" s="19" t="s"/>
+      <c r="FE37" s="19" t="s"/>
+      <c r="FF37" s="19" t="s"/>
+      <c r="GS37" s="19" t="s"/>
+      <c r="GT37" s="19" t="s"/>
+      <c r="GU37" s="19" t="s"/>
+      <c r="GV37" s="19" t="s"/>
+      <c r="GW37" s="19" t="s"/>
+      <c r="GX37" s="19" t="s"/>
+      <c r="GY37" s="19" t="s"/>
+      <c r="GZ37" s="19" t="s"/>
+      <c r="HA37" s="19" t="s"/>
+      <c r="HB37" s="19" t="s"/>
+      <c r="IO37" s="19" t="s"/>
+      <c r="IP37" s="19" t="s"/>
+      <c r="IQ37" s="19" t="s"/>
+      <c r="IR37" s="19" t="s"/>
+      <c r="IS37" s="19" t="s"/>
+      <c r="IT37" s="19" t="s"/>
+      <c r="IU37" s="19" t="s"/>
+      <c r="IV37" s="19" t="s"/>
+      <c r="IW37" s="19" t="s"/>
+      <c r="IX37" s="19" t="s"/>
     </row>
     <row r="38" spans="1:338">
       <c r="A38" t="s">
@@ -2891,34 +3107,16 @@
         <v>10</v>
       </c>
       <c r="C38" s="15" t="s"/>
-      <c r="D38" s="15" t="s"/>
-      <c r="E38" s="15" t="s"/>
-      <c r="F38" s="15" t="s"/>
       <c r="AX38" s="15" t="s"/>
       <c r="AY38" s="15" t="s"/>
-      <c r="AZ38" s="15" t="s"/>
-      <c r="BA38" s="15" t="s"/>
-      <c r="BB38" s="15" t="s"/>
       <c r="CT38" s="15" t="s"/>
       <c r="CU38" s="15" t="s"/>
-      <c r="CV38" s="15" t="s"/>
-      <c r="CW38" s="15" t="s"/>
-      <c r="CX38" s="15" t="s"/>
       <c r="EP38" s="15" t="s"/>
       <c r="EQ38" s="15" t="s"/>
-      <c r="ER38" s="15" t="s"/>
-      <c r="ES38" s="15" t="s"/>
-      <c r="ET38" s="15" t="s"/>
       <c r="GL38" s="15" t="s"/>
       <c r="GM38" s="15" t="s"/>
-      <c r="GN38" s="15" t="s"/>
-      <c r="GO38" s="15" t="s"/>
-      <c r="GP38" s="15" t="s"/>
       <c r="KD38" s="15" t="s"/>
       <c r="KE38" s="15" t="s"/>
-      <c r="KF38" s="15" t="s"/>
-      <c r="KG38" s="15" t="s"/>
-      <c r="KH38" s="15" t="s"/>
       <c r="LZ38" s="15" t="s"/>
     </row>
     <row r="39" spans="1:338">
@@ -2930,13 +3128,6 @@
       </c>
       <c r="IE39" s="16" t="s"/>
       <c r="IF39" s="16" t="s"/>
-      <c r="IG39" s="16" t="s"/>
-      <c r="IH39" s="16" t="s"/>
-      <c r="II39" s="16" t="s"/>
-      <c r="IJ39" s="16" t="s"/>
-      <c r="IK39" s="16" t="s"/>
-      <c r="IL39" s="16" t="s"/>
-      <c r="IM39" s="16" t="s"/>
     </row>
     <row r="40" spans="1:338">
       <c r="A40" t="s">
@@ -2945,90 +3136,18 @@
       <c r="B40" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="17" t="s"/>
-      <c r="J40" s="17" t="s"/>
-      <c r="K40" s="17" t="s"/>
-      <c r="L40" s="17" t="s"/>
-      <c r="M40" s="17" t="s"/>
-      <c r="N40" s="17" t="s"/>
-      <c r="O40" s="17" t="s"/>
-      <c r="P40" s="17" t="s"/>
-      <c r="Q40" s="17" t="s"/>
-      <c r="R40" s="17" t="s"/>
-      <c r="S40" s="17" t="s"/>
-      <c r="T40" s="17" t="s"/>
-      <c r="U40" s="17" t="s"/>
-      <c r="V40" s="17" t="s"/>
-      <c r="BE40" s="17" t="s"/>
-      <c r="BF40" s="17" t="s"/>
-      <c r="BG40" s="17" t="s"/>
-      <c r="BH40" s="17" t="s"/>
-      <c r="BI40" s="17" t="s"/>
-      <c r="BJ40" s="17" t="s"/>
-      <c r="BK40" s="17" t="s"/>
-      <c r="BL40" s="17" t="s"/>
-      <c r="BM40" s="17" t="s"/>
-      <c r="BN40" s="17" t="s"/>
-      <c r="BO40" s="17" t="s"/>
-      <c r="BP40" s="17" t="s"/>
-      <c r="BQ40" s="17" t="s"/>
-      <c r="BR40" s="17" t="s"/>
-      <c r="DA40" s="17" t="s"/>
-      <c r="DB40" s="17" t="s"/>
-      <c r="DC40" s="17" t="s"/>
-      <c r="DD40" s="17" t="s"/>
-      <c r="DE40" s="17" t="s"/>
-      <c r="DF40" s="17" t="s"/>
-      <c r="DG40" s="17" t="s"/>
-      <c r="DH40" s="17" t="s"/>
-      <c r="DI40" s="17" t="s"/>
-      <c r="DJ40" s="17" t="s"/>
-      <c r="DK40" s="17" t="s"/>
-      <c r="DL40" s="17" t="s"/>
-      <c r="DM40" s="17" t="s"/>
-      <c r="DN40" s="17" t="s"/>
-      <c r="EW40" s="17" t="s"/>
-      <c r="EX40" s="17" t="s"/>
-      <c r="EY40" s="17" t="s"/>
-      <c r="EZ40" s="17" t="s"/>
-      <c r="FA40" s="17" t="s"/>
-      <c r="FB40" s="17" t="s"/>
-      <c r="FC40" s="17" t="s"/>
-      <c r="FD40" s="17" t="s"/>
-      <c r="FE40" s="17" t="s"/>
-      <c r="FF40" s="17" t="s"/>
-      <c r="FG40" s="17" t="s"/>
-      <c r="FH40" s="17" t="s"/>
-      <c r="FI40" s="17" t="s"/>
-      <c r="FJ40" s="17" t="s"/>
-      <c r="GS40" s="17" t="s"/>
-      <c r="GT40" s="17" t="s"/>
-      <c r="GU40" s="17" t="s"/>
-      <c r="GV40" s="17" t="s"/>
-      <c r="GW40" s="17" t="s"/>
-      <c r="GX40" s="17" t="s"/>
-      <c r="GY40" s="17" t="s"/>
-      <c r="GZ40" s="17" t="s"/>
-      <c r="HA40" s="17" t="s"/>
-      <c r="HB40" s="17" t="s"/>
-      <c r="HC40" s="17" t="s"/>
-      <c r="HD40" s="17" t="s"/>
-      <c r="HE40" s="17" t="s"/>
-      <c r="HF40" s="17" t="s"/>
-      <c r="IO40" s="17" t="s"/>
-      <c r="IP40" s="17" t="s"/>
-      <c r="IQ40" s="17" t="s"/>
-      <c r="IR40" s="17" t="s"/>
-      <c r="IS40" s="17" t="s"/>
-      <c r="IT40" s="17" t="s"/>
-      <c r="IU40" s="17" t="s"/>
-      <c r="IV40" s="17" t="s"/>
-      <c r="IW40" s="17" t="s"/>
-      <c r="IX40" s="17" t="s"/>
-      <c r="IY40" s="17" t="s"/>
-      <c r="IZ40" s="17" t="s"/>
-      <c r="JA40" s="17" t="s"/>
-      <c r="JB40" s="17" t="s"/>
+      <c r="I40" s="19" t="s"/>
+      <c r="J40" s="19" t="s"/>
+      <c r="BE40" s="19" t="s"/>
+      <c r="BF40" s="19" t="s"/>
+      <c r="DA40" s="19" t="s"/>
+      <c r="DB40" s="19" t="s"/>
+      <c r="EW40" s="19" t="s"/>
+      <c r="EX40" s="19" t="s"/>
+      <c r="GS40" s="19" t="s"/>
+      <c r="GT40" s="19" t="s"/>
+      <c r="IO40" s="19" t="s"/>
+      <c r="IP40" s="19" t="s"/>
     </row>
     <row r="41" spans="1:338">
       <c r="A41" t="s">
@@ -3067,18 +3186,18 @@
       <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="17" t="s"/>
-      <c r="J43" s="17" t="s"/>
-      <c r="BE43" s="17" t="s"/>
-      <c r="BF43" s="17" t="s"/>
-      <c r="DA43" s="17" t="s"/>
-      <c r="DB43" s="17" t="s"/>
-      <c r="EW43" s="17" t="s"/>
-      <c r="EX43" s="17" t="s"/>
-      <c r="GS43" s="17" t="s"/>
-      <c r="GT43" s="17" t="s"/>
-      <c r="IO43" s="17" t="s"/>
-      <c r="IP43" s="17" t="s"/>
+      <c r="I43" s="19" t="s"/>
+      <c r="J43" s="19" t="s"/>
+      <c r="BE43" s="19" t="s"/>
+      <c r="BF43" s="19" t="s"/>
+      <c r="DA43" s="19" t="s"/>
+      <c r="DB43" s="19" t="s"/>
+      <c r="EW43" s="19" t="s"/>
+      <c r="EX43" s="19" t="s"/>
+      <c r="GS43" s="19" t="s"/>
+      <c r="GT43" s="19" t="s"/>
+      <c r="IO43" s="19" t="s"/>
+      <c r="IP43" s="19" t="s"/>
     </row>
     <row r="44" spans="1:338">
       <c r="A44" t="s">
@@ -3089,16 +3208,46 @@
       </c>
       <c r="J44" s="15" t="s"/>
       <c r="K44" s="15" t="s"/>
+      <c r="L44" s="15" t="s"/>
+      <c r="M44" s="15" t="s"/>
+      <c r="N44" s="15" t="s"/>
+      <c r="O44" s="15" t="s"/>
       <c r="BF44" s="15" t="s"/>
       <c r="BG44" s="15" t="s"/>
+      <c r="BH44" s="15" t="s"/>
+      <c r="BI44" s="15" t="s"/>
+      <c r="BJ44" s="15" t="s"/>
+      <c r="BK44" s="15" t="s"/>
       <c r="DB44" s="15" t="s"/>
       <c r="DC44" s="15" t="s"/>
+      <c r="DD44" s="15" t="s"/>
+      <c r="DE44" s="15" t="s"/>
+      <c r="DF44" s="15" t="s"/>
+      <c r="DG44" s="15" t="s"/>
       <c r="EX44" s="15" t="s"/>
       <c r="EY44" s="15" t="s"/>
+      <c r="EZ44" s="15" t="s"/>
+      <c r="FA44" s="15" t="s"/>
+      <c r="FB44" s="15" t="s"/>
+      <c r="FC44" s="15" t="s"/>
       <c r="GT44" s="15" t="s"/>
       <c r="GU44" s="15" t="s"/>
+      <c r="GV44" s="15" t="s"/>
+      <c r="GW44" s="15" t="s"/>
+      <c r="GX44" s="15" t="s"/>
+      <c r="GY44" s="15" t="s"/>
       <c r="IP44" s="15" t="s"/>
       <c r="IQ44" s="15" t="s"/>
+      <c r="IR44" s="15" t="s"/>
+      <c r="IS44" s="15" t="s"/>
+      <c r="IT44" s="15" t="s"/>
+      <c r="IU44" s="15" t="s"/>
+      <c r="KL44" s="15" t="s"/>
+      <c r="KM44" s="15" t="s"/>
+      <c r="KN44" s="15" t="s"/>
+      <c r="KO44" s="15" t="s"/>
+      <c r="KP44" s="15" t="s"/>
+      <c r="KQ44" s="15" t="s"/>
     </row>
     <row r="45" spans="1:338">
       <c r="A45" t="s">
@@ -3108,6 +3257,24 @@
         <v>11</v>
       </c>
       <c r="II45" s="16" t="s"/>
+      <c r="IJ45" s="16" t="s"/>
+      <c r="IK45" s="16" t="s"/>
+      <c r="IL45" s="16" t="s"/>
+      <c r="IM45" s="16" t="s"/>
+      <c r="IN45" s="16" t="s"/>
+      <c r="IO45" s="16" t="s"/>
+      <c r="IP45" s="16" t="s"/>
+      <c r="IQ45" s="16" t="s"/>
+      <c r="IR45" s="16" t="s"/>
+      <c r="IS45" s="16" t="s"/>
+      <c r="IT45" s="16" t="s"/>
+      <c r="IU45" s="16" t="s"/>
+      <c r="IV45" s="16" t="s"/>
+      <c r="IW45" s="16" t="s"/>
+      <c r="IX45" s="16" t="s"/>
+      <c r="IY45" s="16" t="s"/>
+      <c r="IZ45" s="16" t="s"/>
+      <c r="JA45" s="16" t="s"/>
     </row>
     <row r="46" spans="1:338">
       <c r="A46" t="s">
@@ -3116,27 +3283,104 @@
       <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="AU46" s="17" t="s"/>
-      <c r="AV46" s="17" t="s"/>
-      <c r="AW46" s="17" t="s"/>
-      <c r="CQ46" s="17" t="s"/>
-      <c r="CR46" s="17" t="s"/>
-      <c r="CS46" s="17" t="s"/>
-      <c r="EM46" s="17" t="s"/>
-      <c r="EN46" s="17" t="s"/>
-      <c r="EO46" s="17" t="s"/>
-      <c r="GI46" s="17" t="s"/>
-      <c r="GJ46" s="17" t="s"/>
-      <c r="GK46" s="17" t="s"/>
-      <c r="IE46" s="17" t="s"/>
-      <c r="IF46" s="17" t="s"/>
-      <c r="IG46" s="17" t="s"/>
-      <c r="KA46" s="17" t="s"/>
-      <c r="KB46" s="17" t="s"/>
-      <c r="KC46" s="17" t="s"/>
-      <c r="LW46" s="17" t="s"/>
-      <c r="LX46" s="17" t="s"/>
-      <c r="LY46" s="17" t="s"/>
+      <c r="C46" s="19" t="s"/>
+      <c r="D46" s="19" t="s"/>
+      <c r="E46" s="19" t="s"/>
+      <c r="F46" s="19" t="s"/>
+      <c r="G46" s="19" t="s"/>
+      <c r="H46" s="19" t="s"/>
+      <c r="I46" s="19" t="s"/>
+      <c r="J46" s="19" t="s"/>
+      <c r="K46" s="19" t="s"/>
+      <c r="L46" s="19" t="s"/>
+      <c r="AU46" s="19" t="s"/>
+      <c r="AV46" s="19" t="s"/>
+      <c r="AW46" s="19" t="s"/>
+      <c r="AX46" s="19" t="s"/>
+      <c r="AY46" s="19" t="s"/>
+      <c r="AZ46" s="19" t="s"/>
+      <c r="BA46" s="19" t="s"/>
+      <c r="BB46" s="19" t="s"/>
+      <c r="BC46" s="19" t="s"/>
+      <c r="BD46" s="19" t="s"/>
+      <c r="BE46" s="19" t="s"/>
+      <c r="BF46" s="19" t="s"/>
+      <c r="BG46" s="19" t="s"/>
+      <c r="BH46" s="19" t="s"/>
+      <c r="CQ46" s="19" t="s"/>
+      <c r="CR46" s="19" t="s"/>
+      <c r="CS46" s="19" t="s"/>
+      <c r="CT46" s="19" t="s"/>
+      <c r="CU46" s="19" t="s"/>
+      <c r="CV46" s="19" t="s"/>
+      <c r="CW46" s="19" t="s"/>
+      <c r="CX46" s="19" t="s"/>
+      <c r="CY46" s="19" t="s"/>
+      <c r="CZ46" s="19" t="s"/>
+      <c r="DA46" s="19" t="s"/>
+      <c r="DB46" s="19" t="s"/>
+      <c r="DC46" s="19" t="s"/>
+      <c r="DD46" s="19" t="s"/>
+      <c r="EM46" s="19" t="s"/>
+      <c r="EN46" s="19" t="s"/>
+      <c r="EO46" s="19" t="s"/>
+      <c r="EP46" s="19" t="s"/>
+      <c r="EQ46" s="19" t="s"/>
+      <c r="ER46" s="19" t="s"/>
+      <c r="ES46" s="19" t="s"/>
+      <c r="ET46" s="19" t="s"/>
+      <c r="EU46" s="19" t="s"/>
+      <c r="EV46" s="19" t="s"/>
+      <c r="EW46" s="19" t="s"/>
+      <c r="EX46" s="19" t="s"/>
+      <c r="EY46" s="19" t="s"/>
+      <c r="EZ46" s="19" t="s"/>
+      <c r="GI46" s="19" t="s"/>
+      <c r="GJ46" s="19" t="s"/>
+      <c r="GK46" s="19" t="s"/>
+      <c r="GL46" s="19" t="s"/>
+      <c r="GM46" s="19" t="s"/>
+      <c r="GN46" s="19" t="s"/>
+      <c r="GO46" s="19" t="s"/>
+      <c r="GP46" s="19" t="s"/>
+      <c r="GQ46" s="19" t="s"/>
+      <c r="GR46" s="19" t="s"/>
+      <c r="GS46" s="19" t="s"/>
+      <c r="GT46" s="19" t="s"/>
+      <c r="GU46" s="19" t="s"/>
+      <c r="GV46" s="19" t="s"/>
+      <c r="IE46" s="19" t="s"/>
+      <c r="IF46" s="19" t="s"/>
+      <c r="IG46" s="19" t="s"/>
+      <c r="IH46" s="19" t="s"/>
+      <c r="II46" s="19" t="s"/>
+      <c r="IJ46" s="19" t="s"/>
+      <c r="IK46" s="19" t="s"/>
+      <c r="IL46" s="19" t="s"/>
+      <c r="IM46" s="19" t="s"/>
+      <c r="IN46" s="19" t="s"/>
+      <c r="IO46" s="19" t="s"/>
+      <c r="IP46" s="19" t="s"/>
+      <c r="IQ46" s="19" t="s"/>
+      <c r="IR46" s="19" t="s"/>
+      <c r="KA46" s="19" t="s"/>
+      <c r="KB46" s="19" t="s"/>
+      <c r="KC46" s="19" t="s"/>
+      <c r="KD46" s="19" t="s"/>
+      <c r="KE46" s="19" t="s"/>
+      <c r="KF46" s="19" t="s"/>
+      <c r="KG46" s="19" t="s"/>
+      <c r="KH46" s="19" t="s"/>
+      <c r="KI46" s="19" t="s"/>
+      <c r="KJ46" s="19" t="s"/>
+      <c r="KK46" s="19" t="s"/>
+      <c r="KL46" s="19" t="s"/>
+      <c r="KM46" s="19" t="s"/>
+      <c r="KN46" s="19" t="s"/>
+      <c r="LW46" s="19" t="s"/>
+      <c r="LX46" s="19" t="s"/>
+      <c r="LY46" s="19" t="s"/>
+      <c r="LZ46" s="19" t="s"/>
     </row>
     <row r="47" spans="1:338">
       <c r="A47" t="s">
@@ -3157,6 +3401,8 @@
       <c r="GU47" s="15" t="s"/>
       <c r="IP47" s="15" t="s"/>
       <c r="IQ47" s="15" t="s"/>
+      <c r="KL47" s="15" t="s"/>
+      <c r="KM47" s="15" t="s"/>
     </row>
     <row r="48" spans="1:338">
       <c r="A48" t="s">
@@ -3165,582 +3411,797 @@
       <c r="B48" t="s">
         <v>11</v>
       </c>
-      <c r="KF48" s="16" t="s"/>
-      <c r="KG48" s="16" t="s"/>
+      <c r="II48" s="16" t="s"/>
+      <c r="IJ48" s="16" t="s"/>
     </row>
     <row r="49" spans="1:338">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="15" t="s"/>
-      <c r="K49" s="15" t="s"/>
-      <c r="BF49" s="15" t="s"/>
-      <c r="BG49" s="15" t="s"/>
-      <c r="DB49" s="15" t="s"/>
-      <c r="DC49" s="15" t="s"/>
-      <c r="EX49" s="15" t="s"/>
-      <c r="EY49" s="15" t="s"/>
-      <c r="GT49" s="15" t="s"/>
-      <c r="GU49" s="15" t="s"/>
-      <c r="IP49" s="15" t="s"/>
-      <c r="IQ49" s="15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="AU49" s="19" t="s"/>
+      <c r="AV49" s="19" t="s"/>
+      <c r="CQ49" s="19" t="s"/>
+      <c r="CR49" s="19" t="s"/>
+      <c r="EM49" s="19" t="s"/>
+      <c r="EN49" s="19" t="s"/>
+      <c r="GI49" s="19" t="s"/>
+      <c r="GJ49" s="19" t="s"/>
+      <c r="IE49" s="19" t="s"/>
+      <c r="IF49" s="19" t="s"/>
+      <c r="KA49" s="19" t="s"/>
+      <c r="KB49" s="19" t="s"/>
+      <c r="LW49" s="19" t="s"/>
+      <c r="LX49" s="19" t="s"/>
     </row>
     <row r="50" spans="1:338">
       <c r="A50" t="s">
         <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="II50" s="16" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="J50" s="15" t="s"/>
+      <c r="K50" s="15" t="s"/>
+      <c r="L50" s="15" t="s"/>
+      <c r="M50" s="15" t="s"/>
+      <c r="N50" s="15" t="s"/>
+      <c r="O50" s="15" t="s"/>
+      <c r="BF50" s="15" t="s"/>
+      <c r="BG50" s="15" t="s"/>
+      <c r="BH50" s="15" t="s"/>
+      <c r="BI50" s="15" t="s"/>
+      <c r="BJ50" s="15" t="s"/>
+      <c r="BK50" s="15" t="s"/>
+      <c r="DB50" s="15" t="s"/>
+      <c r="DC50" s="15" t="s"/>
+      <c r="DD50" s="15" t="s"/>
+      <c r="DE50" s="15" t="s"/>
+      <c r="DF50" s="15" t="s"/>
+      <c r="DG50" s="15" t="s"/>
+      <c r="EX50" s="15" t="s"/>
+      <c r="EY50" s="15" t="s"/>
+      <c r="EZ50" s="15" t="s"/>
+      <c r="FA50" s="15" t="s"/>
+      <c r="FB50" s="15" t="s"/>
+      <c r="FC50" s="15" t="s"/>
+      <c r="GT50" s="15" t="s"/>
+      <c r="GU50" s="15" t="s"/>
+      <c r="GV50" s="15" t="s"/>
+      <c r="GW50" s="15" t="s"/>
+      <c r="GX50" s="15" t="s"/>
+      <c r="GY50" s="15" t="s"/>
+      <c r="IP50" s="15" t="s"/>
+      <c r="IQ50" s="15" t="s"/>
+      <c r="IR50" s="15" t="s"/>
+      <c r="IS50" s="15" t="s"/>
+      <c r="IT50" s="15" t="s"/>
+      <c r="IU50" s="15" t="s"/>
+      <c r="KL50" s="15" t="s"/>
+      <c r="KM50" s="15" t="s"/>
+      <c r="KN50" s="15" t="s"/>
+      <c r="KO50" s="15" t="s"/>
+      <c r="KP50" s="15" t="s"/>
+      <c r="KQ50" s="15" t="s"/>
     </row>
     <row r="51" spans="1:338">
       <c r="A51" t="s">
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU51" s="17" t="s"/>
-      <c r="AV51" s="17" t="s"/>
-      <c r="AW51" s="17" t="s"/>
-      <c r="CQ51" s="17" t="s"/>
-      <c r="CR51" s="17" t="s"/>
-      <c r="CS51" s="17" t="s"/>
-      <c r="EM51" s="17" t="s"/>
-      <c r="EN51" s="17" t="s"/>
-      <c r="EO51" s="17" t="s"/>
-      <c r="GI51" s="17" t="s"/>
-      <c r="GJ51" s="17" t="s"/>
-      <c r="GK51" s="17" t="s"/>
-      <c r="IE51" s="17" t="s"/>
-      <c r="IF51" s="17" t="s"/>
-      <c r="IG51" s="17" t="s"/>
-      <c r="KA51" s="17" t="s"/>
-      <c r="KB51" s="17" t="s"/>
-      <c r="KC51" s="17" t="s"/>
-      <c r="LW51" s="17" t="s"/>
-      <c r="LX51" s="17" t="s"/>
-      <c r="LY51" s="17" t="s"/>
+        <v>11</v>
+      </c>
+      <c r="II51" s="16" t="s"/>
+      <c r="IJ51" s="16" t="s"/>
+      <c r="IK51" s="16" t="s"/>
+      <c r="IL51" s="16" t="s"/>
+      <c r="IM51" s="16" t="s"/>
+      <c r="IN51" s="16" t="s"/>
+      <c r="IO51" s="16" t="s"/>
+      <c r="IP51" s="16" t="s"/>
+      <c r="IQ51" s="16" t="s"/>
+      <c r="IR51" s="16" t="s"/>
+      <c r="IS51" s="16" t="s"/>
+      <c r="IT51" s="16" t="s"/>
+      <c r="IU51" s="16" t="s"/>
+      <c r="IV51" s="16" t="s"/>
+      <c r="IW51" s="16" t="s"/>
+      <c r="IX51" s="16" t="s"/>
+      <c r="IY51" s="16" t="s"/>
+      <c r="IZ51" s="16" t="s"/>
+      <c r="JA51" s="16" t="s"/>
     </row>
     <row r="52" spans="1:338">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS52" s="15" t="s"/>
-      <c r="AT52" s="15" t="s"/>
-      <c r="CO52" s="15" t="s"/>
-      <c r="CP52" s="15" t="s"/>
-      <c r="EK52" s="15" t="s"/>
-      <c r="EL52" s="15" t="s"/>
-      <c r="GG52" s="15" t="s"/>
-      <c r="GH52" s="15" t="s"/>
-      <c r="IC52" s="15" t="s"/>
-      <c r="ID52" s="15" t="s"/>
-      <c r="LU52" s="15" t="s"/>
-      <c r="LV52" s="15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="C52" s="19" t="s"/>
+      <c r="D52" s="19" t="s"/>
+      <c r="E52" s="19" t="s"/>
+      <c r="F52" s="19" t="s"/>
+      <c r="G52" s="19" t="s"/>
+      <c r="H52" s="19" t="s"/>
+      <c r="I52" s="19" t="s"/>
+      <c r="J52" s="19" t="s"/>
+      <c r="K52" s="19" t="s"/>
+      <c r="L52" s="19" t="s"/>
+      <c r="AU52" s="19" t="s"/>
+      <c r="AV52" s="19" t="s"/>
+      <c r="AW52" s="19" t="s"/>
+      <c r="AX52" s="19" t="s"/>
+      <c r="AY52" s="19" t="s"/>
+      <c r="AZ52" s="19" t="s"/>
+      <c r="BA52" s="19" t="s"/>
+      <c r="BB52" s="19" t="s"/>
+      <c r="BC52" s="19" t="s"/>
+      <c r="BD52" s="19" t="s"/>
+      <c r="BE52" s="19" t="s"/>
+      <c r="BF52" s="19" t="s"/>
+      <c r="BG52" s="19" t="s"/>
+      <c r="BH52" s="19" t="s"/>
+      <c r="CQ52" s="19" t="s"/>
+      <c r="CR52" s="19" t="s"/>
+      <c r="CS52" s="19" t="s"/>
+      <c r="CT52" s="19" t="s"/>
+      <c r="CU52" s="19" t="s"/>
+      <c r="CV52" s="19" t="s"/>
+      <c r="CW52" s="19" t="s"/>
+      <c r="CX52" s="19" t="s"/>
+      <c r="CY52" s="19" t="s"/>
+      <c r="CZ52" s="19" t="s"/>
+      <c r="DA52" s="19" t="s"/>
+      <c r="DB52" s="19" t="s"/>
+      <c r="DC52" s="19" t="s"/>
+      <c r="DD52" s="19" t="s"/>
+      <c r="EM52" s="19" t="s"/>
+      <c r="EN52" s="19" t="s"/>
+      <c r="EO52" s="19" t="s"/>
+      <c r="EP52" s="19" t="s"/>
+      <c r="EQ52" s="19" t="s"/>
+      <c r="ER52" s="19" t="s"/>
+      <c r="ES52" s="19" t="s"/>
+      <c r="ET52" s="19" t="s"/>
+      <c r="EU52" s="19" t="s"/>
+      <c r="EV52" s="19" t="s"/>
+      <c r="EW52" s="19" t="s"/>
+      <c r="EX52" s="19" t="s"/>
+      <c r="EY52" s="19" t="s"/>
+      <c r="EZ52" s="19" t="s"/>
+      <c r="GI52" s="19" t="s"/>
+      <c r="GJ52" s="19" t="s"/>
+      <c r="GK52" s="19" t="s"/>
+      <c r="GL52" s="19" t="s"/>
+      <c r="GM52" s="19" t="s"/>
+      <c r="GN52" s="19" t="s"/>
+      <c r="GO52" s="19" t="s"/>
+      <c r="GP52" s="19" t="s"/>
+      <c r="GQ52" s="19" t="s"/>
+      <c r="GR52" s="19" t="s"/>
+      <c r="GS52" s="19" t="s"/>
+      <c r="GT52" s="19" t="s"/>
+      <c r="GU52" s="19" t="s"/>
+      <c r="GV52" s="19" t="s"/>
+      <c r="IE52" s="19" t="s"/>
+      <c r="IF52" s="19" t="s"/>
+      <c r="IG52" s="19" t="s"/>
+      <c r="IH52" s="19" t="s"/>
+      <c r="II52" s="19" t="s"/>
+      <c r="IJ52" s="19" t="s"/>
+      <c r="IK52" s="19" t="s"/>
+      <c r="IL52" s="19" t="s"/>
+      <c r="IM52" s="19" t="s"/>
+      <c r="IN52" s="19" t="s"/>
+      <c r="IO52" s="19" t="s"/>
+      <c r="IP52" s="19" t="s"/>
+      <c r="IQ52" s="19" t="s"/>
+      <c r="IR52" s="19" t="s"/>
+      <c r="KA52" s="19" t="s"/>
+      <c r="KB52" s="19" t="s"/>
+      <c r="KC52" s="19" t="s"/>
+      <c r="KD52" s="19" t="s"/>
+      <c r="KE52" s="19" t="s"/>
+      <c r="KF52" s="19" t="s"/>
+      <c r="KG52" s="19" t="s"/>
+      <c r="KH52" s="19" t="s"/>
+      <c r="KI52" s="19" t="s"/>
+      <c r="KJ52" s="19" t="s"/>
+      <c r="KK52" s="19" t="s"/>
+      <c r="KL52" s="19" t="s"/>
+      <c r="KM52" s="19" t="s"/>
+      <c r="KN52" s="19" t="s"/>
+      <c r="LW52" s="19" t="s"/>
+      <c r="LX52" s="19" t="s"/>
+      <c r="LY52" s="19" t="s"/>
+      <c r="LZ52" s="19" t="s"/>
     </row>
     <row r="53" spans="1:338">
       <c r="A53" t="s">
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="KD53" s="16" t="s"/>
-      <c r="KE53" s="16" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="AS53" s="15" t="s"/>
+      <c r="AT53" s="15" t="s"/>
+      <c r="CO53" s="15" t="s"/>
+      <c r="CP53" s="15" t="s"/>
+      <c r="EK53" s="15" t="s"/>
+      <c r="EL53" s="15" t="s"/>
+      <c r="GG53" s="15" t="s"/>
+      <c r="GH53" s="15" t="s"/>
+      <c r="IC53" s="15" t="s"/>
+      <c r="ID53" s="15" t="s"/>
+      <c r="LU53" s="15" t="s"/>
+      <c r="LV53" s="15" t="s"/>
     </row>
     <row r="54" spans="1:338">
       <c r="A54" t="s">
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU54" s="17" t="s"/>
-      <c r="AV54" s="17" t="s"/>
-      <c r="CQ54" s="17" t="s"/>
-      <c r="CR54" s="17" t="s"/>
-      <c r="EM54" s="17" t="s"/>
-      <c r="EN54" s="17" t="s"/>
-      <c r="GI54" s="17" t="s"/>
-      <c r="GJ54" s="17" t="s"/>
-      <c r="IE54" s="17" t="s"/>
-      <c r="IF54" s="17" t="s"/>
-      <c r="KA54" s="17" t="s"/>
-      <c r="KB54" s="17" t="s"/>
-      <c r="LW54" s="17" t="s"/>
-      <c r="LX54" s="17" t="s"/>
+        <v>11</v>
+      </c>
+      <c r="KD54" s="16" t="s"/>
+      <c r="KE54" s="16" t="s"/>
     </row>
     <row r="55" spans="1:338">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="15" t="s"/>
-      <c r="E55" s="15" t="s"/>
-      <c r="F55" s="15" t="s"/>
-      <c r="G55" s="15" t="s"/>
-      <c r="AZ55" s="15" t="s"/>
-      <c r="BA55" s="15" t="s"/>
-      <c r="BB55" s="15" t="s"/>
-      <c r="BC55" s="15" t="s"/>
-      <c r="CV55" s="15" t="s"/>
-      <c r="CW55" s="15" t="s"/>
-      <c r="CX55" s="15" t="s"/>
-      <c r="CY55" s="15" t="s"/>
-      <c r="ER55" s="15" t="s"/>
-      <c r="ES55" s="15" t="s"/>
-      <c r="ET55" s="15" t="s"/>
-      <c r="EU55" s="15" t="s"/>
-      <c r="GN55" s="15" t="s"/>
-      <c r="GO55" s="15" t="s"/>
-      <c r="GP55" s="15" t="s"/>
-      <c r="GQ55" s="15" t="s"/>
-      <c r="IJ55" s="15" t="s"/>
-      <c r="IK55" s="15" t="s"/>
-      <c r="IL55" s="15" t="s"/>
-      <c r="IM55" s="15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="AU55" s="19" t="s"/>
+      <c r="AV55" s="19" t="s"/>
+      <c r="CQ55" s="19" t="s"/>
+      <c r="CR55" s="19" t="s"/>
+      <c r="EM55" s="19" t="s"/>
+      <c r="EN55" s="19" t="s"/>
+      <c r="GI55" s="19" t="s"/>
+      <c r="GJ55" s="19" t="s"/>
+      <c r="IE55" s="19" t="s"/>
+      <c r="IF55" s="19" t="s"/>
+      <c r="KA55" s="19" t="s"/>
+      <c r="KB55" s="19" t="s"/>
+      <c r="LW55" s="19" t="s"/>
+      <c r="LX55" s="19" t="s"/>
     </row>
     <row r="56" spans="1:338">
       <c r="A56" t="s">
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
-      </c>
-      <c r="KC56" s="16" t="s"/>
-      <c r="KD56" s="16" t="s"/>
-      <c r="KE56" s="16" t="s"/>
-      <c r="KF56" s="16" t="s"/>
-      <c r="KG56" s="16" t="s"/>
-      <c r="KH56" s="16" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="D56" s="15" t="s"/>
+      <c r="E56" s="15" t="s"/>
+      <c r="F56" s="15" t="s"/>
+      <c r="AZ56" s="15" t="s"/>
+      <c r="BA56" s="15" t="s"/>
+      <c r="BB56" s="15" t="s"/>
+      <c r="CV56" s="15" t="s"/>
+      <c r="CW56" s="15" t="s"/>
+      <c r="CX56" s="15" t="s"/>
+      <c r="ER56" s="15" t="s"/>
+      <c r="ES56" s="15" t="s"/>
+      <c r="ET56" s="15" t="s"/>
+      <c r="GN56" s="15" t="s"/>
+      <c r="GO56" s="15" t="s"/>
+      <c r="GP56" s="15" t="s"/>
+      <c r="IJ56" s="15" t="s"/>
+      <c r="IK56" s="15" t="s"/>
+      <c r="IL56" s="15" t="s"/>
     </row>
     <row r="57" spans="1:338">
       <c r="A57" t="s">
         <v>30</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="17" t="s"/>
-      <c r="AT57" s="17" t="s"/>
-      <c r="AU57" s="17" t="s"/>
-      <c r="AV57" s="17" t="s"/>
-      <c r="AW57" s="17" t="s"/>
-      <c r="AX57" s="17" t="s"/>
-      <c r="AY57" s="17" t="s"/>
-      <c r="CP57" s="17" t="s"/>
-      <c r="CQ57" s="17" t="s"/>
-      <c r="CR57" s="17" t="s"/>
-      <c r="CS57" s="17" t="s"/>
-      <c r="CT57" s="17" t="s"/>
-      <c r="CU57" s="17" t="s"/>
-      <c r="EL57" s="17" t="s"/>
-      <c r="EM57" s="17" t="s"/>
-      <c r="EN57" s="17" t="s"/>
-      <c r="EO57" s="17" t="s"/>
-      <c r="EP57" s="17" t="s"/>
-      <c r="EQ57" s="17" t="s"/>
-      <c r="GH57" s="17" t="s"/>
-      <c r="GI57" s="17" t="s"/>
-      <c r="GJ57" s="17" t="s"/>
-      <c r="GK57" s="17" t="s"/>
-      <c r="GL57" s="17" t="s"/>
-      <c r="GM57" s="17" t="s"/>
-      <c r="ID57" s="17" t="s"/>
-      <c r="IE57" s="17" t="s"/>
-      <c r="IF57" s="17" t="s"/>
-      <c r="IG57" s="17" t="s"/>
-      <c r="IH57" s="17" t="s"/>
-      <c r="II57" s="17" t="s"/>
-      <c r="JZ57" s="17" t="s"/>
-      <c r="KA57" s="17" t="s"/>
-      <c r="KB57" s="17" t="s"/>
-      <c r="KC57" s="17" t="s"/>
-      <c r="KD57" s="17" t="s"/>
-      <c r="KE57" s="17" t="s"/>
-      <c r="LV57" s="17" t="s"/>
-      <c r="LW57" s="17" t="s"/>
-      <c r="LX57" s="17" t="s"/>
-      <c r="LY57" s="17" t="s"/>
-      <c r="LZ57" s="17" t="s"/>
+        <v>11</v>
+      </c>
+      <c r="KC57" s="16" t="s"/>
+      <c r="KD57" s="16" t="s"/>
+      <c r="KE57" s="16" t="s"/>
+      <c r="KF57" s="16" t="s"/>
+      <c r="KG57" s="16" t="s"/>
     </row>
     <row r="58" spans="1:338">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="15" t="s"/>
-      <c r="G58" s="15" t="s"/>
-      <c r="BB58" s="15" t="s"/>
-      <c r="BC58" s="15" t="s"/>
-      <c r="CX58" s="15" t="s"/>
-      <c r="CY58" s="15" t="s"/>
-      <c r="ET58" s="15" t="s"/>
-      <c r="EU58" s="15" t="s"/>
-      <c r="GP58" s="15" t="s"/>
-      <c r="GQ58" s="15" t="s"/>
-      <c r="KH58" s="15" t="s"/>
-      <c r="KI58" s="15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="C58" s="19" t="s"/>
+      <c r="AT58" s="19" t="s"/>
+      <c r="AU58" s="19" t="s"/>
+      <c r="AV58" s="19" t="s"/>
+      <c r="AW58" s="19" t="s"/>
+      <c r="AX58" s="19" t="s"/>
+      <c r="AY58" s="19" t="s"/>
+      <c r="CP58" s="19" t="s"/>
+      <c r="CQ58" s="19" t="s"/>
+      <c r="CR58" s="19" t="s"/>
+      <c r="CS58" s="19" t="s"/>
+      <c r="CT58" s="19" t="s"/>
+      <c r="CU58" s="19" t="s"/>
+      <c r="EL58" s="19" t="s"/>
+      <c r="EM58" s="19" t="s"/>
+      <c r="EN58" s="19" t="s"/>
+      <c r="EO58" s="19" t="s"/>
+      <c r="EP58" s="19" t="s"/>
+      <c r="EQ58" s="19" t="s"/>
+      <c r="GH58" s="19" t="s"/>
+      <c r="GI58" s="19" t="s"/>
+      <c r="GJ58" s="19" t="s"/>
+      <c r="GK58" s="19" t="s"/>
+      <c r="GL58" s="19" t="s"/>
+      <c r="GM58" s="19" t="s"/>
+      <c r="ID58" s="19" t="s"/>
+      <c r="IE58" s="19" t="s"/>
+      <c r="IF58" s="19" t="s"/>
+      <c r="IG58" s="19" t="s"/>
+      <c r="IH58" s="19" t="s"/>
+      <c r="II58" s="19" t="s"/>
+      <c r="JZ58" s="19" t="s"/>
+      <c r="KA58" s="19" t="s"/>
+      <c r="KB58" s="19" t="s"/>
+      <c r="KC58" s="19" t="s"/>
+      <c r="KD58" s="19" t="s"/>
+      <c r="KE58" s="19" t="s"/>
+      <c r="LV58" s="19" t="s"/>
+      <c r="LW58" s="19" t="s"/>
+      <c r="LX58" s="19" t="s"/>
+      <c r="LY58" s="19" t="s"/>
+      <c r="LZ58" s="19" t="s"/>
     </row>
     <row r="59" spans="1:338">
       <c r="A59" t="s">
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="IL59" s="16" t="s"/>
-      <c r="IM59" s="16" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="F59" s="15" t="s"/>
+      <c r="G59" s="15" t="s"/>
+      <c r="BB59" s="15" t="s"/>
+      <c r="BC59" s="15" t="s"/>
+      <c r="CX59" s="15" t="s"/>
+      <c r="CY59" s="15" t="s"/>
+      <c r="ET59" s="15" t="s"/>
+      <c r="EU59" s="15" t="s"/>
+      <c r="GP59" s="15" t="s"/>
+      <c r="GQ59" s="15" t="s"/>
+      <c r="KH59" s="15" t="s"/>
+      <c r="KI59" s="15" t="s"/>
     </row>
     <row r="60" spans="1:338">
       <c r="A60" t="s">
         <v>31</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="AW60" s="17" t="s"/>
-      <c r="AX60" s="17" t="s"/>
-      <c r="CS60" s="17" t="s"/>
-      <c r="CT60" s="17" t="s"/>
-      <c r="EO60" s="17" t="s"/>
-      <c r="EP60" s="17" t="s"/>
-      <c r="GK60" s="17" t="s"/>
-      <c r="GL60" s="17" t="s"/>
-      <c r="IG60" s="17" t="s"/>
-      <c r="IH60" s="17" t="s"/>
-      <c r="KC60" s="17" t="s"/>
-      <c r="KD60" s="17" t="s"/>
-      <c r="LY60" s="17" t="s"/>
-      <c r="LZ60" s="17" t="s"/>
+        <v>11</v>
+      </c>
+      <c r="IL60" s="16" t="s"/>
+      <c r="IM60" s="16" t="s"/>
     </row>
     <row r="61" spans="1:338">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="L61" s="15" t="s"/>
-      <c r="M61" s="15" t="s"/>
-      <c r="N61" s="15" t="s"/>
-      <c r="O61" s="15" t="s"/>
-      <c r="BH61" s="15" t="s"/>
-      <c r="BI61" s="15" t="s"/>
-      <c r="BJ61" s="15" t="s"/>
-      <c r="BK61" s="15" t="s"/>
-      <c r="DD61" s="15" t="s"/>
-      <c r="DE61" s="15" t="s"/>
-      <c r="DF61" s="15" t="s"/>
-      <c r="DG61" s="15" t="s"/>
-      <c r="EZ61" s="15" t="s"/>
-      <c r="FA61" s="15" t="s"/>
-      <c r="FB61" s="15" t="s"/>
-      <c r="FC61" s="15" t="s"/>
-      <c r="GV61" s="15" t="s"/>
-      <c r="GW61" s="15" t="s"/>
-      <c r="GX61" s="15" t="s"/>
-      <c r="GY61" s="15" t="s"/>
-      <c r="KN61" s="15" t="s"/>
-      <c r="KO61" s="15" t="s"/>
-      <c r="KP61" s="15" t="s"/>
-      <c r="KQ61" s="15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="AW61" s="19" t="s"/>
+      <c r="AX61" s="19" t="s"/>
+      <c r="CS61" s="19" t="s"/>
+      <c r="CT61" s="19" t="s"/>
+      <c r="EO61" s="19" t="s"/>
+      <c r="EP61" s="19" t="s"/>
+      <c r="GK61" s="19" t="s"/>
+      <c r="GL61" s="19" t="s"/>
+      <c r="IG61" s="19" t="s"/>
+      <c r="IH61" s="19" t="s"/>
+      <c r="KC61" s="19" t="s"/>
+      <c r="KD61" s="19" t="s"/>
+      <c r="LY61" s="19" t="s"/>
+      <c r="LZ61" s="19" t="s"/>
     </row>
     <row r="62" spans="1:338">
       <c r="A62" t="s">
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
-      </c>
-      <c r="IJ62" s="16" t="s"/>
-      <c r="IK62" s="16" t="s"/>
-      <c r="IL62" s="16" t="s"/>
-      <c r="IM62" s="16" t="s"/>
-      <c r="IN62" s="16" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="L62" s="15" t="s"/>
+      <c r="M62" s="15" t="s"/>
+      <c r="BH62" s="15" t="s"/>
+      <c r="BI62" s="15" t="s"/>
+      <c r="DD62" s="15" t="s"/>
+      <c r="DE62" s="15" t="s"/>
+      <c r="EZ62" s="15" t="s"/>
+      <c r="FA62" s="15" t="s"/>
+      <c r="GV62" s="15" t="s"/>
+      <c r="GW62" s="15" t="s"/>
+      <c r="KN62" s="15" t="s"/>
+      <c r="KO62" s="15" t="s"/>
     </row>
     <row r="63" spans="1:338">
       <c r="A63" t="s">
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU63" s="17" t="s"/>
-      <c r="AV63" s="17" t="s"/>
-      <c r="CQ63" s="17" t="s"/>
-      <c r="CR63" s="17" t="s"/>
-      <c r="EM63" s="17" t="s"/>
-      <c r="EN63" s="17" t="s"/>
-      <c r="GI63" s="17" t="s"/>
-      <c r="GJ63" s="17" t="s"/>
-      <c r="KA63" s="17" t="s"/>
-      <c r="KB63" s="17" t="s"/>
-      <c r="LW63" s="17" t="s"/>
-      <c r="LX63" s="17" t="s"/>
+        <v>11</v>
+      </c>
+      <c r="IJ63" s="16" t="s"/>
+      <c r="IK63" s="16" t="s"/>
+      <c r="IL63" s="16" t="s"/>
+      <c r="IM63" s="16" t="s"/>
     </row>
     <row r="64" spans="1:338">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="15" t="s"/>
-      <c r="D64" s="15" t="s"/>
-      <c r="AY64" s="15" t="s"/>
-      <c r="AZ64" s="15" t="s"/>
-      <c r="CU64" s="15" t="s"/>
-      <c r="CV64" s="15" t="s"/>
-      <c r="EQ64" s="15" t="s"/>
-      <c r="ER64" s="15" t="s"/>
-      <c r="GM64" s="15" t="s"/>
-      <c r="GN64" s="15" t="s"/>
-      <c r="II64" s="15" t="s"/>
-      <c r="IJ64" s="15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="AU64" s="19" t="s"/>
+      <c r="AV64" s="19" t="s"/>
+      <c r="CQ64" s="19" t="s"/>
+      <c r="CR64" s="19" t="s"/>
+      <c r="EM64" s="19" t="s"/>
+      <c r="EN64" s="19" t="s"/>
+      <c r="GI64" s="19" t="s"/>
+      <c r="GJ64" s="19" t="s"/>
+      <c r="KA64" s="19" t="s"/>
+      <c r="KB64" s="19" t="s"/>
+      <c r="LW64" s="19" t="s"/>
+      <c r="LX64" s="19" t="s"/>
     </row>
     <row r="65" spans="1:338">
       <c r="A65" t="s">
         <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
-      </c>
-      <c r="KD65" s="16" t="s"/>
-      <c r="KE65" s="16" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="C65" s="15" t="s"/>
+      <c r="D65" s="15" t="s"/>
+      <c r="AY65" s="15" t="s"/>
+      <c r="AZ65" s="15" t="s"/>
+      <c r="CU65" s="15" t="s"/>
+      <c r="CV65" s="15" t="s"/>
+      <c r="EQ65" s="15" t="s"/>
+      <c r="ER65" s="15" t="s"/>
+      <c r="GM65" s="15" t="s"/>
+      <c r="GN65" s="15" t="s"/>
+      <c r="II65" s="15" t="s"/>
+      <c r="IJ65" s="15" t="s"/>
     </row>
     <row r="66" spans="1:338">
       <c r="A66" t="s">
         <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU66" s="17" t="s"/>
-      <c r="AV66" s="17" t="s"/>
-      <c r="CQ66" s="17" t="s"/>
-      <c r="CR66" s="17" t="s"/>
-      <c r="EM66" s="17" t="s"/>
-      <c r="EN66" s="17" t="s"/>
-      <c r="GI66" s="17" t="s"/>
-      <c r="GJ66" s="17" t="s"/>
-      <c r="IE66" s="17" t="s"/>
-      <c r="IF66" s="17" t="s"/>
-      <c r="KA66" s="17" t="s"/>
-      <c r="KB66" s="17" t="s"/>
-      <c r="LW66" s="17" t="s"/>
-      <c r="LX66" s="17" t="s"/>
+        <v>11</v>
+      </c>
+      <c r="KD66" s="16" t="s"/>
+      <c r="KE66" s="16" t="s"/>
     </row>
     <row r="67" spans="1:338">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="15" t="s"/>
-      <c r="AX67" s="15" t="s"/>
-      <c r="AY67" s="15" t="s"/>
-      <c r="CT67" s="15" t="s"/>
-      <c r="CU67" s="15" t="s"/>
-      <c r="EP67" s="15" t="s"/>
-      <c r="EQ67" s="15" t="s"/>
-      <c r="GL67" s="15" t="s"/>
-      <c r="GM67" s="15" t="s"/>
-      <c r="IH67" s="15" t="s"/>
-      <c r="II67" s="15" t="s"/>
-      <c r="LZ67" s="15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="AU67" s="19" t="s"/>
+      <c r="AV67" s="19" t="s"/>
+      <c r="CQ67" s="19" t="s"/>
+      <c r="CR67" s="19" t="s"/>
+      <c r="EM67" s="19" t="s"/>
+      <c r="EN67" s="19" t="s"/>
+      <c r="GI67" s="19" t="s"/>
+      <c r="GJ67" s="19" t="s"/>
+      <c r="IE67" s="19" t="s"/>
+      <c r="IF67" s="19" t="s"/>
+      <c r="KA67" s="19" t="s"/>
+      <c r="KB67" s="19" t="s"/>
+      <c r="LW67" s="19" t="s"/>
+      <c r="LX67" s="19" t="s"/>
     </row>
     <row r="68" spans="1:338">
       <c r="A68" t="s">
         <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
-      </c>
-      <c r="KD68" s="16" t="s"/>
-      <c r="KE68" s="16" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="C68" s="15" t="s"/>
+      <c r="AX68" s="15" t="s"/>
+      <c r="AY68" s="15" t="s"/>
+      <c r="CT68" s="15" t="s"/>
+      <c r="CU68" s="15" t="s"/>
+      <c r="EP68" s="15" t="s"/>
+      <c r="EQ68" s="15" t="s"/>
+      <c r="GL68" s="15" t="s"/>
+      <c r="GM68" s="15" t="s"/>
+      <c r="IH68" s="15" t="s"/>
+      <c r="II68" s="15" t="s"/>
+      <c r="LZ68" s="15" t="s"/>
     </row>
     <row r="69" spans="1:338">
       <c r="A69" t="s">
         <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="17" t="s"/>
-      <c r="H69" s="17" t="s"/>
-      <c r="BC69" s="17" t="s"/>
-      <c r="BD69" s="17" t="s"/>
-      <c r="CY69" s="17" t="s"/>
-      <c r="CZ69" s="17" t="s"/>
-      <c r="EU69" s="17" t="s"/>
-      <c r="EV69" s="17" t="s"/>
-      <c r="GQ69" s="17" t="s"/>
-      <c r="GR69" s="17" t="s"/>
-      <c r="IM69" s="17" t="s"/>
-      <c r="IN69" s="17" t="s"/>
-      <c r="KI69" s="17" t="s"/>
-      <c r="KJ69" s="17" t="s"/>
+        <v>11</v>
+      </c>
+      <c r="KD69" s="16" t="s"/>
+      <c r="KE69" s="16" t="s"/>
     </row>
     <row r="70" spans="1:338">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="15" t="s"/>
-      <c r="CT70" s="15" t="s"/>
-      <c r="CU70" s="15" t="s"/>
-      <c r="EP70" s="15" t="s"/>
-      <c r="EQ70" s="15" t="s"/>
-      <c r="GL70" s="15" t="s"/>
-      <c r="GM70" s="15" t="s"/>
-      <c r="IH70" s="15" t="s"/>
-      <c r="II70" s="15" t="s"/>
-      <c r="KD70" s="15" t="s"/>
-      <c r="KE70" s="15" t="s"/>
-      <c r="LZ70" s="15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" s="19" t="s"/>
+      <c r="H70" s="19" t="s"/>
+      <c r="BC70" s="19" t="s"/>
+      <c r="BD70" s="19" t="s"/>
+      <c r="CY70" s="19" t="s"/>
+      <c r="CZ70" s="19" t="s"/>
+      <c r="EU70" s="19" t="s"/>
+      <c r="EV70" s="19" t="s"/>
+      <c r="GQ70" s="19" t="s"/>
+      <c r="GR70" s="19" t="s"/>
+      <c r="IM70" s="19" t="s"/>
+      <c r="IN70" s="19" t="s"/>
+      <c r="KI70" s="19" t="s"/>
+      <c r="KJ70" s="19" t="s"/>
     </row>
     <row r="71" spans="1:338">
       <c r="A71" t="s">
         <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW71" s="16" t="s"/>
-      <c r="AX71" s="16" t="s"/>
-      <c r="AY71" s="16" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="C71" s="15" t="s"/>
+      <c r="D71" s="15" t="s"/>
+      <c r="CT71" s="15" t="s"/>
+      <c r="CU71" s="15" t="s"/>
+      <c r="CV71" s="15" t="s"/>
+      <c r="EP71" s="15" t="s"/>
+      <c r="EQ71" s="15" t="s"/>
+      <c r="ER71" s="15" t="s"/>
+      <c r="GL71" s="15" t="s"/>
+      <c r="GM71" s="15" t="s"/>
+      <c r="GN71" s="15" t="s"/>
+      <c r="IH71" s="15" t="s"/>
+      <c r="II71" s="15" t="s"/>
+      <c r="IJ71" s="15" t="s"/>
+      <c r="KD71" s="15" t="s"/>
+      <c r="KE71" s="15" t="s"/>
+      <c r="KF71" s="15" t="s"/>
+      <c r="LZ71" s="15" t="s"/>
     </row>
     <row r="72" spans="1:338">
       <c r="A72" t="s">
         <v>35</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="17" t="s"/>
-      <c r="H72" s="17" t="s"/>
-      <c r="BC72" s="17" t="s"/>
-      <c r="BD72" s="17" t="s"/>
-      <c r="CY72" s="17" t="s"/>
-      <c r="CZ72" s="17" t="s"/>
-      <c r="EU72" s="17" t="s"/>
-      <c r="EV72" s="17" t="s"/>
-      <c r="GQ72" s="17" t="s"/>
-      <c r="GR72" s="17" t="s"/>
-      <c r="IM72" s="17" t="s"/>
-      <c r="IN72" s="17" t="s"/>
-      <c r="KI72" s="17" t="s"/>
-      <c r="KJ72" s="17" t="s"/>
+        <v>11</v>
+      </c>
+      <c r="AW72" s="16" t="s"/>
+      <c r="AX72" s="16" t="s"/>
+      <c r="AY72" s="16" t="s"/>
+      <c r="AZ72" s="16" t="s"/>
+      <c r="BA72" s="16" t="s"/>
+      <c r="BB72" s="16" t="s"/>
     </row>
     <row r="73" spans="1:338">
       <c r="A73" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="15" t="s"/>
-      <c r="G73" s="15" t="s"/>
-      <c r="BB73" s="15" t="s"/>
-      <c r="BC73" s="15" t="s"/>
-      <c r="CX73" s="15" t="s"/>
-      <c r="CY73" s="15" t="s"/>
-      <c r="ET73" s="15" t="s"/>
-      <c r="EU73" s="15" t="s"/>
-      <c r="GP73" s="15" t="s"/>
-      <c r="GQ73" s="15" t="s"/>
-      <c r="IL73" s="15" t="s"/>
-      <c r="IM73" s="15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" s="19" t="s"/>
+      <c r="H73" s="19" t="s"/>
+      <c r="BC73" s="19" t="s"/>
+      <c r="BD73" s="19" t="s"/>
+      <c r="CY73" s="19" t="s"/>
+      <c r="CZ73" s="19" t="s"/>
+      <c r="EU73" s="19" t="s"/>
+      <c r="EV73" s="19" t="s"/>
+      <c r="GQ73" s="19" t="s"/>
+      <c r="GR73" s="19" t="s"/>
+      <c r="IM73" s="19" t="s"/>
+      <c r="IN73" s="19" t="s"/>
+      <c r="KI73" s="19" t="s"/>
+      <c r="KJ73" s="19" t="s"/>
     </row>
     <row r="74" spans="1:338">
       <c r="A74" t="s">
         <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
-      </c>
-      <c r="KC74" s="16" t="s"/>
-      <c r="KD74" s="16" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="F74" s="15" t="s"/>
+      <c r="G74" s="15" t="s"/>
+      <c r="BB74" s="15" t="s"/>
+      <c r="BC74" s="15" t="s"/>
+      <c r="CX74" s="15" t="s"/>
+      <c r="CY74" s="15" t="s"/>
+      <c r="ET74" s="15" t="s"/>
+      <c r="EU74" s="15" t="s"/>
+      <c r="GP74" s="15" t="s"/>
+      <c r="GQ74" s="15" t="s"/>
+      <c r="IL74" s="15" t="s"/>
+      <c r="IM74" s="15" t="s"/>
     </row>
     <row r="75" spans="1:338">
       <c r="A75" t="s">
         <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="17" t="s"/>
-      <c r="J75" s="17" t="s"/>
-      <c r="BE75" s="17" t="s"/>
-      <c r="BF75" s="17" t="s"/>
-      <c r="DA75" s="17" t="s"/>
-      <c r="DB75" s="17" t="s"/>
-      <c r="EW75" s="17" t="s"/>
-      <c r="EX75" s="17" t="s"/>
-      <c r="GS75" s="17" t="s"/>
-      <c r="GT75" s="17" t="s"/>
-      <c r="IO75" s="17" t="s"/>
-      <c r="IP75" s="17" t="s"/>
+        <v>11</v>
+      </c>
+      <c r="KC75" s="16" t="s"/>
+      <c r="KD75" s="16" t="s"/>
     </row>
     <row r="76" spans="1:338">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="15" t="s"/>
-      <c r="BB76" s="15" t="s"/>
-      <c r="CX76" s="15" t="s"/>
-      <c r="ET76" s="15" t="s"/>
-      <c r="GP76" s="15" t="s"/>
-      <c r="IL76" s="15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="I76" s="19" t="s"/>
+      <c r="J76" s="19" t="s"/>
+      <c r="BE76" s="19" t="s"/>
+      <c r="BF76" s="19" t="s"/>
+      <c r="DA76" s="19" t="s"/>
+      <c r="DB76" s="19" t="s"/>
+      <c r="EW76" s="19" t="s"/>
+      <c r="EX76" s="19" t="s"/>
+      <c r="GS76" s="19" t="s"/>
+      <c r="GT76" s="19" t="s"/>
+      <c r="IO76" s="19" t="s"/>
+      <c r="IP76" s="19" t="s"/>
     </row>
     <row r="77" spans="1:338">
       <c r="A77" t="s">
         <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
-      </c>
-      <c r="KC77" s="16" t="s"/>
-      <c r="KD77" s="16" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="F77" s="15" t="s"/>
+      <c r="BB77" s="15" t="s"/>
+      <c r="CX77" s="15" t="s"/>
+      <c r="ET77" s="15" t="s"/>
+      <c r="GP77" s="15" t="s"/>
+      <c r="IL77" s="15" t="s"/>
     </row>
     <row r="78" spans="1:338">
       <c r="A78" t="s">
         <v>36</v>
       </c>
       <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="KC78" s="16" t="s"/>
+      <c r="KD78" s="16" t="s"/>
+    </row>
+    <row r="79" spans="1:338">
+      <c r="A79" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" t="s">
         <v>12</v>
       </c>
-      <c r="I78" s="17" t="s"/>
-      <c r="J78" s="17" t="s"/>
-      <c r="BE78" s="17" t="s"/>
-      <c r="BF78" s="17" t="s"/>
-      <c r="DA78" s="17" t="s"/>
-      <c r="DB78" s="17" t="s"/>
-      <c r="EW78" s="17" t="s"/>
-      <c r="EX78" s="17" t="s"/>
-      <c r="GS78" s="17" t="s"/>
-      <c r="GT78" s="17" t="s"/>
-      <c r="KK78" s="17" t="s"/>
-      <c r="KL78" s="17" t="s"/>
+      <c r="I79" s="19" t="s"/>
+      <c r="J79" s="19" t="s"/>
+      <c r="BE79" s="19" t="s"/>
+      <c r="BF79" s="19" t="s"/>
+      <c r="DA79" s="19" t="s"/>
+      <c r="DB79" s="19" t="s"/>
+      <c r="EW79" s="19" t="s"/>
+      <c r="EX79" s="19" t="s"/>
+      <c r="GS79" s="19" t="s"/>
+      <c r="GT79" s="19" t="s"/>
+      <c r="KK79" s="19" t="s"/>
+      <c r="KL79" s="19" t="s"/>
+    </row>
+    <row r="80" spans="1:338">
+      <c r="A80" t="s">
+        <v>37</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="15" t="s"/>
+      <c r="F80" s="15" t="s"/>
+      <c r="BA80" s="15" t="s"/>
+      <c r="BB80" s="15" t="s"/>
+      <c r="CW80" s="15" t="s"/>
+      <c r="CX80" s="15" t="s"/>
+      <c r="ES80" s="15" t="s"/>
+      <c r="ET80" s="15" t="s"/>
+      <c r="GO80" s="15" t="s"/>
+      <c r="GP80" s="15" t="s"/>
+      <c r="IK80" s="15" t="s"/>
+      <c r="IL80" s="15" t="s"/>
+      <c r="KG80" s="15" t="s"/>
+      <c r="KH80" s="15" t="s"/>
+    </row>
+    <row r="81" spans="1:338">
+      <c r="A81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="IE81" s="16" t="s"/>
+      <c r="IF81" s="16" t="s"/>
+      <c r="IG81" s="16" t="s"/>
+      <c r="IH81" s="16" t="s"/>
+      <c r="II81" s="16" t="s"/>
+      <c r="IJ81" s="16" t="s"/>
+    </row>
+    <row r="82" spans="1:338">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="19" t="s"/>
+      <c r="J82" s="19" t="s"/>
+      <c r="K82" s="19" t="s"/>
+      <c r="L82" s="19" t="s"/>
+      <c r="M82" s="19" t="s"/>
+      <c r="BE82" s="19" t="s"/>
+      <c r="BF82" s="19" t="s"/>
+      <c r="BG82" s="19" t="s"/>
+      <c r="BH82" s="19" t="s"/>
+      <c r="BI82" s="19" t="s"/>
+      <c r="DA82" s="19" t="s"/>
+      <c r="DB82" s="19" t="s"/>
+      <c r="DC82" s="19" t="s"/>
+      <c r="DD82" s="19" t="s"/>
+      <c r="DE82" s="19" t="s"/>
+      <c r="EW82" s="19" t="s"/>
+      <c r="EX82" s="19" t="s"/>
+      <c r="EY82" s="19" t="s"/>
+      <c r="EZ82" s="19" t="s"/>
+      <c r="FA82" s="19" t="s"/>
+      <c r="GS82" s="19" t="s"/>
+      <c r="GT82" s="19" t="s"/>
+      <c r="GU82" s="19" t="s"/>
+      <c r="GV82" s="19" t="s"/>
+      <c r="GW82" s="19" t="s"/>
+      <c r="IO82" s="19" t="s"/>
+      <c r="IP82" s="19" t="s"/>
+      <c r="IQ82" s="19" t="s"/>
+      <c r="IR82" s="19" t="s"/>
+      <c r="IS82" s="19" t="s"/>
+      <c r="KK82" s="19" t="s"/>
+      <c r="KL82" s="19" t="s"/>
+      <c r="KM82" s="19" t="s"/>
+      <c r="KN82" s="19" t="s"/>
+      <c r="KO82" s="19" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="175">

--- a/SQL Backup report/report.xlsx
+++ b/SQL Backup report/report.xlsx
@@ -256,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -278,13 +278,14 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="3" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="4" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="5" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,30 +1137,42 @@
         <v>10</v>
       </c>
       <c r="C4" s="12" t="n"/>
-      <c r="AU4" s="15" t="s"/>
-      <c r="AV4" s="15" t="s"/>
+      <c r="AM4" s="15" t="s"/>
+      <c r="AN4" s="15" t="s"/>
+      <c r="AO4" s="15" t="s"/>
+      <c r="AP4" s="15" t="s"/>
       <c r="AX4" s="13" t="n"/>
       <c r="AY4" s="12" t="n"/>
-      <c r="CQ4" s="15" t="s"/>
-      <c r="CR4" s="15" t="s"/>
+      <c r="CI4" s="15" t="s"/>
+      <c r="CJ4" s="15" t="s"/>
+      <c r="CK4" s="15" t="s"/>
+      <c r="CL4" s="15" t="s"/>
       <c r="CT4" s="13" t="n"/>
       <c r="CU4" s="12" t="n"/>
-      <c r="EM4" s="15" t="s"/>
-      <c r="EN4" s="15" t="s"/>
+      <c r="EE4" s="15" t="s"/>
+      <c r="EF4" s="15" t="s"/>
+      <c r="EG4" s="15" t="s"/>
+      <c r="EH4" s="15" t="s"/>
       <c r="EP4" s="13" t="n"/>
       <c r="EQ4" s="12" t="n"/>
-      <c r="GI4" s="15" t="s"/>
-      <c r="GJ4" s="15" t="s"/>
+      <c r="GA4" s="15" t="s"/>
+      <c r="GB4" s="15" t="s"/>
+      <c r="GC4" s="15" t="s"/>
+      <c r="GD4" s="15" t="s"/>
       <c r="GL4" s="13" t="n"/>
       <c r="GM4" s="12" t="n"/>
-      <c r="IE4" s="15" t="s"/>
-      <c r="IF4" s="15" t="s"/>
+      <c r="HW4" s="15" t="s"/>
+      <c r="HX4" s="15" t="s"/>
+      <c r="HY4" s="15" t="s"/>
+      <c r="HZ4" s="15" t="s"/>
       <c r="IH4" s="13" t="n"/>
       <c r="II4" s="12" t="n"/>
       <c r="KD4" s="13" t="n"/>
       <c r="KE4" s="12" t="n"/>
-      <c r="LW4" s="15" t="s"/>
-      <c r="LX4" s="15" t="s"/>
+      <c r="LO4" s="15" t="s"/>
+      <c r="LP4" s="15" t="s"/>
+      <c r="LQ4" s="15" t="s"/>
+      <c r="LR4" s="15" t="s"/>
       <c r="LZ4" s="13" t="n"/>
     </row>
     <row r="5" s="11" spans="1:338">
@@ -1180,13 +1193,14 @@
       <c r="GM5" s="12" t="n"/>
       <c r="IH5" s="13" t="n"/>
       <c r="II5" s="12" t="n"/>
-      <c r="JZ5" s="16" t="s"/>
-      <c r="KA5" s="16" t="s"/>
-      <c r="KB5" s="16" t="s"/>
-      <c r="KC5" s="16" t="s"/>
-      <c r="KD5" s="17" t="s"/>
-      <c r="KE5" s="18" t="s"/>
-      <c r="KF5" s="16" t="s"/>
+      <c r="JS5" s="16" t="s"/>
+      <c r="JT5" s="16" t="s"/>
+      <c r="JU5" s="16" t="s"/>
+      <c r="JV5" s="16" t="s"/>
+      <c r="JW5" s="16" t="s"/>
+      <c r="JX5" s="16" t="s"/>
+      <c r="KD5" s="13" t="n"/>
+      <c r="KE5" s="12" t="n"/>
       <c r="LZ5" s="13" t="n"/>
     </row>
     <row r="6" s="11" spans="1:338">
@@ -1196,41 +1210,55 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12" t="n"/>
-      <c r="G6" s="19" t="s"/>
-      <c r="H6" s="19" t="s"/>
-      <c r="I6" s="19" t="s"/>
-      <c r="AX6" s="13" t="n"/>
-      <c r="AY6" s="12" t="n"/>
-      <c r="BC6" s="19" t="s"/>
-      <c r="BD6" s="19" t="s"/>
-      <c r="BE6" s="19" t="s"/>
-      <c r="CT6" s="13" t="n"/>
-      <c r="CU6" s="12" t="n"/>
-      <c r="CY6" s="19" t="s"/>
-      <c r="CZ6" s="19" t="s"/>
-      <c r="DA6" s="19" t="s"/>
-      <c r="EP6" s="13" t="n"/>
-      <c r="EQ6" s="12" t="n"/>
-      <c r="EU6" s="19" t="s"/>
-      <c r="EV6" s="19" t="s"/>
-      <c r="EW6" s="19" t="s"/>
-      <c r="GL6" s="13" t="n"/>
-      <c r="GM6" s="12" t="n"/>
-      <c r="GQ6" s="19" t="s"/>
-      <c r="GR6" s="19" t="s"/>
-      <c r="GS6" s="19" t="s"/>
-      <c r="IH6" s="13" t="n"/>
-      <c r="II6" s="12" t="n"/>
-      <c r="IM6" s="19" t="s"/>
-      <c r="IN6" s="19" t="s"/>
-      <c r="IO6" s="19" t="s"/>
-      <c r="KD6" s="13" t="n"/>
-      <c r="KE6" s="12" t="n"/>
-      <c r="KI6" s="19" t="s"/>
-      <c r="KJ6" s="19" t="s"/>
-      <c r="KK6" s="19" t="s"/>
-      <c r="LZ6" s="13" t="n"/>
+      <c r="C6" s="17" t="s"/>
+      <c r="D6" s="18" t="s"/>
+      <c r="E6" s="18" t="s"/>
+      <c r="F6" s="18" t="s"/>
+      <c r="G6" s="18" t="s"/>
+      <c r="AW6" s="18" t="s"/>
+      <c r="AX6" s="19" t="s"/>
+      <c r="AY6" s="17" t="s"/>
+      <c r="AZ6" s="18" t="s"/>
+      <c r="BA6" s="18" t="s"/>
+      <c r="BB6" s="18" t="s"/>
+      <c r="BC6" s="18" t="s"/>
+      <c r="CS6" s="18" t="s"/>
+      <c r="CT6" s="19" t="s"/>
+      <c r="CU6" s="17" t="s"/>
+      <c r="CV6" s="18" t="s"/>
+      <c r="CW6" s="18" t="s"/>
+      <c r="CX6" s="18" t="s"/>
+      <c r="CY6" s="18" t="s"/>
+      <c r="EO6" s="18" t="s"/>
+      <c r="EP6" s="19" t="s"/>
+      <c r="EQ6" s="17" t="s"/>
+      <c r="ER6" s="18" t="s"/>
+      <c r="ES6" s="18" t="s"/>
+      <c r="ET6" s="18" t="s"/>
+      <c r="EU6" s="18" t="s"/>
+      <c r="GK6" s="18" t="s"/>
+      <c r="GL6" s="19" t="s"/>
+      <c r="GM6" s="17" t="s"/>
+      <c r="GN6" s="18" t="s"/>
+      <c r="GO6" s="18" t="s"/>
+      <c r="GP6" s="18" t="s"/>
+      <c r="GQ6" s="18" t="s"/>
+      <c r="IG6" s="18" t="s"/>
+      <c r="IH6" s="19" t="s"/>
+      <c r="II6" s="17" t="s"/>
+      <c r="IJ6" s="18" t="s"/>
+      <c r="IK6" s="18" t="s"/>
+      <c r="IL6" s="18" t="s"/>
+      <c r="IM6" s="18" t="s"/>
+      <c r="KC6" s="18" t="s"/>
+      <c r="KD6" s="19" t="s"/>
+      <c r="KE6" s="17" t="s"/>
+      <c r="KF6" s="18" t="s"/>
+      <c r="KG6" s="18" t="s"/>
+      <c r="KH6" s="18" t="s"/>
+      <c r="KI6" s="18" t="s"/>
+      <c r="LY6" s="18" t="s"/>
+      <c r="LZ6" s="19" t="s"/>
     </row>
     <row r="7" s="11" spans="1:338">
       <c r="A7" t="s">
@@ -1242,26 +1270,44 @@
       <c r="C7" s="20" t="s"/>
       <c r="D7" s="15" t="s"/>
       <c r="E7" s="15" t="s"/>
+      <c r="F7" s="15" t="s"/>
+      <c r="G7" s="15" t="s"/>
+      <c r="H7" s="15" t="s"/>
       <c r="AX7" s="21" t="s"/>
       <c r="AY7" s="20" t="s"/>
       <c r="AZ7" s="15" t="s"/>
       <c r="BA7" s="15" t="s"/>
+      <c r="BB7" s="15" t="s"/>
+      <c r="BC7" s="15" t="s"/>
+      <c r="BD7" s="15" t="s"/>
       <c r="CT7" s="21" t="s"/>
       <c r="CU7" s="20" t="s"/>
       <c r="CV7" s="15" t="s"/>
       <c r="CW7" s="15" t="s"/>
+      <c r="CX7" s="15" t="s"/>
+      <c r="CY7" s="15" t="s"/>
+      <c r="CZ7" s="15" t="s"/>
       <c r="EP7" s="21" t="s"/>
       <c r="EQ7" s="20" t="s"/>
       <c r="ER7" s="15" t="s"/>
       <c r="ES7" s="15" t="s"/>
+      <c r="ET7" s="15" t="s"/>
+      <c r="EU7" s="15" t="s"/>
+      <c r="EV7" s="15" t="s"/>
       <c r="GL7" s="21" t="s"/>
       <c r="GM7" s="20" t="s"/>
       <c r="GN7" s="15" t="s"/>
       <c r="GO7" s="15" t="s"/>
+      <c r="GP7" s="15" t="s"/>
+      <c r="GQ7" s="15" t="s"/>
+      <c r="GR7" s="15" t="s"/>
       <c r="IH7" s="21" t="s"/>
       <c r="II7" s="20" t="s"/>
       <c r="IJ7" s="15" t="s"/>
       <c r="IK7" s="15" t="s"/>
+      <c r="IL7" s="15" t="s"/>
+      <c r="IM7" s="15" t="s"/>
+      <c r="IN7" s="15" t="s"/>
       <c r="KD7" s="13" t="n"/>
       <c r="KE7" s="12" t="n"/>
       <c r="LZ7" s="21" t="s"/>
@@ -1287,8 +1333,8 @@
       <c r="KA8" s="16" t="s"/>
       <c r="KB8" s="16" t="s"/>
       <c r="KC8" s="16" t="s"/>
-      <c r="KD8" s="17" t="s"/>
-      <c r="KE8" s="18" t="s"/>
+      <c r="KD8" s="22" t="s"/>
+      <c r="KE8" s="23" t="s"/>
       <c r="KF8" s="16" t="s"/>
       <c r="KG8" s="16" t="s"/>
       <c r="KH8" s="16" t="s"/>
@@ -1298,6 +1344,11 @@
       <c r="KL8" s="16" t="s"/>
       <c r="KM8" s="16" t="s"/>
       <c r="KN8" s="16" t="s"/>
+      <c r="KO8" s="16" t="s"/>
+      <c r="KP8" s="16" t="s"/>
+      <c r="KQ8" s="16" t="s"/>
+      <c r="KR8" s="16" t="s"/>
+      <c r="KS8" s="16" t="s"/>
       <c r="LZ8" s="13" t="n"/>
     </row>
     <row r="9" s="11" spans="1:338">
@@ -1308,60 +1359,65 @@
         <v>12</v>
       </c>
       <c r="C9" s="12" t="n"/>
-      <c r="K9" s="19" t="s"/>
-      <c r="L9" s="22" t="s"/>
-      <c r="M9" s="22" t="s"/>
-      <c r="N9" s="22" t="s"/>
-      <c r="O9" s="22" t="s"/>
-      <c r="P9" s="22" t="s"/>
-      <c r="Q9" s="22" t="s"/>
-      <c r="R9" s="14" t="n"/>
+      <c r="K9" s="18" t="s"/>
+      <c r="L9" s="24" t="s"/>
+      <c r="M9" s="24" t="s"/>
+      <c r="N9" s="24" t="s"/>
+      <c r="O9" s="24" t="s"/>
+      <c r="P9" s="24" t="s"/>
+      <c r="Q9" s="24" t="s"/>
+      <c r="R9" s="24" t="s"/>
       <c r="S9" s="14" t="n"/>
       <c r="AX9" s="13" t="n"/>
       <c r="AY9" s="12" t="n"/>
-      <c r="BG9" s="19" t="s"/>
-      <c r="BH9" s="19" t="s"/>
-      <c r="BI9" s="19" t="s"/>
-      <c r="BJ9" s="19" t="s"/>
-      <c r="BK9" s="19" t="s"/>
-      <c r="BL9" s="19" t="s"/>
-      <c r="BM9" s="19" t="s"/>
+      <c r="BG9" s="18" t="s"/>
+      <c r="BH9" s="18" t="s"/>
+      <c r="BI9" s="18" t="s"/>
+      <c r="BJ9" s="18" t="s"/>
+      <c r="BK9" s="18" t="s"/>
+      <c r="BL9" s="18" t="s"/>
+      <c r="BM9" s="18" t="s"/>
+      <c r="BN9" s="18" t="s"/>
       <c r="CT9" s="13" t="n"/>
       <c r="CU9" s="12" t="n"/>
-      <c r="DC9" s="19" t="s"/>
-      <c r="DD9" s="19" t="s"/>
-      <c r="DE9" s="19" t="s"/>
-      <c r="DF9" s="19" t="s"/>
-      <c r="DG9" s="19" t="s"/>
-      <c r="DH9" s="19" t="s"/>
-      <c r="DI9" s="19" t="s"/>
+      <c r="DC9" s="18" t="s"/>
+      <c r="DD9" s="18" t="s"/>
+      <c r="DE9" s="18" t="s"/>
+      <c r="DF9" s="18" t="s"/>
+      <c r="DG9" s="18" t="s"/>
+      <c r="DH9" s="18" t="s"/>
+      <c r="DI9" s="18" t="s"/>
+      <c r="DJ9" s="18" t="s"/>
       <c r="EP9" s="13" t="n"/>
       <c r="EQ9" s="12" t="n"/>
-      <c r="EY9" s="19" t="s"/>
-      <c r="EZ9" s="19" t="s"/>
-      <c r="FA9" s="19" t="s"/>
-      <c r="FB9" s="19" t="s"/>
-      <c r="FC9" s="19" t="s"/>
-      <c r="FD9" s="19" t="s"/>
-      <c r="FE9" s="19" t="s"/>
+      <c r="EY9" s="18" t="s"/>
+      <c r="EZ9" s="18" t="s"/>
+      <c r="FA9" s="18" t="s"/>
+      <c r="FB9" s="18" t="s"/>
+      <c r="FC9" s="18" t="s"/>
+      <c r="FD9" s="18" t="s"/>
+      <c r="FE9" s="18" t="s"/>
+      <c r="FF9" s="18" t="s"/>
       <c r="GL9" s="13" t="n"/>
       <c r="GM9" s="12" t="n"/>
-      <c r="GU9" s="19" t="s"/>
-      <c r="GV9" s="19" t="s"/>
-      <c r="GW9" s="19" t="s"/>
-      <c r="GX9" s="19" t="s"/>
-      <c r="GY9" s="19" t="s"/>
-      <c r="GZ9" s="19" t="s"/>
-      <c r="HA9" s="19" t="s"/>
+      <c r="GU9" s="18" t="s"/>
+      <c r="GV9" s="18" t="s"/>
+      <c r="GW9" s="18" t="s"/>
+      <c r="GX9" s="18" t="s"/>
+      <c r="GY9" s="18" t="s"/>
+      <c r="GZ9" s="18" t="s"/>
+      <c r="HA9" s="18" t="s"/>
+      <c r="HB9" s="18" t="s"/>
       <c r="IH9" s="13" t="n"/>
       <c r="II9" s="12" t="n"/>
-      <c r="IQ9" s="19" t="s"/>
-      <c r="IR9" s="19" t="s"/>
-      <c r="IS9" s="19" t="s"/>
-      <c r="IT9" s="19" t="s"/>
-      <c r="IU9" s="19" t="s"/>
-      <c r="IV9" s="19" t="s"/>
-      <c r="IW9" s="19" t="s"/>
+      <c r="IQ9" s="18" t="s"/>
+      <c r="IR9" s="18" t="s"/>
+      <c r="IS9" s="18" t="s"/>
+      <c r="IT9" s="18" t="s"/>
+      <c r="IU9" s="18" t="s"/>
+      <c r="IV9" s="18" t="s"/>
+      <c r="IW9" s="18" t="s"/>
+      <c r="IX9" s="18" t="s"/>
       <c r="KD9" s="13" t="n"/>
       <c r="KE9" s="12" t="n"/>
       <c r="LZ9" s="13" t="n"/>
@@ -1374,6 +1430,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="20" t="s"/>
+      <c r="D10" s="15" t="s"/>
+      <c r="E10" s="15" t="s"/>
+      <c r="F10" s="15" t="s"/>
+      <c r="G10" s="15" t="s"/>
       <c r="L10" s="14" t="n"/>
       <c r="M10" s="14" t="n"/>
       <c r="N10" s="14" t="n"/>
@@ -1385,18 +1445,38 @@
       <c r="AW10" s="15" t="s"/>
       <c r="AX10" s="21" t="s"/>
       <c r="AY10" s="20" t="s"/>
+      <c r="AZ10" s="15" t="s"/>
+      <c r="BA10" s="15" t="s"/>
+      <c r="BB10" s="15" t="s"/>
+      <c r="BC10" s="15" t="s"/>
       <c r="CS10" s="15" t="s"/>
       <c r="CT10" s="21" t="s"/>
       <c r="CU10" s="20" t="s"/>
+      <c r="CV10" s="15" t="s"/>
+      <c r="CW10" s="15" t="s"/>
+      <c r="CX10" s="15" t="s"/>
+      <c r="CY10" s="15" t="s"/>
       <c r="EO10" s="15" t="s"/>
       <c r="EP10" s="21" t="s"/>
       <c r="EQ10" s="20" t="s"/>
+      <c r="ER10" s="15" t="s"/>
+      <c r="ES10" s="15" t="s"/>
+      <c r="ET10" s="15" t="s"/>
+      <c r="EU10" s="15" t="s"/>
       <c r="GK10" s="15" t="s"/>
       <c r="GL10" s="21" t="s"/>
       <c r="GM10" s="20" t="s"/>
+      <c r="GN10" s="15" t="s"/>
+      <c r="GO10" s="15" t="s"/>
+      <c r="GP10" s="15" t="s"/>
+      <c r="GQ10" s="15" t="s"/>
       <c r="IG10" s="15" t="s"/>
       <c r="IH10" s="21" t="s"/>
       <c r="II10" s="20" t="s"/>
+      <c r="IJ10" s="15" t="s"/>
+      <c r="IK10" s="15" t="s"/>
+      <c r="IL10" s="15" t="s"/>
+      <c r="IM10" s="15" t="s"/>
       <c r="KD10" s="13" t="n"/>
       <c r="KE10" s="12" t="n"/>
       <c r="LY10" s="15" t="s"/>
@@ -1431,8 +1511,8 @@
       <c r="KA11" s="16" t="s"/>
       <c r="KB11" s="16" t="s"/>
       <c r="KC11" s="16" t="s"/>
-      <c r="KD11" s="17" t="s"/>
-      <c r="KE11" s="18" t="s"/>
+      <c r="KD11" s="22" t="s"/>
+      <c r="KE11" s="23" t="s"/>
       <c r="KF11" s="16" t="s"/>
       <c r="KG11" s="16" t="s"/>
       <c r="KH11" s="16" t="s"/>
@@ -1450,6 +1530,11 @@
       <c r="KT11" s="16" t="s"/>
       <c r="KU11" s="16" t="s"/>
       <c r="KV11" s="16" t="s"/>
+      <c r="KW11" s="16" t="s"/>
+      <c r="KX11" s="16" t="s"/>
+      <c r="KY11" s="16" t="s"/>
+      <c r="KZ11" s="16" t="s"/>
+      <c r="LA11" s="16" t="s"/>
       <c r="LZ11" s="13" t="n"/>
     </row>
     <row r="12" s="11" spans="1:338">
@@ -1460,13 +1545,12 @@
         <v>12</v>
       </c>
       <c r="C12" s="12" t="n"/>
-      <c r="E12" s="19" t="s"/>
-      <c r="F12" s="19" t="s"/>
-      <c r="G12" s="19" t="s"/>
-      <c r="H12" s="19" t="s"/>
-      <c r="I12" s="19" t="s"/>
-      <c r="J12" s="19" t="s"/>
-      <c r="K12" s="19" t="s"/>
+      <c r="E12" s="18" t="s"/>
+      <c r="F12" s="18" t="s"/>
+      <c r="G12" s="18" t="s"/>
+      <c r="H12" s="18" t="s"/>
+      <c r="I12" s="18" t="s"/>
+      <c r="J12" s="18" t="s"/>
       <c r="L12" s="14" t="n"/>
       <c r="M12" s="14" t="n"/>
       <c r="N12" s="14" t="n"/>
@@ -1477,58 +1561,52 @@
       <c r="S12" s="14" t="n"/>
       <c r="AX12" s="13" t="n"/>
       <c r="AY12" s="12" t="n"/>
-      <c r="BA12" s="19" t="s"/>
-      <c r="BB12" s="19" t="s"/>
-      <c r="BC12" s="19" t="s"/>
-      <c r="BD12" s="19" t="s"/>
-      <c r="BE12" s="19" t="s"/>
-      <c r="BF12" s="19" t="s"/>
-      <c r="BG12" s="19" t="s"/>
+      <c r="BA12" s="18" t="s"/>
+      <c r="BB12" s="18" t="s"/>
+      <c r="BC12" s="18" t="s"/>
+      <c r="BD12" s="18" t="s"/>
+      <c r="BE12" s="18" t="s"/>
+      <c r="BF12" s="18" t="s"/>
       <c r="CT12" s="13" t="n"/>
       <c r="CU12" s="12" t="n"/>
-      <c r="CW12" s="19" t="s"/>
-      <c r="CX12" s="19" t="s"/>
-      <c r="CY12" s="19" t="s"/>
-      <c r="CZ12" s="19" t="s"/>
-      <c r="DA12" s="19" t="s"/>
-      <c r="DB12" s="19" t="s"/>
-      <c r="DC12" s="19" t="s"/>
+      <c r="CW12" s="18" t="s"/>
+      <c r="CX12" s="18" t="s"/>
+      <c r="CY12" s="18" t="s"/>
+      <c r="CZ12" s="18" t="s"/>
+      <c r="DA12" s="18" t="s"/>
+      <c r="DB12" s="18" t="s"/>
       <c r="EP12" s="13" t="n"/>
       <c r="EQ12" s="12" t="n"/>
-      <c r="ES12" s="19" t="s"/>
-      <c r="ET12" s="19" t="s"/>
-      <c r="EU12" s="19" t="s"/>
-      <c r="EV12" s="19" t="s"/>
-      <c r="EW12" s="19" t="s"/>
-      <c r="EX12" s="19" t="s"/>
-      <c r="EY12" s="19" t="s"/>
+      <c r="ES12" s="18" t="s"/>
+      <c r="ET12" s="18" t="s"/>
+      <c r="EU12" s="18" t="s"/>
+      <c r="EV12" s="18" t="s"/>
+      <c r="EW12" s="18" t="s"/>
+      <c r="EX12" s="18" t="s"/>
       <c r="GL12" s="13" t="n"/>
       <c r="GM12" s="12" t="n"/>
-      <c r="GO12" s="19" t="s"/>
-      <c r="GP12" s="19" t="s"/>
-      <c r="GQ12" s="19" t="s"/>
-      <c r="GR12" s="19" t="s"/>
-      <c r="GS12" s="19" t="s"/>
-      <c r="GT12" s="19" t="s"/>
-      <c r="GU12" s="19" t="s"/>
+      <c r="GO12" s="18" t="s"/>
+      <c r="GP12" s="18" t="s"/>
+      <c r="GQ12" s="18" t="s"/>
+      <c r="GR12" s="18" t="s"/>
+      <c r="GS12" s="18" t="s"/>
+      <c r="GT12" s="18" t="s"/>
       <c r="IH12" s="13" t="n"/>
       <c r="II12" s="12" t="n"/>
-      <c r="IK12" s="19" t="s"/>
-      <c r="IL12" s="19" t="s"/>
-      <c r="IM12" s="19" t="s"/>
-      <c r="IN12" s="19" t="s"/>
-      <c r="IO12" s="19" t="s"/>
-      <c r="IP12" s="19" t="s"/>
-      <c r="IQ12" s="19" t="s"/>
+      <c r="IK12" s="18" t="s"/>
+      <c r="IL12" s="18" t="s"/>
+      <c r="IM12" s="18" t="s"/>
+      <c r="IN12" s="18" t="s"/>
+      <c r="IO12" s="18" t="s"/>
+      <c r="IP12" s="18" t="s"/>
       <c r="KD12" s="13" t="n"/>
       <c r="KE12" s="12" t="n"/>
-      <c r="KG12" s="19" t="s"/>
-      <c r="KH12" s="19" t="s"/>
-      <c r="KI12" s="19" t="s"/>
-      <c r="KJ12" s="19" t="s"/>
-      <c r="KK12" s="19" t="s"/>
-      <c r="KL12" s="19" t="s"/>
-      <c r="KM12" s="19" t="s"/>
+      <c r="KG12" s="18" t="s"/>
+      <c r="KH12" s="18" t="s"/>
+      <c r="KI12" s="18" t="s"/>
+      <c r="KJ12" s="18" t="s"/>
+      <c r="KK12" s="18" t="s"/>
+      <c r="KL12" s="18" t="s"/>
       <c r="LZ12" s="13" t="n"/>
     </row>
     <row r="13" s="11" spans="1:338">
@@ -1549,34 +1627,28 @@
       <c r="S13" s="14" t="n"/>
       <c r="AS13" s="15" t="s"/>
       <c r="AT13" s="15" t="s"/>
-      <c r="AU13" s="15" t="s"/>
       <c r="AX13" s="13" t="n"/>
       <c r="AY13" s="12" t="n"/>
       <c r="CT13" s="13" t="n"/>
       <c r="CU13" s="12" t="n"/>
       <c r="EK13" s="15" t="s"/>
       <c r="EL13" s="15" t="s"/>
-      <c r="EM13" s="15" t="s"/>
       <c r="EP13" s="13" t="n"/>
       <c r="EQ13" s="12" t="n"/>
       <c r="GG13" s="15" t="s"/>
       <c r="GH13" s="15" t="s"/>
-      <c r="GI13" s="15" t="s"/>
       <c r="GL13" s="13" t="n"/>
       <c r="GM13" s="12" t="n"/>
       <c r="IC13" s="15" t="s"/>
       <c r="ID13" s="15" t="s"/>
-      <c r="IE13" s="15" t="s"/>
       <c r="IH13" s="13" t="n"/>
       <c r="II13" s="12" t="n"/>
       <c r="JY13" s="15" t="s"/>
       <c r="JZ13" s="15" t="s"/>
-      <c r="KA13" s="15" t="s"/>
       <c r="KD13" s="13" t="n"/>
       <c r="KE13" s="12" t="n"/>
       <c r="LU13" s="15" t="s"/>
       <c r="LV13" s="15" t="s"/>
-      <c r="LW13" s="15" t="s"/>
       <c r="LZ13" s="13" t="n"/>
     </row>
     <row r="14" s="11" spans="1:338">
@@ -1600,11 +1672,8 @@
       <c r="CQ14" s="16" t="s"/>
       <c r="CR14" s="16" t="s"/>
       <c r="CS14" s="16" t="s"/>
-      <c r="CT14" s="17" t="s"/>
-      <c r="CU14" s="18" t="s"/>
-      <c r="CV14" s="16" t="s"/>
-      <c r="CW14" s="16" t="s"/>
-      <c r="CX14" s="16" t="s"/>
+      <c r="CT14" s="13" t="n"/>
+      <c r="CU14" s="12" t="n"/>
       <c r="EP14" s="13" t="n"/>
       <c r="EQ14" s="12" t="n"/>
       <c r="GL14" s="13" t="n"/>
@@ -1623,99 +1692,54 @@
         <v>12</v>
       </c>
       <c r="C15" s="12" t="n"/>
-      <c r="E15" s="19" t="s"/>
-      <c r="F15" s="19" t="s"/>
-      <c r="G15" s="19" t="s"/>
-      <c r="H15" s="19" t="s"/>
-      <c r="I15" s="19" t="s"/>
-      <c r="J15" s="19" t="s"/>
-      <c r="K15" s="19" t="s"/>
-      <c r="L15" s="22" t="s"/>
-      <c r="M15" s="22" t="s"/>
-      <c r="N15" s="22" t="s"/>
-      <c r="O15" s="22" t="s"/>
+      <c r="E15" s="18" t="s"/>
+      <c r="F15" s="18" t="s"/>
+      <c r="G15" s="18" t="s"/>
+      <c r="H15" s="18" t="s"/>
+      <c r="L15" s="14" t="n"/>
+      <c r="M15" s="14" t="n"/>
+      <c r="N15" s="14" t="n"/>
+      <c r="O15" s="14" t="n"/>
       <c r="P15" s="14" t="n"/>
       <c r="Q15" s="14" t="n"/>
       <c r="R15" s="14" t="n"/>
       <c r="S15" s="14" t="n"/>
       <c r="AX15" s="13" t="n"/>
       <c r="AY15" s="12" t="n"/>
-      <c r="BA15" s="19" t="s"/>
-      <c r="BB15" s="19" t="s"/>
-      <c r="BC15" s="19" t="s"/>
-      <c r="BD15" s="19" t="s"/>
-      <c r="BE15" s="19" t="s"/>
-      <c r="BF15" s="19" t="s"/>
-      <c r="BG15" s="19" t="s"/>
-      <c r="BH15" s="19" t="s"/>
-      <c r="BI15" s="19" t="s"/>
-      <c r="BJ15" s="19" t="s"/>
-      <c r="BK15" s="19" t="s"/>
+      <c r="BA15" s="18" t="s"/>
+      <c r="BB15" s="18" t="s"/>
+      <c r="BC15" s="18" t="s"/>
+      <c r="BD15" s="18" t="s"/>
       <c r="CT15" s="13" t="n"/>
       <c r="CU15" s="12" t="n"/>
-      <c r="CW15" s="19" t="s"/>
-      <c r="CX15" s="19" t="s"/>
-      <c r="CY15" s="19" t="s"/>
-      <c r="CZ15" s="19" t="s"/>
-      <c r="DA15" s="19" t="s"/>
-      <c r="DB15" s="19" t="s"/>
-      <c r="DC15" s="19" t="s"/>
-      <c r="DD15" s="19" t="s"/>
-      <c r="DE15" s="19" t="s"/>
-      <c r="DF15" s="19" t="s"/>
-      <c r="DG15" s="19" t="s"/>
+      <c r="CW15" s="18" t="s"/>
+      <c r="CX15" s="18" t="s"/>
+      <c r="CY15" s="18" t="s"/>
+      <c r="CZ15" s="18" t="s"/>
       <c r="EP15" s="13" t="n"/>
       <c r="EQ15" s="12" t="n"/>
-      <c r="ES15" s="19" t="s"/>
-      <c r="ET15" s="19" t="s"/>
-      <c r="EU15" s="19" t="s"/>
-      <c r="EV15" s="19" t="s"/>
-      <c r="EW15" s="19" t="s"/>
-      <c r="EX15" s="19" t="s"/>
-      <c r="EY15" s="19" t="s"/>
-      <c r="EZ15" s="19" t="s"/>
-      <c r="FA15" s="19" t="s"/>
-      <c r="FB15" s="19" t="s"/>
-      <c r="FC15" s="19" t="s"/>
+      <c r="ES15" s="18" t="s"/>
+      <c r="ET15" s="18" t="s"/>
+      <c r="EU15" s="18" t="s"/>
+      <c r="EV15" s="18" t="s"/>
       <c r="GL15" s="13" t="n"/>
       <c r="GM15" s="12" t="n"/>
-      <c r="GO15" s="19" t="s"/>
-      <c r="GP15" s="19" t="s"/>
-      <c r="GQ15" s="19" t="s"/>
-      <c r="GR15" s="19" t="s"/>
-      <c r="GS15" s="19" t="s"/>
-      <c r="GT15" s="19" t="s"/>
-      <c r="GU15" s="19" t="s"/>
-      <c r="GV15" s="19" t="s"/>
-      <c r="GW15" s="19" t="s"/>
-      <c r="GX15" s="19" t="s"/>
-      <c r="GY15" s="19" t="s"/>
+      <c r="GO15" s="18" t="s"/>
+      <c r="GP15" s="18" t="s"/>
+      <c r="GQ15" s="18" t="s"/>
+      <c r="GR15" s="18" t="s"/>
       <c r="IH15" s="13" t="n"/>
       <c r="II15" s="12" t="n"/>
-      <c r="IK15" s="19" t="s"/>
-      <c r="IL15" s="19" t="s"/>
-      <c r="IM15" s="19" t="s"/>
-      <c r="IN15" s="19" t="s"/>
-      <c r="IO15" s="19" t="s"/>
-      <c r="IP15" s="19" t="s"/>
-      <c r="IQ15" s="19" t="s"/>
-      <c r="IR15" s="19" t="s"/>
-      <c r="IS15" s="19" t="s"/>
-      <c r="IT15" s="19" t="s"/>
-      <c r="IU15" s="19" t="s"/>
+      <c r="IK15" s="18" t="s"/>
+      <c r="IL15" s="18" t="s"/>
+      <c r="IM15" s="18" t="s"/>
+      <c r="IN15" s="18" t="s"/>
       <c r="KD15" s="13" t="n"/>
       <c r="KE15" s="12" t="n"/>
-      <c r="KG15" s="19" t="s"/>
-      <c r="KH15" s="19" t="s"/>
-      <c r="KI15" s="19" t="s"/>
-      <c r="KJ15" s="19" t="s"/>
-      <c r="KK15" s="19" t="s"/>
-      <c r="KL15" s="19" t="s"/>
-      <c r="KM15" s="19" t="s"/>
-      <c r="KN15" s="19" t="s"/>
-      <c r="KO15" s="19" t="s"/>
-      <c r="KP15" s="19" t="s"/>
-      <c r="KQ15" s="19" t="s"/>
+      <c r="KG15" s="18" t="s"/>
+      <c r="KH15" s="18" t="s"/>
+      <c r="KI15" s="18" t="s"/>
+      <c r="KJ15" s="18" t="s"/>
       <c r="LZ15" s="13" t="n"/>
     </row>
     <row r="16" s="11" spans="1:338">
@@ -1789,8 +1813,8 @@
       <c r="KA17" s="16" t="s"/>
       <c r="KB17" s="16" t="s"/>
       <c r="KC17" s="16" t="s"/>
-      <c r="KD17" s="17" t="s"/>
-      <c r="KE17" s="18" t="s"/>
+      <c r="KD17" s="22" t="s"/>
+      <c r="KE17" s="23" t="s"/>
       <c r="KF17" s="16" t="s"/>
       <c r="KG17" s="16" t="s"/>
       <c r="KH17" s="16" t="s"/>
@@ -1812,6 +1836,9 @@
       <c r="KX17" s="16" t="s"/>
       <c r="KY17" s="16" t="s"/>
       <c r="KZ17" s="16" t="s"/>
+      <c r="LA17" s="16" t="s"/>
+      <c r="LB17" s="16" t="s"/>
+      <c r="LC17" s="16" t="s"/>
       <c r="LZ17" s="13" t="n"/>
     </row>
     <row r="18" s="11" spans="1:338">
@@ -1822,94 +1849,100 @@
         <v>12</v>
       </c>
       <c r="C18" s="12" t="n"/>
-      <c r="J18" s="19" t="s"/>
-      <c r="K18" s="19" t="s"/>
-      <c r="L18" s="19" t="s"/>
-      <c r="M18" s="19" t="s"/>
-      <c r="N18" s="19" t="s"/>
-      <c r="O18" s="19" t="s"/>
-      <c r="P18" s="19" t="s"/>
-      <c r="Q18" s="19" t="s"/>
-      <c r="R18" s="19" t="s"/>
-      <c r="S18" s="19" t="s"/>
-      <c r="T18" s="19" t="s"/>
-      <c r="U18" s="19" t="s"/>
-      <c r="V18" s="19" t="s"/>
+      <c r="J18" s="18" t="s"/>
+      <c r="K18" s="18" t="s"/>
+      <c r="L18" s="18" t="s"/>
+      <c r="M18" s="18" t="s"/>
+      <c r="N18" s="18" t="s"/>
+      <c r="O18" s="18" t="s"/>
+      <c r="P18" s="18" t="s"/>
+      <c r="Q18" s="18" t="s"/>
+      <c r="R18" s="18" t="s"/>
+      <c r="S18" s="18" t="s"/>
+      <c r="T18" s="18" t="s"/>
+      <c r="U18" s="18" t="s"/>
+      <c r="V18" s="18" t="s"/>
+      <c r="W18" s="18" t="s"/>
       <c r="AX18" s="13" t="n"/>
       <c r="AY18" s="12" t="n"/>
-      <c r="BF18" s="19" t="s"/>
-      <c r="BG18" s="19" t="s"/>
-      <c r="BH18" s="19" t="s"/>
-      <c r="BI18" s="19" t="s"/>
-      <c r="BJ18" s="19" t="s"/>
-      <c r="BK18" s="19" t="s"/>
-      <c r="BL18" s="19" t="s"/>
-      <c r="BM18" s="19" t="s"/>
-      <c r="BN18" s="19" t="s"/>
-      <c r="BO18" s="19" t="s"/>
-      <c r="BP18" s="19" t="s"/>
-      <c r="BQ18" s="19" t="s"/>
-      <c r="BR18" s="19" t="s"/>
+      <c r="BF18" s="18" t="s"/>
+      <c r="BG18" s="18" t="s"/>
+      <c r="BH18" s="18" t="s"/>
+      <c r="BI18" s="18" t="s"/>
+      <c r="BJ18" s="18" t="s"/>
+      <c r="BK18" s="18" t="s"/>
+      <c r="BL18" s="18" t="s"/>
+      <c r="BM18" s="18" t="s"/>
+      <c r="BN18" s="18" t="s"/>
+      <c r="BO18" s="18" t="s"/>
+      <c r="BP18" s="18" t="s"/>
+      <c r="BQ18" s="18" t="s"/>
+      <c r="BR18" s="18" t="s"/>
+      <c r="BS18" s="18" t="s"/>
       <c r="CT18" s="13" t="n"/>
       <c r="CU18" s="12" t="n"/>
-      <c r="DB18" s="19" t="s"/>
-      <c r="DC18" s="19" t="s"/>
-      <c r="DD18" s="19" t="s"/>
-      <c r="DE18" s="19" t="s"/>
-      <c r="DF18" s="19" t="s"/>
-      <c r="DG18" s="19" t="s"/>
-      <c r="DH18" s="19" t="s"/>
-      <c r="DI18" s="19" t="s"/>
-      <c r="DJ18" s="19" t="s"/>
-      <c r="DK18" s="19" t="s"/>
-      <c r="DL18" s="19" t="s"/>
-      <c r="DM18" s="19" t="s"/>
-      <c r="DN18" s="19" t="s"/>
+      <c r="DB18" s="18" t="s"/>
+      <c r="DC18" s="18" t="s"/>
+      <c r="DD18" s="18" t="s"/>
+      <c r="DE18" s="18" t="s"/>
+      <c r="DF18" s="18" t="s"/>
+      <c r="DG18" s="18" t="s"/>
+      <c r="DH18" s="18" t="s"/>
+      <c r="DI18" s="18" t="s"/>
+      <c r="DJ18" s="18" t="s"/>
+      <c r="DK18" s="18" t="s"/>
+      <c r="DL18" s="18" t="s"/>
+      <c r="DM18" s="18" t="s"/>
+      <c r="DN18" s="18" t="s"/>
+      <c r="DO18" s="18" t="s"/>
       <c r="EP18" s="13" t="n"/>
       <c r="EQ18" s="12" t="n"/>
-      <c r="EX18" s="19" t="s"/>
-      <c r="EY18" s="19" t="s"/>
-      <c r="EZ18" s="19" t="s"/>
-      <c r="FA18" s="19" t="s"/>
-      <c r="FB18" s="19" t="s"/>
-      <c r="FC18" s="19" t="s"/>
-      <c r="FD18" s="19" t="s"/>
-      <c r="FE18" s="19" t="s"/>
-      <c r="FF18" s="19" t="s"/>
-      <c r="FG18" s="19" t="s"/>
-      <c r="FH18" s="19" t="s"/>
-      <c r="FI18" s="19" t="s"/>
-      <c r="FJ18" s="19" t="s"/>
+      <c r="EX18" s="18" t="s"/>
+      <c r="EY18" s="18" t="s"/>
+      <c r="EZ18" s="18" t="s"/>
+      <c r="FA18" s="18" t="s"/>
+      <c r="FB18" s="18" t="s"/>
+      <c r="FC18" s="18" t="s"/>
+      <c r="FD18" s="18" t="s"/>
+      <c r="FE18" s="18" t="s"/>
+      <c r="FF18" s="18" t="s"/>
+      <c r="FG18" s="18" t="s"/>
+      <c r="FH18" s="18" t="s"/>
+      <c r="FI18" s="18" t="s"/>
+      <c r="FJ18" s="18" t="s"/>
+      <c r="FK18" s="18" t="s"/>
       <c r="GL18" s="13" t="n"/>
       <c r="GM18" s="12" t="n"/>
-      <c r="GT18" s="19" t="s"/>
-      <c r="GU18" s="19" t="s"/>
-      <c r="GV18" s="19" t="s"/>
-      <c r="GW18" s="19" t="s"/>
-      <c r="GX18" s="19" t="s"/>
-      <c r="GY18" s="19" t="s"/>
-      <c r="GZ18" s="19" t="s"/>
-      <c r="HA18" s="19" t="s"/>
-      <c r="HB18" s="19" t="s"/>
-      <c r="HC18" s="19" t="s"/>
-      <c r="HD18" s="19" t="s"/>
-      <c r="HE18" s="19" t="s"/>
-      <c r="HF18" s="19" t="s"/>
+      <c r="GT18" s="18" t="s"/>
+      <c r="GU18" s="18" t="s"/>
+      <c r="GV18" s="18" t="s"/>
+      <c r="GW18" s="18" t="s"/>
+      <c r="GX18" s="18" t="s"/>
+      <c r="GY18" s="18" t="s"/>
+      <c r="GZ18" s="18" t="s"/>
+      <c r="HA18" s="18" t="s"/>
+      <c r="HB18" s="18" t="s"/>
+      <c r="HC18" s="18" t="s"/>
+      <c r="HD18" s="18" t="s"/>
+      <c r="HE18" s="18" t="s"/>
+      <c r="HF18" s="18" t="s"/>
+      <c r="HG18" s="18" t="s"/>
       <c r="IH18" s="13" t="n"/>
       <c r="II18" s="12" t="n"/>
-      <c r="IP18" s="19" t="s"/>
-      <c r="IQ18" s="19" t="s"/>
-      <c r="IR18" s="19" t="s"/>
-      <c r="IS18" s="19" t="s"/>
-      <c r="IT18" s="19" t="s"/>
-      <c r="IU18" s="19" t="s"/>
-      <c r="IV18" s="19" t="s"/>
-      <c r="IW18" s="19" t="s"/>
-      <c r="IX18" s="19" t="s"/>
-      <c r="IY18" s="19" t="s"/>
-      <c r="IZ18" s="19" t="s"/>
-      <c r="JA18" s="19" t="s"/>
-      <c r="JB18" s="19" t="s"/>
+      <c r="IP18" s="18" t="s"/>
+      <c r="IQ18" s="18" t="s"/>
+      <c r="IR18" s="18" t="s"/>
+      <c r="IS18" s="18" t="s"/>
+      <c r="IT18" s="18" t="s"/>
+      <c r="IU18" s="18" t="s"/>
+      <c r="IV18" s="18" t="s"/>
+      <c r="IW18" s="18" t="s"/>
+      <c r="IX18" s="18" t="s"/>
+      <c r="IY18" s="18" t="s"/>
+      <c r="IZ18" s="18" t="s"/>
+      <c r="JA18" s="18" t="s"/>
+      <c r="JB18" s="18" t="s"/>
+      <c r="JC18" s="18" t="s"/>
       <c r="KD18" s="13" t="n"/>
       <c r="KE18" s="12" t="n"/>
       <c r="LZ18" s="13" t="n"/>
@@ -1925,22 +1958,16 @@
       <c r="D19" s="15" t="s"/>
       <c r="E19" s="15" t="s"/>
       <c r="F19" s="15" t="s"/>
-      <c r="G19" s="15" t="s"/>
-      <c r="H19" s="15" t="s"/>
       <c r="AX19" s="13" t="n"/>
       <c r="AY19" s="20" t="s"/>
       <c r="AZ19" s="15" t="s"/>
       <c r="BA19" s="15" t="s"/>
       <c r="BB19" s="15" t="s"/>
-      <c r="BC19" s="15" t="s"/>
-      <c r="BD19" s="15" t="s"/>
       <c r="CT19" s="13" t="n"/>
       <c r="CU19" s="20" t="s"/>
       <c r="CV19" s="15" t="s"/>
       <c r="CW19" s="15" t="s"/>
       <c r="CX19" s="15" t="s"/>
-      <c r="CY19" s="15" t="s"/>
-      <c r="CZ19" s="15" t="s"/>
       <c r="EP19" s="13" t="n"/>
       <c r="EQ19" s="12" t="n"/>
       <c r="GL19" s="13" t="n"/>
@@ -1948,22 +1975,16 @@
       <c r="GN19" s="15" t="s"/>
       <c r="GO19" s="15" t="s"/>
       <c r="GP19" s="15" t="s"/>
-      <c r="GQ19" s="15" t="s"/>
-      <c r="GR19" s="15" t="s"/>
       <c r="IH19" s="13" t="n"/>
       <c r="II19" s="20" t="s"/>
       <c r="IJ19" s="15" t="s"/>
       <c r="IK19" s="15" t="s"/>
       <c r="IL19" s="15" t="s"/>
-      <c r="IM19" s="15" t="s"/>
-      <c r="IN19" s="15" t="s"/>
       <c r="KD19" s="13" t="n"/>
       <c r="KE19" s="20" t="s"/>
       <c r="KF19" s="15" t="s"/>
       <c r="KG19" s="15" t="s"/>
       <c r="KH19" s="15" t="s"/>
-      <c r="KI19" s="15" t="s"/>
-      <c r="KJ19" s="15" t="s"/>
       <c r="LZ19" s="13" t="n"/>
     </row>
     <row r="20" s="11" spans="1:338">
@@ -1979,7 +2000,7 @@
       <c r="CT20" s="13" t="n"/>
       <c r="CU20" s="12" t="n"/>
       <c r="EP20" s="13" t="n"/>
-      <c r="EQ20" s="18" t="s"/>
+      <c r="EQ20" s="23" t="s"/>
       <c r="ER20" s="16" t="s"/>
       <c r="ES20" s="16" t="s"/>
       <c r="ET20" s="16" t="s"/>
@@ -1989,7 +2010,6 @@
       <c r="EX20" s="16" t="s"/>
       <c r="EY20" s="16" t="s"/>
       <c r="EZ20" s="16" t="s"/>
-      <c r="FA20" s="16" t="s"/>
       <c r="GL20" s="13" t="n"/>
       <c r="GM20" s="12" t="n"/>
       <c r="IH20" s="13" t="n"/>
@@ -2006,120 +2026,96 @@
         <v>12</v>
       </c>
       <c r="C21" s="12" t="n"/>
-      <c r="G21" s="19" t="s"/>
-      <c r="H21" s="19" t="s"/>
-      <c r="I21" s="19" t="s"/>
-      <c r="J21" s="19" t="s"/>
-      <c r="K21" s="19" t="s"/>
-      <c r="L21" s="19" t="s"/>
-      <c r="M21" s="19" t="s"/>
-      <c r="N21" s="19" t="s"/>
-      <c r="O21" s="19" t="s"/>
-      <c r="P21" s="19" t="s"/>
-      <c r="Q21" s="19" t="s"/>
-      <c r="R21" s="19" t="s"/>
-      <c r="S21" s="19" t="s"/>
-      <c r="T21" s="19" t="s"/>
-      <c r="U21" s="19" t="s"/>
-      <c r="V21" s="19" t="s"/>
-      <c r="W21" s="19" t="s"/>
+      <c r="G21" s="18" t="s"/>
+      <c r="H21" s="18" t="s"/>
+      <c r="I21" s="18" t="s"/>
+      <c r="J21" s="18" t="s"/>
+      <c r="K21" s="18" t="s"/>
+      <c r="L21" s="18" t="s"/>
+      <c r="M21" s="18" t="s"/>
+      <c r="N21" s="18" t="s"/>
+      <c r="O21" s="18" t="s"/>
+      <c r="P21" s="18" t="s"/>
+      <c r="Q21" s="18" t="s"/>
+      <c r="R21" s="18" t="s"/>
+      <c r="S21" s="18" t="s"/>
       <c r="AX21" s="13" t="n"/>
       <c r="AY21" s="12" t="n"/>
-      <c r="BC21" s="19" t="s"/>
-      <c r="BD21" s="19" t="s"/>
-      <c r="BE21" s="19" t="s"/>
-      <c r="BF21" s="19" t="s"/>
-      <c r="BG21" s="19" t="s"/>
-      <c r="BH21" s="19" t="s"/>
-      <c r="BI21" s="19" t="s"/>
-      <c r="BJ21" s="19" t="s"/>
-      <c r="BK21" s="19" t="s"/>
-      <c r="BL21" s="19" t="s"/>
-      <c r="BM21" s="19" t="s"/>
-      <c r="BN21" s="19" t="s"/>
-      <c r="BO21" s="19" t="s"/>
-      <c r="BP21" s="19" t="s"/>
-      <c r="BQ21" s="19" t="s"/>
-      <c r="BR21" s="19" t="s"/>
-      <c r="BS21" s="19" t="s"/>
+      <c r="BC21" s="18" t="s"/>
+      <c r="BD21" s="18" t="s"/>
+      <c r="BE21" s="18" t="s"/>
+      <c r="BF21" s="18" t="s"/>
+      <c r="BG21" s="18" t="s"/>
+      <c r="BH21" s="18" t="s"/>
+      <c r="BI21" s="18" t="s"/>
+      <c r="BJ21" s="18" t="s"/>
+      <c r="BK21" s="18" t="s"/>
+      <c r="BL21" s="18" t="s"/>
+      <c r="BM21" s="18" t="s"/>
+      <c r="BN21" s="18" t="s"/>
+      <c r="BO21" s="18" t="s"/>
       <c r="CT21" s="13" t="n"/>
       <c r="CU21" s="12" t="n"/>
-      <c r="CY21" s="19" t="s"/>
-      <c r="CZ21" s="19" t="s"/>
-      <c r="DA21" s="19" t="s"/>
-      <c r="DB21" s="19" t="s"/>
-      <c r="DC21" s="19" t="s"/>
-      <c r="DD21" s="19" t="s"/>
-      <c r="DE21" s="19" t="s"/>
-      <c r="DF21" s="19" t="s"/>
-      <c r="DG21" s="19" t="s"/>
-      <c r="DH21" s="19" t="s"/>
-      <c r="DI21" s="19" t="s"/>
-      <c r="DJ21" s="19" t="s"/>
-      <c r="DK21" s="19" t="s"/>
-      <c r="DL21" s="19" t="s"/>
-      <c r="DM21" s="19" t="s"/>
-      <c r="DN21" s="19" t="s"/>
-      <c r="DO21" s="19" t="s"/>
+      <c r="CY21" s="18" t="s"/>
+      <c r="CZ21" s="18" t="s"/>
+      <c r="DA21" s="18" t="s"/>
+      <c r="DB21" s="18" t="s"/>
+      <c r="DC21" s="18" t="s"/>
+      <c r="DD21" s="18" t="s"/>
+      <c r="DE21" s="18" t="s"/>
+      <c r="DF21" s="18" t="s"/>
+      <c r="DG21" s="18" t="s"/>
+      <c r="DH21" s="18" t="s"/>
+      <c r="DI21" s="18" t="s"/>
+      <c r="DJ21" s="18" t="s"/>
+      <c r="DK21" s="18" t="s"/>
       <c r="EP21" s="13" t="n"/>
       <c r="EQ21" s="12" t="n"/>
       <c r="GL21" s="13" t="n"/>
       <c r="GM21" s="12" t="n"/>
-      <c r="GQ21" s="19" t="s"/>
-      <c r="GR21" s="19" t="s"/>
-      <c r="GS21" s="19" t="s"/>
-      <c r="GT21" s="19" t="s"/>
-      <c r="GU21" s="19" t="s"/>
-      <c r="GV21" s="19" t="s"/>
-      <c r="GW21" s="19" t="s"/>
-      <c r="GX21" s="19" t="s"/>
-      <c r="GY21" s="19" t="s"/>
-      <c r="GZ21" s="19" t="s"/>
-      <c r="HA21" s="19" t="s"/>
-      <c r="HB21" s="19" t="s"/>
-      <c r="HC21" s="19" t="s"/>
-      <c r="HD21" s="19" t="s"/>
-      <c r="HE21" s="19" t="s"/>
-      <c r="HF21" s="19" t="s"/>
-      <c r="HG21" s="19" t="s"/>
+      <c r="GQ21" s="18" t="s"/>
+      <c r="GR21" s="18" t="s"/>
+      <c r="GS21" s="18" t="s"/>
+      <c r="GT21" s="18" t="s"/>
+      <c r="GU21" s="18" t="s"/>
+      <c r="GV21" s="18" t="s"/>
+      <c r="GW21" s="18" t="s"/>
+      <c r="GX21" s="18" t="s"/>
+      <c r="GY21" s="18" t="s"/>
+      <c r="GZ21" s="18" t="s"/>
+      <c r="HA21" s="18" t="s"/>
+      <c r="HB21" s="18" t="s"/>
+      <c r="HC21" s="18" t="s"/>
       <c r="IH21" s="13" t="n"/>
       <c r="II21" s="12" t="n"/>
-      <c r="IM21" s="19" t="s"/>
-      <c r="IN21" s="19" t="s"/>
-      <c r="IO21" s="19" t="s"/>
-      <c r="IP21" s="19" t="s"/>
-      <c r="IQ21" s="19" t="s"/>
-      <c r="IR21" s="19" t="s"/>
-      <c r="IS21" s="19" t="s"/>
-      <c r="IT21" s="19" t="s"/>
-      <c r="IU21" s="19" t="s"/>
-      <c r="IV21" s="19" t="s"/>
-      <c r="IW21" s="19" t="s"/>
-      <c r="IX21" s="19" t="s"/>
-      <c r="IY21" s="19" t="s"/>
-      <c r="IZ21" s="19" t="s"/>
-      <c r="JA21" s="19" t="s"/>
-      <c r="JB21" s="19" t="s"/>
-      <c r="JC21" s="19" t="s"/>
+      <c r="IM21" s="18" t="s"/>
+      <c r="IN21" s="18" t="s"/>
+      <c r="IO21" s="18" t="s"/>
+      <c r="IP21" s="18" t="s"/>
+      <c r="IQ21" s="18" t="s"/>
+      <c r="IR21" s="18" t="s"/>
+      <c r="IS21" s="18" t="s"/>
+      <c r="IT21" s="18" t="s"/>
+      <c r="IU21" s="18" t="s"/>
+      <c r="IV21" s="18" t="s"/>
+      <c r="IW21" s="18" t="s"/>
+      <c r="IX21" s="18" t="s"/>
+      <c r="IY21" s="18" t="s"/>
       <c r="KD21" s="13" t="n"/>
       <c r="KE21" s="12" t="n"/>
-      <c r="KI21" s="19" t="s"/>
-      <c r="KJ21" s="19" t="s"/>
-      <c r="KK21" s="19" t="s"/>
-      <c r="KL21" s="19" t="s"/>
-      <c r="KM21" s="19" t="s"/>
-      <c r="KN21" s="19" t="s"/>
-      <c r="KO21" s="19" t="s"/>
-      <c r="KP21" s="19" t="s"/>
-      <c r="KQ21" s="19" t="s"/>
-      <c r="KR21" s="19" t="s"/>
-      <c r="KS21" s="19" t="s"/>
-      <c r="KT21" s="19" t="s"/>
-      <c r="KU21" s="19" t="s"/>
-      <c r="KV21" s="19" t="s"/>
-      <c r="KW21" s="19" t="s"/>
-      <c r="KX21" s="19" t="s"/>
-      <c r="KY21" s="19" t="s"/>
+      <c r="KI21" s="18" t="s"/>
+      <c r="KJ21" s="18" t="s"/>
+      <c r="KK21" s="18" t="s"/>
+      <c r="KL21" s="18" t="s"/>
+      <c r="KM21" s="18" t="s"/>
+      <c r="KN21" s="18" t="s"/>
+      <c r="KO21" s="18" t="s"/>
+      <c r="KP21" s="18" t="s"/>
+      <c r="KQ21" s="18" t="s"/>
+      <c r="KR21" s="18" t="s"/>
+      <c r="KS21" s="18" t="s"/>
+      <c r="KT21" s="18" t="s"/>
+      <c r="KU21" s="18" t="s"/>
       <c r="LZ21" s="13" t="n"/>
     </row>
     <row r="22" s="11" spans="1:338">
@@ -2129,7 +2125,7 @@
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="18" t="s"/>
+      <c r="C22" s="12" t="n"/>
       <c r="AX22" s="13" t="n"/>
       <c r="AY22" s="12" t="n"/>
       <c r="CT22" s="13" t="n"/>
@@ -2153,7 +2149,7 @@
       <c r="LW22" s="16" t="s"/>
       <c r="LX22" s="16" t="s"/>
       <c r="LY22" s="16" t="s"/>
-      <c r="LZ22" s="17" t="s"/>
+      <c r="LZ22" s="22" t="s"/>
     </row>
     <row r="23" s="11" spans="1:338">
       <c r="A23" t="s">
@@ -2163,84 +2159,84 @@
         <v>12</v>
       </c>
       <c r="C23" s="12" t="n"/>
-      <c r="D23" s="19" t="s"/>
-      <c r="E23" s="19" t="s"/>
-      <c r="F23" s="19" t="s"/>
-      <c r="G23" s="19" t="s"/>
-      <c r="H23" s="19" t="s"/>
-      <c r="I23" s="19" t="s"/>
-      <c r="J23" s="19" t="s"/>
-      <c r="K23" s="19" t="s"/>
-      <c r="L23" s="19" t="s"/>
-      <c r="M23" s="19" t="s"/>
-      <c r="N23" s="19" t="s"/>
-      <c r="O23" s="19" t="s"/>
-      <c r="P23" s="19" t="s"/>
-      <c r="Q23" s="19" t="s"/>
+      <c r="D23" s="18" t="s"/>
+      <c r="E23" s="18" t="s"/>
+      <c r="F23" s="18" t="s"/>
+      <c r="G23" s="18" t="s"/>
+      <c r="H23" s="18" t="s"/>
+      <c r="I23" s="18" t="s"/>
+      <c r="J23" s="18" t="s"/>
+      <c r="K23" s="18" t="s"/>
+      <c r="L23" s="18" t="s"/>
+      <c r="M23" s="18" t="s"/>
+      <c r="N23" s="18" t="s"/>
+      <c r="O23" s="18" t="s"/>
+      <c r="P23" s="18" t="s"/>
+      <c r="Q23" s="18" t="s"/>
       <c r="AX23" s="13" t="n"/>
       <c r="AY23" s="12" t="n"/>
-      <c r="AZ23" s="19" t="s"/>
-      <c r="BA23" s="19" t="s"/>
-      <c r="BB23" s="19" t="s"/>
-      <c r="BC23" s="19" t="s"/>
-      <c r="BD23" s="19" t="s"/>
-      <c r="BE23" s="19" t="s"/>
-      <c r="BF23" s="19" t="s"/>
-      <c r="BG23" s="19" t="s"/>
-      <c r="BH23" s="19" t="s"/>
-      <c r="BI23" s="19" t="s"/>
-      <c r="BJ23" s="19" t="s"/>
-      <c r="BK23" s="19" t="s"/>
-      <c r="BL23" s="19" t="s"/>
-      <c r="BM23" s="19" t="s"/>
+      <c r="AZ23" s="18" t="s"/>
+      <c r="BA23" s="18" t="s"/>
+      <c r="BB23" s="18" t="s"/>
+      <c r="BC23" s="18" t="s"/>
+      <c r="BD23" s="18" t="s"/>
+      <c r="BE23" s="18" t="s"/>
+      <c r="BF23" s="18" t="s"/>
+      <c r="BG23" s="18" t="s"/>
+      <c r="BH23" s="18" t="s"/>
+      <c r="BI23" s="18" t="s"/>
+      <c r="BJ23" s="18" t="s"/>
+      <c r="BK23" s="18" t="s"/>
+      <c r="BL23" s="18" t="s"/>
+      <c r="BM23" s="18" t="s"/>
       <c r="CT23" s="13" t="n"/>
       <c r="CU23" s="12" t="n"/>
-      <c r="CV23" s="19" t="s"/>
-      <c r="CW23" s="19" t="s"/>
-      <c r="CX23" s="19" t="s"/>
-      <c r="CY23" s="19" t="s"/>
-      <c r="CZ23" s="19" t="s"/>
-      <c r="DA23" s="19" t="s"/>
-      <c r="DB23" s="19" t="s"/>
-      <c r="DC23" s="19" t="s"/>
-      <c r="DD23" s="19" t="s"/>
-      <c r="DE23" s="19" t="s"/>
-      <c r="DF23" s="19" t="s"/>
-      <c r="DG23" s="19" t="s"/>
-      <c r="DH23" s="19" t="s"/>
-      <c r="DI23" s="19" t="s"/>
+      <c r="CV23" s="18" t="s"/>
+      <c r="CW23" s="18" t="s"/>
+      <c r="CX23" s="18" t="s"/>
+      <c r="CY23" s="18" t="s"/>
+      <c r="CZ23" s="18" t="s"/>
+      <c r="DA23" s="18" t="s"/>
+      <c r="DB23" s="18" t="s"/>
+      <c r="DC23" s="18" t="s"/>
+      <c r="DD23" s="18" t="s"/>
+      <c r="DE23" s="18" t="s"/>
+      <c r="DF23" s="18" t="s"/>
+      <c r="DG23" s="18" t="s"/>
+      <c r="DH23" s="18" t="s"/>
+      <c r="DI23" s="18" t="s"/>
       <c r="EP23" s="13" t="n"/>
       <c r="EQ23" s="12" t="n"/>
-      <c r="ER23" s="19" t="s"/>
-      <c r="ES23" s="19" t="s"/>
-      <c r="ET23" s="19" t="s"/>
-      <c r="EU23" s="19" t="s"/>
-      <c r="EV23" s="19" t="s"/>
-      <c r="EW23" s="19" t="s"/>
-      <c r="EX23" s="19" t="s"/>
-      <c r="EY23" s="19" t="s"/>
-      <c r="EZ23" s="19" t="s"/>
-      <c r="FA23" s="19" t="s"/>
-      <c r="FB23" s="19" t="s"/>
-      <c r="FC23" s="19" t="s"/>
-      <c r="FD23" s="19" t="s"/>
-      <c r="FE23" s="19" t="s"/>
+      <c r="ER23" s="18" t="s"/>
+      <c r="ES23" s="18" t="s"/>
+      <c r="ET23" s="18" t="s"/>
+      <c r="EU23" s="18" t="s"/>
+      <c r="EV23" s="18" t="s"/>
+      <c r="EW23" s="18" t="s"/>
+      <c r="EX23" s="18" t="s"/>
+      <c r="EY23" s="18" t="s"/>
+      <c r="EZ23" s="18" t="s"/>
+      <c r="FA23" s="18" t="s"/>
+      <c r="FB23" s="18" t="s"/>
+      <c r="FC23" s="18" t="s"/>
+      <c r="FD23" s="18" t="s"/>
+      <c r="FE23" s="18" t="s"/>
       <c r="GL23" s="13" t="n"/>
       <c r="GM23" s="12" t="n"/>
-      <c r="GN23" s="19" t="s"/>
-      <c r="GO23" s="19" t="s"/>
-      <c r="GP23" s="19" t="s"/>
-      <c r="GQ23" s="19" t="s"/>
-      <c r="GR23" s="19" t="s"/>
-      <c r="GS23" s="19" t="s"/>
-      <c r="GT23" s="19" t="s"/>
-      <c r="GU23" s="19" t="s"/>
-      <c r="GV23" s="19" t="s"/>
-      <c r="GW23" s="19" t="s"/>
-      <c r="GX23" s="19" t="s"/>
-      <c r="GY23" s="19" t="s"/>
-      <c r="GZ23" s="19" t="s"/>
-      <c r="HA23" s="19" t="s"/>
+      <c r="GN23" s="18" t="s"/>
+      <c r="GO23" s="18" t="s"/>
+      <c r="GP23" s="18" t="s"/>
+      <c r="GQ23" s="18" t="s"/>
+      <c r="GR23" s="18" t="s"/>
+      <c r="GS23" s="18" t="s"/>
+      <c r="GT23" s="18" t="s"/>
+      <c r="GU23" s="18" t="s"/>
+      <c r="GV23" s="18" t="s"/>
+      <c r="GW23" s="18" t="s"/>
+      <c r="GX23" s="18" t="s"/>
+      <c r="GY23" s="18" t="s"/>
+      <c r="GZ23" s="18" t="s"/>
+      <c r="HA23" s="18" t="s"/>
       <c r="IH23" s="13" t="n"/>
       <c r="II23" s="12" t="n"/>
       <c r="KD23" s="13" t="n"/>
@@ -2315,40 +2311,40 @@
         <v>12</v>
       </c>
       <c r="C26" s="12" t="n"/>
-      <c r="AU26" s="19" t="s"/>
-      <c r="AV26" s="19" t="s"/>
-      <c r="AW26" s="19" t="s"/>
-      <c r="AX26" s="23" t="s"/>
+      <c r="AU26" s="18" t="s"/>
+      <c r="AV26" s="18" t="s"/>
+      <c r="AW26" s="18" t="s"/>
+      <c r="AX26" s="19" t="s"/>
       <c r="AY26" s="12" t="n"/>
-      <c r="CQ26" s="19" t="s"/>
-      <c r="CR26" s="19" t="s"/>
-      <c r="CS26" s="19" t="s"/>
-      <c r="CT26" s="23" t="s"/>
+      <c r="CQ26" s="18" t="s"/>
+      <c r="CR26" s="18" t="s"/>
+      <c r="CS26" s="18" t="s"/>
+      <c r="CT26" s="19" t="s"/>
       <c r="CU26" s="12" t="n"/>
-      <c r="EM26" s="19" t="s"/>
-      <c r="EN26" s="19" t="s"/>
-      <c r="EO26" s="19" t="s"/>
-      <c r="EP26" s="23" t="s"/>
+      <c r="EM26" s="18" t="s"/>
+      <c r="EN26" s="18" t="s"/>
+      <c r="EO26" s="18" t="s"/>
+      <c r="EP26" s="19" t="s"/>
       <c r="EQ26" s="12" t="n"/>
-      <c r="GI26" s="19" t="s"/>
-      <c r="GJ26" s="19" t="s"/>
-      <c r="GK26" s="19" t="s"/>
-      <c r="GL26" s="23" t="s"/>
+      <c r="GI26" s="18" t="s"/>
+      <c r="GJ26" s="18" t="s"/>
+      <c r="GK26" s="18" t="s"/>
+      <c r="GL26" s="19" t="s"/>
       <c r="GM26" s="12" t="n"/>
-      <c r="IE26" s="19" t="s"/>
-      <c r="IF26" s="19" t="s"/>
-      <c r="IG26" s="19" t="s"/>
-      <c r="IH26" s="23" t="s"/>
+      <c r="IE26" s="18" t="s"/>
+      <c r="IF26" s="18" t="s"/>
+      <c r="IG26" s="18" t="s"/>
+      <c r="IH26" s="19" t="s"/>
       <c r="II26" s="12" t="n"/>
-      <c r="KA26" s="19" t="s"/>
-      <c r="KB26" s="19" t="s"/>
-      <c r="KC26" s="19" t="s"/>
-      <c r="KD26" s="23" t="s"/>
+      <c r="KA26" s="18" t="s"/>
+      <c r="KB26" s="18" t="s"/>
+      <c r="KC26" s="18" t="s"/>
+      <c r="KD26" s="19" t="s"/>
       <c r="KE26" s="12" t="n"/>
-      <c r="LW26" s="19" t="s"/>
-      <c r="LX26" s="19" t="s"/>
-      <c r="LY26" s="19" t="s"/>
-      <c r="LZ26" s="23" t="s"/>
+      <c r="LW26" s="18" t="s"/>
+      <c r="LX26" s="18" t="s"/>
+      <c r="LY26" s="18" t="s"/>
+      <c r="LZ26" s="19" t="s"/>
     </row>
     <row r="27" s="11" spans="1:338">
       <c r="A27" t="s">
@@ -2410,32 +2406,32 @@
         <v>12</v>
       </c>
       <c r="C29" s="12" t="n"/>
-      <c r="I29" s="19" t="s"/>
-      <c r="J29" s="19" t="s"/>
+      <c r="I29" s="18" t="s"/>
+      <c r="J29" s="18" t="s"/>
       <c r="AX29" s="13" t="n"/>
       <c r="AY29" s="12" t="n"/>
-      <c r="BE29" s="19" t="s"/>
-      <c r="BF29" s="19" t="s"/>
+      <c r="BE29" s="18" t="s"/>
+      <c r="BF29" s="18" t="s"/>
       <c r="CT29" s="13" t="n"/>
       <c r="CU29" s="12" t="n"/>
-      <c r="DA29" s="19" t="s"/>
-      <c r="DB29" s="19" t="s"/>
+      <c r="DA29" s="18" t="s"/>
+      <c r="DB29" s="18" t="s"/>
       <c r="EP29" s="13" t="n"/>
       <c r="EQ29" s="12" t="n"/>
-      <c r="EW29" s="19" t="s"/>
-      <c r="EX29" s="19" t="s"/>
+      <c r="EW29" s="18" t="s"/>
+      <c r="EX29" s="18" t="s"/>
       <c r="GL29" s="13" t="n"/>
       <c r="GM29" s="12" t="n"/>
-      <c r="GS29" s="19" t="s"/>
-      <c r="GT29" s="19" t="s"/>
+      <c r="GS29" s="18" t="s"/>
+      <c r="GT29" s="18" t="s"/>
       <c r="IH29" s="13" t="n"/>
       <c r="II29" s="12" t="n"/>
-      <c r="IO29" s="19" t="s"/>
-      <c r="IP29" s="19" t="s"/>
+      <c r="IO29" s="18" t="s"/>
+      <c r="IP29" s="18" t="s"/>
       <c r="KD29" s="13" t="n"/>
       <c r="KE29" s="12" t="n"/>
-      <c r="KK29" s="19" t="s"/>
-      <c r="KL29" s="19" t="s"/>
+      <c r="KK29" s="18" t="s"/>
+      <c r="KL29" s="18" t="s"/>
       <c r="LZ29" s="13" t="n"/>
     </row>
     <row r="30" s="11" spans="1:338">
@@ -2446,6 +2442,8 @@
         <v>11</v>
       </c>
       <c r="C30" s="12" t="n"/>
+      <c r="AQ30" s="16" t="s"/>
+      <c r="AR30" s="16" t="s"/>
       <c r="AX30" s="13" t="n"/>
       <c r="AY30" s="12" t="n"/>
       <c r="CT30" s="13" t="n"/>
@@ -2456,8 +2454,6 @@
       <c r="GM30" s="12" t="n"/>
       <c r="IH30" s="13" t="n"/>
       <c r="II30" s="12" t="n"/>
-      <c r="KA30" s="16" t="s"/>
-      <c r="KB30" s="16" t="s"/>
       <c r="KD30" s="13" t="n"/>
       <c r="KE30" s="12" t="n"/>
       <c r="LZ30" s="13" t="n"/>
@@ -2470,34 +2466,34 @@
         <v>12</v>
       </c>
       <c r="C31" s="12" t="n"/>
-      <c r="G31" s="19" t="s"/>
-      <c r="H31" s="19" t="s"/>
-      <c r="I31" s="19" t="s"/>
+      <c r="G31" s="18" t="s"/>
+      <c r="H31" s="18" t="s"/>
+      <c r="I31" s="18" t="s"/>
       <c r="AX31" s="13" t="n"/>
       <c r="AY31" s="12" t="n"/>
-      <c r="BC31" s="19" t="s"/>
-      <c r="BD31" s="19" t="s"/>
-      <c r="BE31" s="19" t="s"/>
+      <c r="BC31" s="18" t="s"/>
+      <c r="BD31" s="18" t="s"/>
+      <c r="BE31" s="18" t="s"/>
       <c r="CT31" s="13" t="n"/>
       <c r="CU31" s="12" t="n"/>
-      <c r="CY31" s="19" t="s"/>
-      <c r="CZ31" s="19" t="s"/>
-      <c r="DA31" s="19" t="s"/>
+      <c r="CY31" s="18" t="s"/>
+      <c r="CZ31" s="18" t="s"/>
+      <c r="DA31" s="18" t="s"/>
       <c r="EP31" s="13" t="n"/>
       <c r="EQ31" s="12" t="n"/>
-      <c r="EU31" s="19" t="s"/>
-      <c r="EV31" s="19" t="s"/>
-      <c r="EW31" s="19" t="s"/>
+      <c r="EU31" s="18" t="s"/>
+      <c r="EV31" s="18" t="s"/>
+      <c r="EW31" s="18" t="s"/>
       <c r="GL31" s="13" t="n"/>
       <c r="GM31" s="12" t="n"/>
-      <c r="GQ31" s="19" t="s"/>
-      <c r="GR31" s="19" t="s"/>
-      <c r="GS31" s="19" t="s"/>
+      <c r="GQ31" s="18" t="s"/>
+      <c r="GR31" s="18" t="s"/>
+      <c r="GS31" s="18" t="s"/>
       <c r="IH31" s="13" t="n"/>
       <c r="II31" s="12" t="n"/>
-      <c r="IM31" s="19" t="s"/>
-      <c r="IN31" s="19" t="s"/>
-      <c r="IO31" s="19" t="s"/>
+      <c r="IM31" s="18" t="s"/>
+      <c r="IN31" s="18" t="s"/>
+      <c r="IO31" s="18" t="s"/>
       <c r="KD31" s="13" t="n"/>
       <c r="KE31" s="12" t="n"/>
       <c r="LZ31" s="13" t="n"/>
@@ -2512,34 +2508,28 @@
       <c r="C32" s="12" t="n"/>
       <c r="G32" s="15" t="s"/>
       <c r="H32" s="15" t="s"/>
-      <c r="I32" s="15" t="s"/>
       <c r="AX32" s="13" t="n"/>
       <c r="AY32" s="12" t="n"/>
       <c r="BC32" s="15" t="s"/>
       <c r="BD32" s="15" t="s"/>
-      <c r="BE32" s="15" t="s"/>
       <c r="CT32" s="13" t="n"/>
       <c r="CU32" s="12" t="n"/>
       <c r="EP32" s="13" t="n"/>
       <c r="EQ32" s="12" t="n"/>
       <c r="EU32" s="15" t="s"/>
       <c r="EV32" s="15" t="s"/>
-      <c r="EW32" s="15" t="s"/>
       <c r="GL32" s="13" t="n"/>
       <c r="GM32" s="12" t="n"/>
       <c r="GQ32" s="15" t="s"/>
       <c r="GR32" s="15" t="s"/>
-      <c r="GS32" s="15" t="s"/>
       <c r="IH32" s="13" t="n"/>
       <c r="II32" s="12" t="n"/>
       <c r="IM32" s="15" t="s"/>
       <c r="IN32" s="15" t="s"/>
-      <c r="IO32" s="15" t="s"/>
       <c r="KD32" s="13" t="n"/>
       <c r="KE32" s="12" t="n"/>
       <c r="KI32" s="15" t="s"/>
       <c r="KJ32" s="15" t="s"/>
-      <c r="KK32" s="15" t="s"/>
       <c r="LZ32" s="13" t="n"/>
     </row>
     <row r="33" s="11" spans="1:338">
@@ -2579,90 +2569,72 @@
         <v>12</v>
       </c>
       <c r="C34" s="12" t="n"/>
-      <c r="J34" s="19" t="s"/>
-      <c r="K34" s="19" t="s"/>
-      <c r="L34" s="19" t="s"/>
-      <c r="M34" s="19" t="s"/>
-      <c r="N34" s="19" t="s"/>
-      <c r="O34" s="19" t="s"/>
-      <c r="P34" s="19" t="s"/>
-      <c r="Q34" s="19" t="s"/>
-      <c r="R34" s="19" t="s"/>
-      <c r="S34" s="19" t="s"/>
-      <c r="T34" s="19" t="s"/>
-      <c r="U34" s="19" t="s"/>
+      <c r="J34" s="18" t="s"/>
+      <c r="K34" s="18" t="s"/>
+      <c r="L34" s="18" t="s"/>
+      <c r="M34" s="18" t="s"/>
+      <c r="N34" s="18" t="s"/>
+      <c r="O34" s="18" t="s"/>
+      <c r="P34" s="18" t="s"/>
+      <c r="Q34" s="18" t="s"/>
+      <c r="R34" s="18" t="s"/>
       <c r="AX34" s="13" t="n"/>
       <c r="AY34" s="12" t="n"/>
-      <c r="BF34" s="19" t="s"/>
-      <c r="BG34" s="19" t="s"/>
-      <c r="BH34" s="19" t="s"/>
-      <c r="BI34" s="19" t="s"/>
-      <c r="BJ34" s="19" t="s"/>
-      <c r="BK34" s="19" t="s"/>
-      <c r="BL34" s="19" t="s"/>
-      <c r="BM34" s="19" t="s"/>
-      <c r="BN34" s="19" t="s"/>
-      <c r="BO34" s="19" t="s"/>
-      <c r="BP34" s="19" t="s"/>
-      <c r="BQ34" s="19" t="s"/>
+      <c r="BF34" s="18" t="s"/>
+      <c r="BG34" s="18" t="s"/>
+      <c r="BH34" s="18" t="s"/>
+      <c r="BI34" s="18" t="s"/>
+      <c r="BJ34" s="18" t="s"/>
+      <c r="BK34" s="18" t="s"/>
+      <c r="BL34" s="18" t="s"/>
+      <c r="BM34" s="18" t="s"/>
+      <c r="BN34" s="18" t="s"/>
       <c r="CT34" s="13" t="n"/>
       <c r="CU34" s="12" t="n"/>
       <c r="EP34" s="13" t="n"/>
       <c r="EQ34" s="12" t="n"/>
-      <c r="EX34" s="19" t="s"/>
-      <c r="EY34" s="19" t="s"/>
-      <c r="EZ34" s="19" t="s"/>
-      <c r="FA34" s="19" t="s"/>
-      <c r="FB34" s="19" t="s"/>
-      <c r="FC34" s="19" t="s"/>
-      <c r="FD34" s="19" t="s"/>
-      <c r="FE34" s="19" t="s"/>
-      <c r="FF34" s="19" t="s"/>
-      <c r="FG34" s="19" t="s"/>
-      <c r="FH34" s="19" t="s"/>
-      <c r="FI34" s="19" t="s"/>
+      <c r="EX34" s="18" t="s"/>
+      <c r="EY34" s="18" t="s"/>
+      <c r="EZ34" s="18" t="s"/>
+      <c r="FA34" s="18" t="s"/>
+      <c r="FB34" s="18" t="s"/>
+      <c r="FC34" s="18" t="s"/>
+      <c r="FD34" s="18" t="s"/>
+      <c r="FE34" s="18" t="s"/>
+      <c r="FF34" s="18" t="s"/>
       <c r="GL34" s="13" t="n"/>
       <c r="GM34" s="12" t="n"/>
-      <c r="GT34" s="19" t="s"/>
-      <c r="GU34" s="19" t="s"/>
-      <c r="GV34" s="19" t="s"/>
-      <c r="GW34" s="19" t="s"/>
-      <c r="GX34" s="19" t="s"/>
-      <c r="GY34" s="19" t="s"/>
-      <c r="GZ34" s="19" t="s"/>
-      <c r="HA34" s="19" t="s"/>
-      <c r="HB34" s="19" t="s"/>
-      <c r="HC34" s="19" t="s"/>
-      <c r="HD34" s="19" t="s"/>
-      <c r="HE34" s="19" t="s"/>
+      <c r="GT34" s="18" t="s"/>
+      <c r="GU34" s="18" t="s"/>
+      <c r="GV34" s="18" t="s"/>
+      <c r="GW34" s="18" t="s"/>
+      <c r="GX34" s="18" t="s"/>
+      <c r="GY34" s="18" t="s"/>
+      <c r="GZ34" s="18" t="s"/>
+      <c r="HA34" s="18" t="s"/>
+      <c r="HB34" s="18" t="s"/>
       <c r="IH34" s="13" t="n"/>
       <c r="II34" s="12" t="n"/>
-      <c r="IP34" s="19" t="s"/>
-      <c r="IQ34" s="19" t="s"/>
-      <c r="IR34" s="19" t="s"/>
-      <c r="IS34" s="19" t="s"/>
-      <c r="IT34" s="19" t="s"/>
-      <c r="IU34" s="19" t="s"/>
-      <c r="IV34" s="19" t="s"/>
-      <c r="IW34" s="19" t="s"/>
-      <c r="IX34" s="19" t="s"/>
-      <c r="IY34" s="19" t="s"/>
-      <c r="IZ34" s="19" t="s"/>
-      <c r="JA34" s="19" t="s"/>
+      <c r="IP34" s="18" t="s"/>
+      <c r="IQ34" s="18" t="s"/>
+      <c r="IR34" s="18" t="s"/>
+      <c r="IS34" s="18" t="s"/>
+      <c r="IT34" s="18" t="s"/>
+      <c r="IU34" s="18" t="s"/>
+      <c r="IV34" s="18" t="s"/>
+      <c r="IW34" s="18" t="s"/>
+      <c r="IX34" s="18" t="s"/>
       <c r="KD34" s="13" t="n"/>
       <c r="KE34" s="12" t="n"/>
-      <c r="KL34" s="19" t="s"/>
-      <c r="KM34" s="19" t="s"/>
-      <c r="KN34" s="19" t="s"/>
-      <c r="KO34" s="19" t="s"/>
-      <c r="KP34" s="19" t="s"/>
-      <c r="KQ34" s="19" t="s"/>
-      <c r="KR34" s="19" t="s"/>
-      <c r="KS34" s="19" t="s"/>
-      <c r="KT34" s="19" t="s"/>
-      <c r="KU34" s="19" t="s"/>
-      <c r="KV34" s="19" t="s"/>
-      <c r="KW34" s="19" t="s"/>
+      <c r="KL34" s="18" t="s"/>
+      <c r="KM34" s="18" t="s"/>
+      <c r="KN34" s="18" t="s"/>
+      <c r="KO34" s="18" t="s"/>
+      <c r="KP34" s="18" t="s"/>
+      <c r="KQ34" s="18" t="s"/>
+      <c r="KR34" s="18" t="s"/>
+      <c r="KS34" s="18" t="s"/>
+      <c r="KT34" s="18" t="s"/>
       <c r="LZ34" s="13" t="n"/>
     </row>
     <row r="35" spans="1:338">
@@ -2673,16 +2645,22 @@
         <v>10</v>
       </c>
       <c r="C35" s="20" t="s"/>
+      <c r="D35" s="15" t="s"/>
       <c r="AX35" s="21" t="s"/>
       <c r="AY35" s="20" t="s"/>
+      <c r="AZ35" s="15" t="s"/>
       <c r="CT35" s="21" t="s"/>
       <c r="CU35" s="20" t="s"/>
+      <c r="CV35" s="15" t="s"/>
       <c r="EP35" s="21" t="s"/>
       <c r="EQ35" s="20" t="s"/>
+      <c r="ER35" s="15" t="s"/>
       <c r="GL35" s="21" t="s"/>
       <c r="GM35" s="20" t="s"/>
+      <c r="GN35" s="15" t="s"/>
       <c r="IH35" s="21" t="s"/>
       <c r="II35" s="20" t="s"/>
+      <c r="IJ35" s="15" t="s"/>
       <c r="KD35" s="13" t="n"/>
       <c r="KE35" s="12" t="n"/>
       <c r="LZ35" s="21" t="s"/>
@@ -2985,23 +2963,23 @@
       <c r="KE36" s="6" t="n"/>
       <c r="KF36" s="7" t="n"/>
       <c r="KG36" s="7" t="n"/>
-      <c r="KH36" s="24" t="s"/>
-      <c r="KI36" s="24" t="s"/>
-      <c r="KJ36" s="24" t="s"/>
-      <c r="KK36" s="24" t="s"/>
-      <c r="KL36" s="24" t="s"/>
-      <c r="KM36" s="24" t="s"/>
-      <c r="KN36" s="24" t="s"/>
-      <c r="KO36" s="24" t="s"/>
-      <c r="KP36" s="24" t="s"/>
-      <c r="KQ36" s="24" t="s"/>
-      <c r="KR36" s="24" t="s"/>
-      <c r="KS36" s="24" t="s"/>
-      <c r="KT36" s="24" t="s"/>
-      <c r="KU36" s="7" t="n"/>
-      <c r="KV36" s="7" t="n"/>
-      <c r="KW36" s="7" t="n"/>
-      <c r="KX36" s="7" t="n"/>
+      <c r="KH36" s="25" t="s"/>
+      <c r="KI36" s="25" t="s"/>
+      <c r="KJ36" s="25" t="s"/>
+      <c r="KK36" s="25" t="s"/>
+      <c r="KL36" s="25" t="s"/>
+      <c r="KM36" s="25" t="s"/>
+      <c r="KN36" s="25" t="s"/>
+      <c r="KO36" s="25" t="s"/>
+      <c r="KP36" s="25" t="s"/>
+      <c r="KQ36" s="25" t="s"/>
+      <c r="KR36" s="25" t="s"/>
+      <c r="KS36" s="25" t="s"/>
+      <c r="KT36" s="25" t="s"/>
+      <c r="KU36" s="25" t="s"/>
+      <c r="KV36" s="25" t="s"/>
+      <c r="KW36" s="25" t="s"/>
+      <c r="KX36" s="25" t="s"/>
       <c r="KY36" s="7" t="n"/>
       <c r="KZ36" s="7" t="n"/>
       <c r="LA36" s="7" t="n"/>
@@ -3038,66 +3016,36 @@
       <c r="B37" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="19" t="s"/>
-      <c r="J37" s="19" t="s"/>
-      <c r="K37" s="19" t="s"/>
-      <c r="L37" s="19" t="s"/>
-      <c r="M37" s="19" t="s"/>
-      <c r="N37" s="19" t="s"/>
-      <c r="O37" s="19" t="s"/>
-      <c r="P37" s="19" t="s"/>
-      <c r="Q37" s="19" t="s"/>
-      <c r="R37" s="19" t="s"/>
-      <c r="BE37" s="19" t="s"/>
-      <c r="BF37" s="19" t="s"/>
-      <c r="BG37" s="19" t="s"/>
-      <c r="BH37" s="19" t="s"/>
-      <c r="BI37" s="19" t="s"/>
-      <c r="BJ37" s="19" t="s"/>
-      <c r="BK37" s="19" t="s"/>
-      <c r="BL37" s="19" t="s"/>
-      <c r="BM37" s="19" t="s"/>
-      <c r="BN37" s="19" t="s"/>
-      <c r="DA37" s="19" t="s"/>
-      <c r="DB37" s="19" t="s"/>
-      <c r="DC37" s="19" t="s"/>
-      <c r="DD37" s="19" t="s"/>
-      <c r="DE37" s="19" t="s"/>
-      <c r="DF37" s="19" t="s"/>
-      <c r="DG37" s="19" t="s"/>
-      <c r="DH37" s="19" t="s"/>
-      <c r="DI37" s="19" t="s"/>
-      <c r="DJ37" s="19" t="s"/>
-      <c r="EW37" s="19" t="s"/>
-      <c r="EX37" s="19" t="s"/>
-      <c r="EY37" s="19" t="s"/>
-      <c r="EZ37" s="19" t="s"/>
-      <c r="FA37" s="19" t="s"/>
-      <c r="FB37" s="19" t="s"/>
-      <c r="FC37" s="19" t="s"/>
-      <c r="FD37" s="19" t="s"/>
-      <c r="FE37" s="19" t="s"/>
-      <c r="FF37" s="19" t="s"/>
-      <c r="GS37" s="19" t="s"/>
-      <c r="GT37" s="19" t="s"/>
-      <c r="GU37" s="19" t="s"/>
-      <c r="GV37" s="19" t="s"/>
-      <c r="GW37" s="19" t="s"/>
-      <c r="GX37" s="19" t="s"/>
-      <c r="GY37" s="19" t="s"/>
-      <c r="GZ37" s="19" t="s"/>
-      <c r="HA37" s="19" t="s"/>
-      <c r="HB37" s="19" t="s"/>
-      <c r="IO37" s="19" t="s"/>
-      <c r="IP37" s="19" t="s"/>
-      <c r="IQ37" s="19" t="s"/>
-      <c r="IR37" s="19" t="s"/>
-      <c r="IS37" s="19" t="s"/>
-      <c r="IT37" s="19" t="s"/>
-      <c r="IU37" s="19" t="s"/>
-      <c r="IV37" s="19" t="s"/>
-      <c r="IW37" s="19" t="s"/>
-      <c r="IX37" s="19" t="s"/>
+      <c r="I37" s="18" t="s"/>
+      <c r="J37" s="18" t="s"/>
+      <c r="K37" s="18" t="s"/>
+      <c r="L37" s="18" t="s"/>
+      <c r="M37" s="18" t="s"/>
+      <c r="BE37" s="18" t="s"/>
+      <c r="BF37" s="18" t="s"/>
+      <c r="BG37" s="18" t="s"/>
+      <c r="BH37" s="18" t="s"/>
+      <c r="BI37" s="18" t="s"/>
+      <c r="DA37" s="18" t="s"/>
+      <c r="DB37" s="18" t="s"/>
+      <c r="DC37" s="18" t="s"/>
+      <c r="DD37" s="18" t="s"/>
+      <c r="DE37" s="18" t="s"/>
+      <c r="EW37" s="18" t="s"/>
+      <c r="EX37" s="18" t="s"/>
+      <c r="EY37" s="18" t="s"/>
+      <c r="EZ37" s="18" t="s"/>
+      <c r="FA37" s="18" t="s"/>
+      <c r="GS37" s="18" t="s"/>
+      <c r="GT37" s="18" t="s"/>
+      <c r="GU37" s="18" t="s"/>
+      <c r="GV37" s="18" t="s"/>
+      <c r="GW37" s="18" t="s"/>
+      <c r="IO37" s="18" t="s"/>
+      <c r="IP37" s="18" t="s"/>
+      <c r="IQ37" s="18" t="s"/>
+      <c r="IR37" s="18" t="s"/>
+      <c r="IS37" s="18" t="s"/>
     </row>
     <row r="38" spans="1:338">
       <c r="A38" t="s">
@@ -3136,18 +3084,18 @@
       <c r="B40" t="s">
         <v>12</v>
       </c>
-      <c r="I40" s="19" t="s"/>
-      <c r="J40" s="19" t="s"/>
-      <c r="BE40" s="19" t="s"/>
-      <c r="BF40" s="19" t="s"/>
-      <c r="DA40" s="19" t="s"/>
-      <c r="DB40" s="19" t="s"/>
-      <c r="EW40" s="19" t="s"/>
-      <c r="EX40" s="19" t="s"/>
-      <c r="GS40" s="19" t="s"/>
-      <c r="GT40" s="19" t="s"/>
-      <c r="IO40" s="19" t="s"/>
-      <c r="IP40" s="19" t="s"/>
+      <c r="I40" s="18" t="s"/>
+      <c r="J40" s="18" t="s"/>
+      <c r="BE40" s="18" t="s"/>
+      <c r="BF40" s="18" t="s"/>
+      <c r="DA40" s="18" t="s"/>
+      <c r="DB40" s="18" t="s"/>
+      <c r="EW40" s="18" t="s"/>
+      <c r="EX40" s="18" t="s"/>
+      <c r="GS40" s="18" t="s"/>
+      <c r="GT40" s="18" t="s"/>
+      <c r="IO40" s="18" t="s"/>
+      <c r="IP40" s="18" t="s"/>
     </row>
     <row r="41" spans="1:338">
       <c r="A41" t="s">
@@ -3186,18 +3134,18 @@
       <c r="B43" t="s">
         <v>12</v>
       </c>
-      <c r="I43" s="19" t="s"/>
-      <c r="J43" s="19" t="s"/>
-      <c r="BE43" s="19" t="s"/>
-      <c r="BF43" s="19" t="s"/>
-      <c r="DA43" s="19" t="s"/>
-      <c r="DB43" s="19" t="s"/>
-      <c r="EW43" s="19" t="s"/>
-      <c r="EX43" s="19" t="s"/>
-      <c r="GS43" s="19" t="s"/>
-      <c r="GT43" s="19" t="s"/>
-      <c r="IO43" s="19" t="s"/>
-      <c r="IP43" s="19" t="s"/>
+      <c r="I43" s="18" t="s"/>
+      <c r="J43" s="18" t="s"/>
+      <c r="BE43" s="18" t="s"/>
+      <c r="BF43" s="18" t="s"/>
+      <c r="DA43" s="18" t="s"/>
+      <c r="DB43" s="18" t="s"/>
+      <c r="EW43" s="18" t="s"/>
+      <c r="EX43" s="18" t="s"/>
+      <c r="GS43" s="18" t="s"/>
+      <c r="GT43" s="18" t="s"/>
+      <c r="IO43" s="18" t="s"/>
+      <c r="IP43" s="18" t="s"/>
     </row>
     <row r="44" spans="1:338">
       <c r="A44" t="s">
@@ -3208,46 +3156,18 @@
       </c>
       <c r="J44" s="15" t="s"/>
       <c r="K44" s="15" t="s"/>
-      <c r="L44" s="15" t="s"/>
-      <c r="M44" s="15" t="s"/>
-      <c r="N44" s="15" t="s"/>
-      <c r="O44" s="15" t="s"/>
       <c r="BF44" s="15" t="s"/>
       <c r="BG44" s="15" t="s"/>
-      <c r="BH44" s="15" t="s"/>
-      <c r="BI44" s="15" t="s"/>
-      <c r="BJ44" s="15" t="s"/>
-      <c r="BK44" s="15" t="s"/>
       <c r="DB44" s="15" t="s"/>
       <c r="DC44" s="15" t="s"/>
-      <c r="DD44" s="15" t="s"/>
-      <c r="DE44" s="15" t="s"/>
-      <c r="DF44" s="15" t="s"/>
-      <c r="DG44" s="15" t="s"/>
       <c r="EX44" s="15" t="s"/>
       <c r="EY44" s="15" t="s"/>
-      <c r="EZ44" s="15" t="s"/>
-      <c r="FA44" s="15" t="s"/>
-      <c r="FB44" s="15" t="s"/>
-      <c r="FC44" s="15" t="s"/>
       <c r="GT44" s="15" t="s"/>
       <c r="GU44" s="15" t="s"/>
-      <c r="GV44" s="15" t="s"/>
-      <c r="GW44" s="15" t="s"/>
-      <c r="GX44" s="15" t="s"/>
-      <c r="GY44" s="15" t="s"/>
       <c r="IP44" s="15" t="s"/>
       <c r="IQ44" s="15" t="s"/>
-      <c r="IR44" s="15" t="s"/>
-      <c r="IS44" s="15" t="s"/>
-      <c r="IT44" s="15" t="s"/>
-      <c r="IU44" s="15" t="s"/>
       <c r="KL44" s="15" t="s"/>
       <c r="KM44" s="15" t="s"/>
-      <c r="KN44" s="15" t="s"/>
-      <c r="KO44" s="15" t="s"/>
-      <c r="KP44" s="15" t="s"/>
-      <c r="KQ44" s="15" t="s"/>
     </row>
     <row r="45" spans="1:338">
       <c r="A45" t="s">
@@ -3260,21 +3180,6 @@
       <c r="IJ45" s="16" t="s"/>
       <c r="IK45" s="16" t="s"/>
       <c r="IL45" s="16" t="s"/>
-      <c r="IM45" s="16" t="s"/>
-      <c r="IN45" s="16" t="s"/>
-      <c r="IO45" s="16" t="s"/>
-      <c r="IP45" s="16" t="s"/>
-      <c r="IQ45" s="16" t="s"/>
-      <c r="IR45" s="16" t="s"/>
-      <c r="IS45" s="16" t="s"/>
-      <c r="IT45" s="16" t="s"/>
-      <c r="IU45" s="16" t="s"/>
-      <c r="IV45" s="16" t="s"/>
-      <c r="IW45" s="16" t="s"/>
-      <c r="IX45" s="16" t="s"/>
-      <c r="IY45" s="16" t="s"/>
-      <c r="IZ45" s="16" t="s"/>
-      <c r="JA45" s="16" t="s"/>
     </row>
     <row r="46" spans="1:338">
       <c r="A46" t="s">
@@ -3283,104 +3188,34 @@
       <c r="B46" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="19" t="s"/>
-      <c r="D46" s="19" t="s"/>
-      <c r="E46" s="19" t="s"/>
-      <c r="F46" s="19" t="s"/>
-      <c r="G46" s="19" t="s"/>
-      <c r="H46" s="19" t="s"/>
-      <c r="I46" s="19" t="s"/>
-      <c r="J46" s="19" t="s"/>
-      <c r="K46" s="19" t="s"/>
-      <c r="L46" s="19" t="s"/>
-      <c r="AU46" s="19" t="s"/>
-      <c r="AV46" s="19" t="s"/>
-      <c r="AW46" s="19" t="s"/>
-      <c r="AX46" s="19" t="s"/>
-      <c r="AY46" s="19" t="s"/>
-      <c r="AZ46" s="19" t="s"/>
-      <c r="BA46" s="19" t="s"/>
-      <c r="BB46" s="19" t="s"/>
-      <c r="BC46" s="19" t="s"/>
-      <c r="BD46" s="19" t="s"/>
-      <c r="BE46" s="19" t="s"/>
-      <c r="BF46" s="19" t="s"/>
-      <c r="BG46" s="19" t="s"/>
-      <c r="BH46" s="19" t="s"/>
-      <c r="CQ46" s="19" t="s"/>
-      <c r="CR46" s="19" t="s"/>
-      <c r="CS46" s="19" t="s"/>
-      <c r="CT46" s="19" t="s"/>
-      <c r="CU46" s="19" t="s"/>
-      <c r="CV46" s="19" t="s"/>
-      <c r="CW46" s="19" t="s"/>
-      <c r="CX46" s="19" t="s"/>
-      <c r="CY46" s="19" t="s"/>
-      <c r="CZ46" s="19" t="s"/>
-      <c r="DA46" s="19" t="s"/>
-      <c r="DB46" s="19" t="s"/>
-      <c r="DC46" s="19" t="s"/>
-      <c r="DD46" s="19" t="s"/>
-      <c r="EM46" s="19" t="s"/>
-      <c r="EN46" s="19" t="s"/>
-      <c r="EO46" s="19" t="s"/>
-      <c r="EP46" s="19" t="s"/>
-      <c r="EQ46" s="19" t="s"/>
-      <c r="ER46" s="19" t="s"/>
-      <c r="ES46" s="19" t="s"/>
-      <c r="ET46" s="19" t="s"/>
-      <c r="EU46" s="19" t="s"/>
-      <c r="EV46" s="19" t="s"/>
-      <c r="EW46" s="19" t="s"/>
-      <c r="EX46" s="19" t="s"/>
-      <c r="EY46" s="19" t="s"/>
-      <c r="EZ46" s="19" t="s"/>
-      <c r="GI46" s="19" t="s"/>
-      <c r="GJ46" s="19" t="s"/>
-      <c r="GK46" s="19" t="s"/>
-      <c r="GL46" s="19" t="s"/>
-      <c r="GM46" s="19" t="s"/>
-      <c r="GN46" s="19" t="s"/>
-      <c r="GO46" s="19" t="s"/>
-      <c r="GP46" s="19" t="s"/>
-      <c r="GQ46" s="19" t="s"/>
-      <c r="GR46" s="19" t="s"/>
-      <c r="GS46" s="19" t="s"/>
-      <c r="GT46" s="19" t="s"/>
-      <c r="GU46" s="19" t="s"/>
-      <c r="GV46" s="19" t="s"/>
-      <c r="IE46" s="19" t="s"/>
-      <c r="IF46" s="19" t="s"/>
-      <c r="IG46" s="19" t="s"/>
-      <c r="IH46" s="19" t="s"/>
-      <c r="II46" s="19" t="s"/>
-      <c r="IJ46" s="19" t="s"/>
-      <c r="IK46" s="19" t="s"/>
-      <c r="IL46" s="19" t="s"/>
-      <c r="IM46" s="19" t="s"/>
-      <c r="IN46" s="19" t="s"/>
-      <c r="IO46" s="19" t="s"/>
-      <c r="IP46" s="19" t="s"/>
-      <c r="IQ46" s="19" t="s"/>
-      <c r="IR46" s="19" t="s"/>
-      <c r="KA46" s="19" t="s"/>
-      <c r="KB46" s="19" t="s"/>
-      <c r="KC46" s="19" t="s"/>
-      <c r="KD46" s="19" t="s"/>
-      <c r="KE46" s="19" t="s"/>
-      <c r="KF46" s="19" t="s"/>
-      <c r="KG46" s="19" t="s"/>
-      <c r="KH46" s="19" t="s"/>
-      <c r="KI46" s="19" t="s"/>
-      <c r="KJ46" s="19" t="s"/>
-      <c r="KK46" s="19" t="s"/>
-      <c r="KL46" s="19" t="s"/>
-      <c r="KM46" s="19" t="s"/>
-      <c r="KN46" s="19" t="s"/>
-      <c r="LW46" s="19" t="s"/>
-      <c r="LX46" s="19" t="s"/>
-      <c r="LY46" s="19" t="s"/>
-      <c r="LZ46" s="19" t="s"/>
+      <c r="AU46" s="18" t="s"/>
+      <c r="AV46" s="18" t="s"/>
+      <c r="AW46" s="18" t="s"/>
+      <c r="AX46" s="18" t="s"/>
+      <c r="CQ46" s="18" t="s"/>
+      <c r="CR46" s="18" t="s"/>
+      <c r="CS46" s="18" t="s"/>
+      <c r="CT46" s="18" t="s"/>
+      <c r="EM46" s="18" t="s"/>
+      <c r="EN46" s="18" t="s"/>
+      <c r="EO46" s="18" t="s"/>
+      <c r="EP46" s="18" t="s"/>
+      <c r="GI46" s="18" t="s"/>
+      <c r="GJ46" s="18" t="s"/>
+      <c r="GK46" s="18" t="s"/>
+      <c r="GL46" s="18" t="s"/>
+      <c r="IE46" s="18" t="s"/>
+      <c r="IF46" s="18" t="s"/>
+      <c r="IG46" s="18" t="s"/>
+      <c r="IH46" s="18" t="s"/>
+      <c r="KA46" s="18" t="s"/>
+      <c r="KB46" s="18" t="s"/>
+      <c r="KC46" s="18" t="s"/>
+      <c r="KD46" s="18" t="s"/>
+      <c r="LW46" s="18" t="s"/>
+      <c r="LX46" s="18" t="s"/>
+      <c r="LY46" s="18" t="s"/>
+      <c r="LZ46" s="18" t="s"/>
     </row>
     <row r="47" spans="1:338">
       <c r="A47" t="s">
@@ -3421,20 +3256,20 @@
       <c r="B49" t="s">
         <v>12</v>
       </c>
-      <c r="AU49" s="19" t="s"/>
-      <c r="AV49" s="19" t="s"/>
-      <c r="CQ49" s="19" t="s"/>
-      <c r="CR49" s="19" t="s"/>
-      <c r="EM49" s="19" t="s"/>
-      <c r="EN49" s="19" t="s"/>
-      <c r="GI49" s="19" t="s"/>
-      <c r="GJ49" s="19" t="s"/>
-      <c r="IE49" s="19" t="s"/>
-      <c r="IF49" s="19" t="s"/>
-      <c r="KA49" s="19" t="s"/>
-      <c r="KB49" s="19" t="s"/>
-      <c r="LW49" s="19" t="s"/>
-      <c r="LX49" s="19" t="s"/>
+      <c r="AU49" s="18" t="s"/>
+      <c r="AV49" s="18" t="s"/>
+      <c r="CQ49" s="18" t="s"/>
+      <c r="CR49" s="18" t="s"/>
+      <c r="EM49" s="18" t="s"/>
+      <c r="EN49" s="18" t="s"/>
+      <c r="GI49" s="18" t="s"/>
+      <c r="GJ49" s="18" t="s"/>
+      <c r="IE49" s="18" t="s"/>
+      <c r="IF49" s="18" t="s"/>
+      <c r="KA49" s="18" t="s"/>
+      <c r="KB49" s="18" t="s"/>
+      <c r="LW49" s="18" t="s"/>
+      <c r="LX49" s="18" t="s"/>
     </row>
     <row r="50" spans="1:338">
       <c r="A50" t="s">
@@ -3445,46 +3280,18 @@
       </c>
       <c r="J50" s="15" t="s"/>
       <c r="K50" s="15" t="s"/>
-      <c r="L50" s="15" t="s"/>
-      <c r="M50" s="15" t="s"/>
-      <c r="N50" s="15" t="s"/>
-      <c r="O50" s="15" t="s"/>
       <c r="BF50" s="15" t="s"/>
       <c r="BG50" s="15" t="s"/>
-      <c r="BH50" s="15" t="s"/>
-      <c r="BI50" s="15" t="s"/>
-      <c r="BJ50" s="15" t="s"/>
-      <c r="BK50" s="15" t="s"/>
       <c r="DB50" s="15" t="s"/>
       <c r="DC50" s="15" t="s"/>
-      <c r="DD50" s="15" t="s"/>
-      <c r="DE50" s="15" t="s"/>
-      <c r="DF50" s="15" t="s"/>
-      <c r="DG50" s="15" t="s"/>
       <c r="EX50" s="15" t="s"/>
       <c r="EY50" s="15" t="s"/>
-      <c r="EZ50" s="15" t="s"/>
-      <c r="FA50" s="15" t="s"/>
-      <c r="FB50" s="15" t="s"/>
-      <c r="FC50" s="15" t="s"/>
       <c r="GT50" s="15" t="s"/>
       <c r="GU50" s="15" t="s"/>
-      <c r="GV50" s="15" t="s"/>
-      <c r="GW50" s="15" t="s"/>
-      <c r="GX50" s="15" t="s"/>
-      <c r="GY50" s="15" t="s"/>
       <c r="IP50" s="15" t="s"/>
       <c r="IQ50" s="15" t="s"/>
-      <c r="IR50" s="15" t="s"/>
-      <c r="IS50" s="15" t="s"/>
-      <c r="IT50" s="15" t="s"/>
-      <c r="IU50" s="15" t="s"/>
       <c r="KL50" s="15" t="s"/>
       <c r="KM50" s="15" t="s"/>
-      <c r="KN50" s="15" t="s"/>
-      <c r="KO50" s="15" t="s"/>
-      <c r="KP50" s="15" t="s"/>
-      <c r="KQ50" s="15" t="s"/>
     </row>
     <row r="51" spans="1:338">
       <c r="A51" t="s">
@@ -3497,21 +3304,6 @@
       <c r="IJ51" s="16" t="s"/>
       <c r="IK51" s="16" t="s"/>
       <c r="IL51" s="16" t="s"/>
-      <c r="IM51" s="16" t="s"/>
-      <c r="IN51" s="16" t="s"/>
-      <c r="IO51" s="16" t="s"/>
-      <c r="IP51" s="16" t="s"/>
-      <c r="IQ51" s="16" t="s"/>
-      <c r="IR51" s="16" t="s"/>
-      <c r="IS51" s="16" t="s"/>
-      <c r="IT51" s="16" t="s"/>
-      <c r="IU51" s="16" t="s"/>
-      <c r="IV51" s="16" t="s"/>
-      <c r="IW51" s="16" t="s"/>
-      <c r="IX51" s="16" t="s"/>
-      <c r="IY51" s="16" t="s"/>
-      <c r="IZ51" s="16" t="s"/>
-      <c r="JA51" s="16" t="s"/>
     </row>
     <row r="52" spans="1:338">
       <c r="A52" t="s">
@@ -3520,104 +3312,34 @@
       <c r="B52" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="19" t="s"/>
-      <c r="D52" s="19" t="s"/>
-      <c r="E52" s="19" t="s"/>
-      <c r="F52" s="19" t="s"/>
-      <c r="G52" s="19" t="s"/>
-      <c r="H52" s="19" t="s"/>
-      <c r="I52" s="19" t="s"/>
-      <c r="J52" s="19" t="s"/>
-      <c r="K52" s="19" t="s"/>
-      <c r="L52" s="19" t="s"/>
-      <c r="AU52" s="19" t="s"/>
-      <c r="AV52" s="19" t="s"/>
-      <c r="AW52" s="19" t="s"/>
-      <c r="AX52" s="19" t="s"/>
-      <c r="AY52" s="19" t="s"/>
-      <c r="AZ52" s="19" t="s"/>
-      <c r="BA52" s="19" t="s"/>
-      <c r="BB52" s="19" t="s"/>
-      <c r="BC52" s="19" t="s"/>
-      <c r="BD52" s="19" t="s"/>
-      <c r="BE52" s="19" t="s"/>
-      <c r="BF52" s="19" t="s"/>
-      <c r="BG52" s="19" t="s"/>
-      <c r="BH52" s="19" t="s"/>
-      <c r="CQ52" s="19" t="s"/>
-      <c r="CR52" s="19" t="s"/>
-      <c r="CS52" s="19" t="s"/>
-      <c r="CT52" s="19" t="s"/>
-      <c r="CU52" s="19" t="s"/>
-      <c r="CV52" s="19" t="s"/>
-      <c r="CW52" s="19" t="s"/>
-      <c r="CX52" s="19" t="s"/>
-      <c r="CY52" s="19" t="s"/>
-      <c r="CZ52" s="19" t="s"/>
-      <c r="DA52" s="19" t="s"/>
-      <c r="DB52" s="19" t="s"/>
-      <c r="DC52" s="19" t="s"/>
-      <c r="DD52" s="19" t="s"/>
-      <c r="EM52" s="19" t="s"/>
-      <c r="EN52" s="19" t="s"/>
-      <c r="EO52" s="19" t="s"/>
-      <c r="EP52" s="19" t="s"/>
-      <c r="EQ52" s="19" t="s"/>
-      <c r="ER52" s="19" t="s"/>
-      <c r="ES52" s="19" t="s"/>
-      <c r="ET52" s="19" t="s"/>
-      <c r="EU52" s="19" t="s"/>
-      <c r="EV52" s="19" t="s"/>
-      <c r="EW52" s="19" t="s"/>
-      <c r="EX52" s="19" t="s"/>
-      <c r="EY52" s="19" t="s"/>
-      <c r="EZ52" s="19" t="s"/>
-      <c r="GI52" s="19" t="s"/>
-      <c r="GJ52" s="19" t="s"/>
-      <c r="GK52" s="19" t="s"/>
-      <c r="GL52" s="19" t="s"/>
-      <c r="GM52" s="19" t="s"/>
-      <c r="GN52" s="19" t="s"/>
-      <c r="GO52" s="19" t="s"/>
-      <c r="GP52" s="19" t="s"/>
-      <c r="GQ52" s="19" t="s"/>
-      <c r="GR52" s="19" t="s"/>
-      <c r="GS52" s="19" t="s"/>
-      <c r="GT52" s="19" t="s"/>
-      <c r="GU52" s="19" t="s"/>
-      <c r="GV52" s="19" t="s"/>
-      <c r="IE52" s="19" t="s"/>
-      <c r="IF52" s="19" t="s"/>
-      <c r="IG52" s="19" t="s"/>
-      <c r="IH52" s="19" t="s"/>
-      <c r="II52" s="19" t="s"/>
-      <c r="IJ52" s="19" t="s"/>
-      <c r="IK52" s="19" t="s"/>
-      <c r="IL52" s="19" t="s"/>
-      <c r="IM52" s="19" t="s"/>
-      <c r="IN52" s="19" t="s"/>
-      <c r="IO52" s="19" t="s"/>
-      <c r="IP52" s="19" t="s"/>
-      <c r="IQ52" s="19" t="s"/>
-      <c r="IR52" s="19" t="s"/>
-      <c r="KA52" s="19" t="s"/>
-      <c r="KB52" s="19" t="s"/>
-      <c r="KC52" s="19" t="s"/>
-      <c r="KD52" s="19" t="s"/>
-      <c r="KE52" s="19" t="s"/>
-      <c r="KF52" s="19" t="s"/>
-      <c r="KG52" s="19" t="s"/>
-      <c r="KH52" s="19" t="s"/>
-      <c r="KI52" s="19" t="s"/>
-      <c r="KJ52" s="19" t="s"/>
-      <c r="KK52" s="19" t="s"/>
-      <c r="KL52" s="19" t="s"/>
-      <c r="KM52" s="19" t="s"/>
-      <c r="KN52" s="19" t="s"/>
-      <c r="LW52" s="19" t="s"/>
-      <c r="LX52" s="19" t="s"/>
-      <c r="LY52" s="19" t="s"/>
-      <c r="LZ52" s="19" t="s"/>
+      <c r="AU52" s="18" t="s"/>
+      <c r="AV52" s="18" t="s"/>
+      <c r="AW52" s="18" t="s"/>
+      <c r="AX52" s="18" t="s"/>
+      <c r="CQ52" s="18" t="s"/>
+      <c r="CR52" s="18" t="s"/>
+      <c r="CS52" s="18" t="s"/>
+      <c r="CT52" s="18" t="s"/>
+      <c r="EM52" s="18" t="s"/>
+      <c r="EN52" s="18" t="s"/>
+      <c r="EO52" s="18" t="s"/>
+      <c r="EP52" s="18" t="s"/>
+      <c r="GI52" s="18" t="s"/>
+      <c r="GJ52" s="18" t="s"/>
+      <c r="GK52" s="18" t="s"/>
+      <c r="GL52" s="18" t="s"/>
+      <c r="IE52" s="18" t="s"/>
+      <c r="IF52" s="18" t="s"/>
+      <c r="IG52" s="18" t="s"/>
+      <c r="IH52" s="18" t="s"/>
+      <c r="KA52" s="18" t="s"/>
+      <c r="KB52" s="18" t="s"/>
+      <c r="KC52" s="18" t="s"/>
+      <c r="KD52" s="18" t="s"/>
+      <c r="LW52" s="18" t="s"/>
+      <c r="LX52" s="18" t="s"/>
+      <c r="LY52" s="18" t="s"/>
+      <c r="LZ52" s="18" t="s"/>
     </row>
     <row r="53" spans="1:338">
       <c r="A53" t="s">
@@ -3656,20 +3378,20 @@
       <c r="B55" t="s">
         <v>12</v>
       </c>
-      <c r="AU55" s="19" t="s"/>
-      <c r="AV55" s="19" t="s"/>
-      <c r="CQ55" s="19" t="s"/>
-      <c r="CR55" s="19" t="s"/>
-      <c r="EM55" s="19" t="s"/>
-      <c r="EN55" s="19" t="s"/>
-      <c r="GI55" s="19" t="s"/>
-      <c r="GJ55" s="19" t="s"/>
-      <c r="IE55" s="19" t="s"/>
-      <c r="IF55" s="19" t="s"/>
-      <c r="KA55" s="19" t="s"/>
-      <c r="KB55" s="19" t="s"/>
-      <c r="LW55" s="19" t="s"/>
-      <c r="LX55" s="19" t="s"/>
+      <c r="AU55" s="18" t="s"/>
+      <c r="AV55" s="18" t="s"/>
+      <c r="CQ55" s="18" t="s"/>
+      <c r="CR55" s="18" t="s"/>
+      <c r="EM55" s="18" t="s"/>
+      <c r="EN55" s="18" t="s"/>
+      <c r="GI55" s="18" t="s"/>
+      <c r="GJ55" s="18" t="s"/>
+      <c r="IE55" s="18" t="s"/>
+      <c r="IF55" s="18" t="s"/>
+      <c r="KA55" s="18" t="s"/>
+      <c r="KB55" s="18" t="s"/>
+      <c r="LW55" s="18" t="s"/>
+      <c r="LX55" s="18" t="s"/>
     </row>
     <row r="56" spans="1:338">
       <c r="A56" t="s">
@@ -3681,21 +3403,27 @@
       <c r="D56" s="15" t="s"/>
       <c r="E56" s="15" t="s"/>
       <c r="F56" s="15" t="s"/>
+      <c r="G56" s="15" t="s"/>
       <c r="AZ56" s="15" t="s"/>
       <c r="BA56" s="15" t="s"/>
       <c r="BB56" s="15" t="s"/>
+      <c r="BC56" s="15" t="s"/>
       <c r="CV56" s="15" t="s"/>
       <c r="CW56" s="15" t="s"/>
       <c r="CX56" s="15" t="s"/>
+      <c r="CY56" s="15" t="s"/>
       <c r="ER56" s="15" t="s"/>
       <c r="ES56" s="15" t="s"/>
       <c r="ET56" s="15" t="s"/>
+      <c r="EU56" s="15" t="s"/>
       <c r="GN56" s="15" t="s"/>
       <c r="GO56" s="15" t="s"/>
       <c r="GP56" s="15" t="s"/>
+      <c r="GQ56" s="15" t="s"/>
       <c r="IJ56" s="15" t="s"/>
       <c r="IK56" s="15" t="s"/>
       <c r="IL56" s="15" t="s"/>
+      <c r="IM56" s="15" t="s"/>
     </row>
     <row r="57" spans="1:338">
       <c r="A57" t="s">
@@ -3709,6 +3437,7 @@
       <c r="KE57" s="16" t="s"/>
       <c r="KF57" s="16" t="s"/>
       <c r="KG57" s="16" t="s"/>
+      <c r="KH57" s="16" t="s"/>
     </row>
     <row r="58" spans="1:338">
       <c r="A58" t="s">
@@ -3717,48 +3446,34 @@
       <c r="B58" t="s">
         <v>12</v>
       </c>
-      <c r="C58" s="19" t="s"/>
-      <c r="AT58" s="19" t="s"/>
-      <c r="AU58" s="19" t="s"/>
-      <c r="AV58" s="19" t="s"/>
-      <c r="AW58" s="19" t="s"/>
-      <c r="AX58" s="19" t="s"/>
-      <c r="AY58" s="19" t="s"/>
-      <c r="CP58" s="19" t="s"/>
-      <c r="CQ58" s="19" t="s"/>
-      <c r="CR58" s="19" t="s"/>
-      <c r="CS58" s="19" t="s"/>
-      <c r="CT58" s="19" t="s"/>
-      <c r="CU58" s="19" t="s"/>
-      <c r="EL58" s="19" t="s"/>
-      <c r="EM58" s="19" t="s"/>
-      <c r="EN58" s="19" t="s"/>
-      <c r="EO58" s="19" t="s"/>
-      <c r="EP58" s="19" t="s"/>
-      <c r="EQ58" s="19" t="s"/>
-      <c r="GH58" s="19" t="s"/>
-      <c r="GI58" s="19" t="s"/>
-      <c r="GJ58" s="19" t="s"/>
-      <c r="GK58" s="19" t="s"/>
-      <c r="GL58" s="19" t="s"/>
-      <c r="GM58" s="19" t="s"/>
-      <c r="ID58" s="19" t="s"/>
-      <c r="IE58" s="19" t="s"/>
-      <c r="IF58" s="19" t="s"/>
-      <c r="IG58" s="19" t="s"/>
-      <c r="IH58" s="19" t="s"/>
-      <c r="II58" s="19" t="s"/>
-      <c r="JZ58" s="19" t="s"/>
-      <c r="KA58" s="19" t="s"/>
-      <c r="KB58" s="19" t="s"/>
-      <c r="KC58" s="19" t="s"/>
-      <c r="KD58" s="19" t="s"/>
-      <c r="KE58" s="19" t="s"/>
-      <c r="LV58" s="19" t="s"/>
-      <c r="LW58" s="19" t="s"/>
-      <c r="LX58" s="19" t="s"/>
-      <c r="LY58" s="19" t="s"/>
-      <c r="LZ58" s="19" t="s"/>
+      <c r="AT58" s="18" t="s"/>
+      <c r="AU58" s="18" t="s"/>
+      <c r="AV58" s="18" t="s"/>
+      <c r="AW58" s="18" t="s"/>
+      <c r="CP58" s="18" t="s"/>
+      <c r="CQ58" s="18" t="s"/>
+      <c r="CR58" s="18" t="s"/>
+      <c r="CS58" s="18" t="s"/>
+      <c r="EL58" s="18" t="s"/>
+      <c r="EM58" s="18" t="s"/>
+      <c r="EN58" s="18" t="s"/>
+      <c r="EO58" s="18" t="s"/>
+      <c r="GH58" s="18" t="s"/>
+      <c r="GI58" s="18" t="s"/>
+      <c r="GJ58" s="18" t="s"/>
+      <c r="GK58" s="18" t="s"/>
+      <c r="ID58" s="18" t="s"/>
+      <c r="IE58" s="18" t="s"/>
+      <c r="IF58" s="18" t="s"/>
+      <c r="IG58" s="18" t="s"/>
+      <c r="JZ58" s="18" t="s"/>
+      <c r="KA58" s="18" t="s"/>
+      <c r="KB58" s="18" t="s"/>
+      <c r="KC58" s="18" t="s"/>
+      <c r="LV58" s="18" t="s"/>
+      <c r="LW58" s="18" t="s"/>
+      <c r="LX58" s="18" t="s"/>
+      <c r="LY58" s="18" t="s"/>
     </row>
     <row r="59" spans="1:338">
       <c r="A59" t="s">
@@ -3797,20 +3512,20 @@
       <c r="B61" t="s">
         <v>12</v>
       </c>
-      <c r="AW61" s="19" t="s"/>
-      <c r="AX61" s="19" t="s"/>
-      <c r="CS61" s="19" t="s"/>
-      <c r="CT61" s="19" t="s"/>
-      <c r="EO61" s="19" t="s"/>
-      <c r="EP61" s="19" t="s"/>
-      <c r="GK61" s="19" t="s"/>
-      <c r="GL61" s="19" t="s"/>
-      <c r="IG61" s="19" t="s"/>
-      <c r="IH61" s="19" t="s"/>
-      <c r="KC61" s="19" t="s"/>
-      <c r="KD61" s="19" t="s"/>
-      <c r="LY61" s="19" t="s"/>
-      <c r="LZ61" s="19" t="s"/>
+      <c r="AW61" s="18" t="s"/>
+      <c r="AX61" s="18" t="s"/>
+      <c r="CS61" s="18" t="s"/>
+      <c r="CT61" s="18" t="s"/>
+      <c r="EO61" s="18" t="s"/>
+      <c r="EP61" s="18" t="s"/>
+      <c r="GK61" s="18" t="s"/>
+      <c r="GL61" s="18" t="s"/>
+      <c r="IG61" s="18" t="s"/>
+      <c r="IH61" s="18" t="s"/>
+      <c r="KC61" s="18" t="s"/>
+      <c r="KD61" s="18" t="s"/>
+      <c r="LY61" s="18" t="s"/>
+      <c r="LZ61" s="18" t="s"/>
     </row>
     <row r="62" spans="1:338">
       <c r="A62" t="s">
@@ -3851,18 +3566,18 @@
       <c r="B64" t="s">
         <v>12</v>
       </c>
-      <c r="AU64" s="19" t="s"/>
-      <c r="AV64" s="19" t="s"/>
-      <c r="CQ64" s="19" t="s"/>
-      <c r="CR64" s="19" t="s"/>
-      <c r="EM64" s="19" t="s"/>
-      <c r="EN64" s="19" t="s"/>
-      <c r="GI64" s="19" t="s"/>
-      <c r="GJ64" s="19" t="s"/>
-      <c r="KA64" s="19" t="s"/>
-      <c r="KB64" s="19" t="s"/>
-      <c r="LW64" s="19" t="s"/>
-      <c r="LX64" s="19" t="s"/>
+      <c r="AU64" s="18" t="s"/>
+      <c r="AV64" s="18" t="s"/>
+      <c r="CQ64" s="18" t="s"/>
+      <c r="CR64" s="18" t="s"/>
+      <c r="EM64" s="18" t="s"/>
+      <c r="EN64" s="18" t="s"/>
+      <c r="GI64" s="18" t="s"/>
+      <c r="GJ64" s="18" t="s"/>
+      <c r="KA64" s="18" t="s"/>
+      <c r="KB64" s="18" t="s"/>
+      <c r="LW64" s="18" t="s"/>
+      <c r="LX64" s="18" t="s"/>
     </row>
     <row r="65" spans="1:338">
       <c r="A65" t="s">
@@ -3901,20 +3616,20 @@
       <c r="B67" t="s">
         <v>12</v>
       </c>
-      <c r="AU67" s="19" t="s"/>
-      <c r="AV67" s="19" t="s"/>
-      <c r="CQ67" s="19" t="s"/>
-      <c r="CR67" s="19" t="s"/>
-      <c r="EM67" s="19" t="s"/>
-      <c r="EN67" s="19" t="s"/>
-      <c r="GI67" s="19" t="s"/>
-      <c r="GJ67" s="19" t="s"/>
-      <c r="IE67" s="19" t="s"/>
-      <c r="IF67" s="19" t="s"/>
-      <c r="KA67" s="19" t="s"/>
-      <c r="KB67" s="19" t="s"/>
-      <c r="LW67" s="19" t="s"/>
-      <c r="LX67" s="19" t="s"/>
+      <c r="AU67" s="18" t="s"/>
+      <c r="AV67" s="18" t="s"/>
+      <c r="CQ67" s="18" t="s"/>
+      <c r="CR67" s="18" t="s"/>
+      <c r="EM67" s="18" t="s"/>
+      <c r="EN67" s="18" t="s"/>
+      <c r="GI67" s="18" t="s"/>
+      <c r="GJ67" s="18" t="s"/>
+      <c r="IE67" s="18" t="s"/>
+      <c r="IF67" s="18" t="s"/>
+      <c r="KA67" s="18" t="s"/>
+      <c r="KB67" s="18" t="s"/>
+      <c r="LW67" s="18" t="s"/>
+      <c r="LX67" s="18" t="s"/>
     </row>
     <row r="68" spans="1:338">
       <c r="A68" t="s">
@@ -3953,20 +3668,20 @@
       <c r="B70" t="s">
         <v>12</v>
       </c>
-      <c r="G70" s="19" t="s"/>
-      <c r="H70" s="19" t="s"/>
-      <c r="BC70" s="19" t="s"/>
-      <c r="BD70" s="19" t="s"/>
-      <c r="CY70" s="19" t="s"/>
-      <c r="CZ70" s="19" t="s"/>
-      <c r="EU70" s="19" t="s"/>
-      <c r="EV70" s="19" t="s"/>
-      <c r="GQ70" s="19" t="s"/>
-      <c r="GR70" s="19" t="s"/>
-      <c r="IM70" s="19" t="s"/>
-      <c r="IN70" s="19" t="s"/>
-      <c r="KI70" s="19" t="s"/>
-      <c r="KJ70" s="19" t="s"/>
+      <c r="G70" s="18" t="s"/>
+      <c r="H70" s="18" t="s"/>
+      <c r="BC70" s="18" t="s"/>
+      <c r="BD70" s="18" t="s"/>
+      <c r="CY70" s="18" t="s"/>
+      <c r="CZ70" s="18" t="s"/>
+      <c r="EU70" s="18" t="s"/>
+      <c r="EV70" s="18" t="s"/>
+      <c r="GQ70" s="18" t="s"/>
+      <c r="GR70" s="18" t="s"/>
+      <c r="IM70" s="18" t="s"/>
+      <c r="IN70" s="18" t="s"/>
+      <c r="KI70" s="18" t="s"/>
+      <c r="KJ70" s="18" t="s"/>
     </row>
     <row r="71" spans="1:338">
       <c r="A71" t="s">
@@ -4007,6 +3722,8 @@
       <c r="AZ72" s="16" t="s"/>
       <c r="BA72" s="16" t="s"/>
       <c r="BB72" s="16" t="s"/>
+      <c r="BC72" s="16" t="s"/>
+      <c r="BD72" s="16" t="s"/>
     </row>
     <row r="73" spans="1:338">
       <c r="A73" t="s">
@@ -4015,20 +3732,20 @@
       <c r="B73" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="19" t="s"/>
-      <c r="H73" s="19" t="s"/>
-      <c r="BC73" s="19" t="s"/>
-      <c r="BD73" s="19" t="s"/>
-      <c r="CY73" s="19" t="s"/>
-      <c r="CZ73" s="19" t="s"/>
-      <c r="EU73" s="19" t="s"/>
-      <c r="EV73" s="19" t="s"/>
-      <c r="GQ73" s="19" t="s"/>
-      <c r="GR73" s="19" t="s"/>
-      <c r="IM73" s="19" t="s"/>
-      <c r="IN73" s="19" t="s"/>
-      <c r="KI73" s="19" t="s"/>
-      <c r="KJ73" s="19" t="s"/>
+      <c r="G73" s="18" t="s"/>
+      <c r="H73" s="18" t="s"/>
+      <c r="BC73" s="18" t="s"/>
+      <c r="BD73" s="18" t="s"/>
+      <c r="CY73" s="18" t="s"/>
+      <c r="CZ73" s="18" t="s"/>
+      <c r="EU73" s="18" t="s"/>
+      <c r="EV73" s="18" t="s"/>
+      <c r="GQ73" s="18" t="s"/>
+      <c r="GR73" s="18" t="s"/>
+      <c r="IM73" s="18" t="s"/>
+      <c r="IN73" s="18" t="s"/>
+      <c r="KI73" s="18" t="s"/>
+      <c r="KJ73" s="18" t="s"/>
     </row>
     <row r="74" spans="1:338">
       <c r="A74" t="s">
@@ -4067,18 +3784,18 @@
       <c r="B76" t="s">
         <v>12</v>
       </c>
-      <c r="I76" s="19" t="s"/>
-      <c r="J76" s="19" t="s"/>
-      <c r="BE76" s="19" t="s"/>
-      <c r="BF76" s="19" t="s"/>
-      <c r="DA76" s="19" t="s"/>
-      <c r="DB76" s="19" t="s"/>
-      <c r="EW76" s="19" t="s"/>
-      <c r="EX76" s="19" t="s"/>
-      <c r="GS76" s="19" t="s"/>
-      <c r="GT76" s="19" t="s"/>
-      <c r="IO76" s="19" t="s"/>
-      <c r="IP76" s="19" t="s"/>
+      <c r="I76" s="18" t="s"/>
+      <c r="J76" s="18" t="s"/>
+      <c r="BE76" s="18" t="s"/>
+      <c r="BF76" s="18" t="s"/>
+      <c r="DA76" s="18" t="s"/>
+      <c r="DB76" s="18" t="s"/>
+      <c r="EW76" s="18" t="s"/>
+      <c r="EX76" s="18" t="s"/>
+      <c r="GS76" s="18" t="s"/>
+      <c r="GT76" s="18" t="s"/>
+      <c r="IO76" s="18" t="s"/>
+      <c r="IP76" s="18" t="s"/>
     </row>
     <row r="77" spans="1:338">
       <c r="A77" t="s">
@@ -4088,11 +3805,17 @@
         <v>10</v>
       </c>
       <c r="F77" s="15" t="s"/>
+      <c r="G77" s="15" t="s"/>
       <c r="BB77" s="15" t="s"/>
+      <c r="BC77" s="15" t="s"/>
       <c r="CX77" s="15" t="s"/>
+      <c r="CY77" s="15" t="s"/>
       <c r="ET77" s="15" t="s"/>
+      <c r="EU77" s="15" t="s"/>
       <c r="GP77" s="15" t="s"/>
+      <c r="GQ77" s="15" t="s"/>
       <c r="IL77" s="15" t="s"/>
+      <c r="IM77" s="15" t="s"/>
     </row>
     <row r="78" spans="1:338">
       <c r="A78" t="s">
@@ -4111,18 +3834,18 @@
       <c r="B79" t="s">
         <v>12</v>
       </c>
-      <c r="I79" s="19" t="s"/>
-      <c r="J79" s="19" t="s"/>
-      <c r="BE79" s="19" t="s"/>
-      <c r="BF79" s="19" t="s"/>
-      <c r="DA79" s="19" t="s"/>
-      <c r="DB79" s="19" t="s"/>
-      <c r="EW79" s="19" t="s"/>
-      <c r="EX79" s="19" t="s"/>
-      <c r="GS79" s="19" t="s"/>
-      <c r="GT79" s="19" t="s"/>
-      <c r="KK79" s="19" t="s"/>
-      <c r="KL79" s="19" t="s"/>
+      <c r="I79" s="18" t="s"/>
+      <c r="J79" s="18" t="s"/>
+      <c r="BE79" s="18" t="s"/>
+      <c r="BF79" s="18" t="s"/>
+      <c r="DA79" s="18" t="s"/>
+      <c r="DB79" s="18" t="s"/>
+      <c r="EW79" s="18" t="s"/>
+      <c r="EX79" s="18" t="s"/>
+      <c r="GS79" s="18" t="s"/>
+      <c r="GT79" s="18" t="s"/>
+      <c r="KK79" s="18" t="s"/>
+      <c r="KL79" s="18" t="s"/>
     </row>
     <row r="80" spans="1:338">
       <c r="A80" t="s">
@@ -4133,18 +3856,25 @@
       </c>
       <c r="E80" s="15" t="s"/>
       <c r="F80" s="15" t="s"/>
+      <c r="G80" s="15" t="s"/>
       <c r="BA80" s="15" t="s"/>
       <c r="BB80" s="15" t="s"/>
+      <c r="BC80" s="15" t="s"/>
       <c r="CW80" s="15" t="s"/>
       <c r="CX80" s="15" t="s"/>
+      <c r="CY80" s="15" t="s"/>
       <c r="ES80" s="15" t="s"/>
       <c r="ET80" s="15" t="s"/>
+      <c r="EU80" s="15" t="s"/>
       <c r="GO80" s="15" t="s"/>
       <c r="GP80" s="15" t="s"/>
+      <c r="GQ80" s="15" t="s"/>
       <c r="IK80" s="15" t="s"/>
       <c r="IL80" s="15" t="s"/>
+      <c r="IM80" s="15" t="s"/>
       <c r="KG80" s="15" t="s"/>
       <c r="KH80" s="15" t="s"/>
+      <c r="KI80" s="15" t="s"/>
     </row>
     <row r="81" spans="1:338">
       <c r="A81" t="s">
@@ -4167,41 +3897,27 @@
       <c r="B82" t="s">
         <v>12</v>
       </c>
-      <c r="I82" s="19" t="s"/>
-      <c r="J82" s="19" t="s"/>
-      <c r="K82" s="19" t="s"/>
-      <c r="L82" s="19" t="s"/>
-      <c r="M82" s="19" t="s"/>
-      <c r="BE82" s="19" t="s"/>
-      <c r="BF82" s="19" t="s"/>
-      <c r="BG82" s="19" t="s"/>
-      <c r="BH82" s="19" t="s"/>
-      <c r="BI82" s="19" t="s"/>
-      <c r="DA82" s="19" t="s"/>
-      <c r="DB82" s="19" t="s"/>
-      <c r="DC82" s="19" t="s"/>
-      <c r="DD82" s="19" t="s"/>
-      <c r="DE82" s="19" t="s"/>
-      <c r="EW82" s="19" t="s"/>
-      <c r="EX82" s="19" t="s"/>
-      <c r="EY82" s="19" t="s"/>
-      <c r="EZ82" s="19" t="s"/>
-      <c r="FA82" s="19" t="s"/>
-      <c r="GS82" s="19" t="s"/>
-      <c r="GT82" s="19" t="s"/>
-      <c r="GU82" s="19" t="s"/>
-      <c r="GV82" s="19" t="s"/>
-      <c r="GW82" s="19" t="s"/>
-      <c r="IO82" s="19" t="s"/>
-      <c r="IP82" s="19" t="s"/>
-      <c r="IQ82" s="19" t="s"/>
-      <c r="IR82" s="19" t="s"/>
-      <c r="IS82" s="19" t="s"/>
-      <c r="KK82" s="19" t="s"/>
-      <c r="KL82" s="19" t="s"/>
-      <c r="KM82" s="19" t="s"/>
-      <c r="KN82" s="19" t="s"/>
-      <c r="KO82" s="19" t="s"/>
+      <c r="I82" s="18" t="s"/>
+      <c r="J82" s="18" t="s"/>
+      <c r="K82" s="18" t="s"/>
+      <c r="BE82" s="18" t="s"/>
+      <c r="BF82" s="18" t="s"/>
+      <c r="BG82" s="18" t="s"/>
+      <c r="DA82" s="18" t="s"/>
+      <c r="DB82" s="18" t="s"/>
+      <c r="DC82" s="18" t="s"/>
+      <c r="EW82" s="18" t="s"/>
+      <c r="EX82" s="18" t="s"/>
+      <c r="EY82" s="18" t="s"/>
+      <c r="GS82" s="18" t="s"/>
+      <c r="GT82" s="18" t="s"/>
+      <c r="GU82" s="18" t="s"/>
+      <c r="IO82" s="18" t="s"/>
+      <c r="IP82" s="18" t="s"/>
+      <c r="IQ82" s="18" t="s"/>
+      <c r="KK82" s="18" t="s"/>
+      <c r="KL82" s="18" t="s"/>
+      <c r="KM82" s="18" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="175">
